--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\BigHitGame\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BFEF12-5337-4892-A801-B1A9ADCB2A86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3498BA-D9F6-4117-A23E-4017866EE6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1410" yWindow="5955" windowWidth="35040" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5430" yWindow="3690" windowWidth="29130" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -953,7 +953,7 @@
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1076,7 +1076,7 @@
         <v>0.3</v>
       </c>
       <c r="H2" s="3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0.2</v>
       </c>
       <c r="H3" s="3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0.1</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1297,8 +1297,8 @@
       <c r="G5" s="7">
         <v>0.5</v>
       </c>
-      <c r="H5" s="7">
-        <v>4.4000000000000004</v>
+      <c r="H5" s="3">
+        <v>0.3</v>
       </c>
       <c r="I5" s="3">
         <v>50</v>
@@ -1371,8 +1371,8 @@
       <c r="G6" s="7">
         <v>0.5</v>
       </c>
-      <c r="H6" s="7">
-        <v>4.4000000000000004</v>
+      <c r="H6" s="3">
+        <v>0.3</v>
       </c>
       <c r="I6" s="3">
         <v>50</v>
@@ -1445,8 +1445,8 @@
       <c r="G7" s="7">
         <v>0.5</v>
       </c>
-      <c r="H7" s="7">
-        <v>4.4000000000000004</v>
+      <c r="H7" s="3">
+        <v>0.3</v>
       </c>
       <c r="I7" s="3">
         <v>50</v>
@@ -1519,8 +1519,8 @@
       <c r="G8" s="11">
         <v>1</v>
       </c>
-      <c r="H8" s="11">
-        <v>6.4</v>
+      <c r="H8" s="3">
+        <v>0.3</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -1593,8 +1593,8 @@
       <c r="G9" s="11">
         <v>1</v>
       </c>
-      <c r="H9" s="11">
-        <v>6.4</v>
+      <c r="H9" s="3">
+        <v>0.3</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
@@ -1667,8 +1667,8 @@
       <c r="G10" s="11">
         <v>1</v>
       </c>
-      <c r="H10" s="11">
-        <v>6.4</v>
+      <c r="H10" s="3">
+        <v>0.3</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
@@ -1741,8 +1741,8 @@
       <c r="G11">
         <v>0.5</v>
       </c>
-      <c r="H11">
-        <v>5.4</v>
+      <c r="H11" s="3">
+        <v>0.3</v>
       </c>
       <c r="I11" s="3">
         <v>50</v>
@@ -1813,8 +1813,8 @@
       <c r="G12">
         <v>0.5</v>
       </c>
-      <c r="H12">
-        <v>5.4</v>
+      <c r="H12" s="3">
+        <v>0.3</v>
       </c>
       <c r="I12" s="3">
         <v>50</v>
@@ -1885,8 +1885,8 @@
       <c r="G13">
         <v>0.5</v>
       </c>
-      <c r="H13">
-        <v>5.4</v>
+      <c r="H13" s="3">
+        <v>0.3</v>
       </c>
       <c r="I13" s="3">
         <v>50</v>
@@ -1957,8 +1957,8 @@
       <c r="G14" s="19">
         <v>0.1</v>
       </c>
-      <c r="H14" s="19">
-        <v>1.5</v>
+      <c r="H14" s="3">
+        <v>0.3</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3498BA-D9F6-4117-A23E-4017866EE6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23540B89-F0C5-4629-9831-503D147A7DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5430" yWindow="3690" windowWidth="29130" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -950,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1127,886 +1127,6 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>10</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L3" s="3">
-        <v>6</v>
-      </c>
-      <c r="M3" s="3">
-        <v>4</v>
-      </c>
-      <c r="N3" s="3">
-        <v>2</v>
-      </c>
-      <c r="O3" s="4">
-        <v>8</v>
-      </c>
-      <c r="P3" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>8</v>
-      </c>
-      <c r="R3" s="2">
-        <v>4</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="T3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="W3" s="6">
-        <v>4</v>
-      </c>
-      <c r="X3" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>4</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L4" s="3">
-        <v>9</v>
-      </c>
-      <c r="M4" s="3">
-        <v>6</v>
-      </c>
-      <c r="N4" s="3">
-        <v>2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>10</v>
-      </c>
-      <c r="P4" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>12</v>
-      </c>
-      <c r="R4" s="2">
-        <v>4</v>
-      </c>
-      <c r="S4" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="U4" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="V4" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="W4" s="10">
-        <v>8</v>
-      </c>
-      <c r="X4" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="7">
-        <v>3</v>
-      </c>
-      <c r="F5" s="7">
-        <v>5</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I5" s="3">
-        <v>50</v>
-      </c>
-      <c r="J5" s="7">
-        <v>5</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L5" s="7">
-        <v>10</v>
-      </c>
-      <c r="M5" s="7">
-        <v>2</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2</v>
-      </c>
-      <c r="O5" s="8">
-        <v>15</v>
-      </c>
-      <c r="P5" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>5</v>
-      </c>
-      <c r="R5" s="6">
-        <v>4</v>
-      </c>
-      <c r="S5" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="T5" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="V5" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="W5" s="2">
-        <v>1</v>
-      </c>
-      <c r="X5" s="16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="7">
-        <v>4</v>
-      </c>
-      <c r="F6" s="7">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I6" s="3">
-        <v>50</v>
-      </c>
-      <c r="J6" s="7">
-        <v>10</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L6" s="7">
-        <v>15</v>
-      </c>
-      <c r="M6" s="7">
-        <v>4</v>
-      </c>
-      <c r="N6" s="7">
-        <v>2</v>
-      </c>
-      <c r="O6" s="8">
-        <v>20</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>9</v>
-      </c>
-      <c r="R6" s="6">
-        <v>4</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="T6" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="U6" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="V6" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="W6" s="6">
-        <v>5</v>
-      </c>
-      <c r="X6" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="10" customFormat="1" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7">
-        <v>15</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I7" s="3">
-        <v>50</v>
-      </c>
-      <c r="J7" s="7">
-        <v>20</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L7" s="7">
-        <v>20</v>
-      </c>
-      <c r="M7" s="7">
-        <v>6</v>
-      </c>
-      <c r="N7" s="7">
-        <v>2</v>
-      </c>
-      <c r="O7" s="8">
-        <v>30</v>
-      </c>
-      <c r="P7" s="9">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>13</v>
-      </c>
-      <c r="R7" s="6">
-        <v>4</v>
-      </c>
-      <c r="S7" s="17">
-        <v>1</v>
-      </c>
-      <c r="T7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="U7" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="V7" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="W7" s="10">
-        <v>9</v>
-      </c>
-      <c r="X7" s="22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="11">
-        <v>6</v>
-      </c>
-      <c r="F8" s="11">
-        <v>5</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>100</v>
-      </c>
-      <c r="J8" s="11">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L8" s="11">
-        <v>100</v>
-      </c>
-      <c r="M8" s="11">
-        <v>2</v>
-      </c>
-      <c r="N8" s="11">
-        <v>0</v>
-      </c>
-      <c r="O8" s="12">
-        <v>15</v>
-      </c>
-      <c r="P8" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>7</v>
-      </c>
-      <c r="R8" s="10">
-        <v>4</v>
-      </c>
-      <c r="S8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="T8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="V8" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="W8" s="2">
-        <v>3</v>
-      </c>
-      <c r="X8" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="11">
-        <v>7</v>
-      </c>
-      <c r="F9" s="11">
-        <v>10</v>
-      </c>
-      <c r="G9" s="11">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
-      <c r="J9" s="11">
-        <v>10</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L9" s="11">
-        <v>100</v>
-      </c>
-      <c r="M9" s="11">
-        <v>4</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-      <c r="O9" s="12">
-        <v>20</v>
-      </c>
-      <c r="P9" s="13">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>11</v>
-      </c>
-      <c r="R9" s="10">
-        <v>4</v>
-      </c>
-      <c r="S9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="T9" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="U9" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="V9" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="W9" s="6">
-        <v>7</v>
-      </c>
-      <c r="X9" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="11">
-        <v>8</v>
-      </c>
-      <c r="F10" s="11">
-        <v>15</v>
-      </c>
-      <c r="G10" s="11">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
-      <c r="J10" s="11">
-        <v>20</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="11">
-        <v>100</v>
-      </c>
-      <c r="M10" s="11">
-        <v>6</v>
-      </c>
-      <c r="N10" s="11">
-        <v>0</v>
-      </c>
-      <c r="O10" s="12">
-        <v>35</v>
-      </c>
-      <c r="P10" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>15</v>
-      </c>
-      <c r="R10" s="10">
-        <v>4</v>
-      </c>
-      <c r="S10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="T10" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="U10" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="V10" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="W10" s="10">
-        <v>11</v>
-      </c>
-      <c r="X10" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-      <c r="F11">
-        <v>5</v>
-      </c>
-      <c r="G11">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I11" s="3">
-        <v>50</v>
-      </c>
-      <c r="J11" s="7">
-        <v>5</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L11" s="7">
-        <v>10</v>
-      </c>
-      <c r="M11">
-        <v>5</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>6</v>
-      </c>
-      <c r="R11">
-        <v>4</v>
-      </c>
-      <c r="S11" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="V11" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="W11">
-        <v>2</v>
-      </c>
-      <c r="X11" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12">
-        <v>10</v>
-      </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I12" s="3">
-        <v>50</v>
-      </c>
-      <c r="J12" s="7">
-        <v>10</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L12" s="7">
-        <v>15</v>
-      </c>
-      <c r="M12">
-        <v>4</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>7</v>
-      </c>
-      <c r="P12">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>10</v>
-      </c>
-      <c r="R12">
-        <v>4</v>
-      </c>
-      <c r="S12" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="V12" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="W12">
-        <v>6</v>
-      </c>
-      <c r="X12" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>15</v>
-      </c>
-      <c r="G13">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I13" s="3">
-        <v>50</v>
-      </c>
-      <c r="J13" s="7">
-        <v>20</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="L13" s="7">
-        <v>20</v>
-      </c>
-      <c r="M13">
-        <v>6</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>9</v>
-      </c>
-      <c r="P13">
-        <v>2</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>14</v>
-      </c>
-      <c r="R13">
-        <v>4</v>
-      </c>
-      <c r="S13" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="V13" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="W13">
-        <v>10</v>
-      </c>
-      <c r="X13" s="22" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="19">
-        <v>12</v>
-      </c>
-      <c r="F14" s="19">
-        <v>10</v>
-      </c>
-      <c r="G14" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="19">
-        <v>10</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="L14" s="19">
-        <v>2</v>
-      </c>
-      <c r="M14" s="19">
-        <v>15</v>
-      </c>
-      <c r="N14" s="19">
-        <v>2</v>
-      </c>
-      <c r="O14" s="19">
-        <v>6</v>
-      </c>
-      <c r="P14" s="19">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="19">
-        <v>16</v>
-      </c>
-      <c r="R14" s="19">
-        <v>4</v>
-      </c>
-      <c r="S14" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="T14" s="20"/>
-      <c r="U14" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="V14" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" s="19">
-        <v>12</v>
-      </c>
-      <c r="X14" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23540B89-F0C5-4629-9831-503D147A7DEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95068BB-0639-434D-A29D-A9FFF2C3921C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="3690" windowWidth="29130" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5430" yWindow="3690" windowWidth="30660" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
   <si>
     <t>id</t>
   </si>
@@ -362,6 +362,42 @@
   </si>
   <si>
     <t>maxdam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길게베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧게베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선상의 적을 베어버린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크게베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skill0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -950,14 +986,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="38.375" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
@@ -1061,7 +1098,7 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>60</v>
@@ -1118,12 +1155,160 @@
         <v>34</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="W2" s="2">
         <v>0</v>
       </c>
       <c r="X2" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3">
+        <v>2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>2</v>
+      </c>
+      <c r="O3" s="4">
+        <v>15</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>4</v>
+      </c>
+      <c r="R3" s="2">
+        <v>4</v>
+      </c>
+      <c r="S3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>10</v>
+      </c>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4">
+        <v>15</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2">
+        <v>4</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="16" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95068BB-0639-434D-A29D-A9FFF2C3921C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB674035-EBF1-453B-8A6C-1F26BA3E29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5430" yWindow="3690" windowWidth="30660" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5490" yWindow="1410" windowWidth="30660" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
   <si>
     <t>id</t>
   </si>
@@ -377,27 +377,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>길게베기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짧게베기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직선상의 적을 베어버린다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>크게베기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Skill0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧게베기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧게베기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길게베기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길게베기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방의 적을 1번 벤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전박의 적을3번 벤다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -986,10 +998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1098,10 +1110,10 @@
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
@@ -1128,7 +1140,7 @@
         <v>3</v>
       </c>
       <c r="M2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" s="3">
         <v>2</v>
@@ -1172,10 +1184,10 @@
         <v>88</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1202,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="M3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3" s="3">
         <v>2</v>
@@ -1223,7 +1235,7 @@
         <v>43</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U3" s="16" t="s">
         <v>74</v>
@@ -1243,13 +1255,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>94</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1276,13 +1288,13 @@
         <v>10</v>
       </c>
       <c r="M4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N4" s="3">
         <v>2</v>
       </c>
       <c r="O4" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P4" s="5">
         <v>0</v>
@@ -1297,18 +1309,92 @@
         <v>43</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U4" s="16" t="s">
         <v>34</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="W4" s="2">
         <v>0</v>
       </c>
       <c r="X4" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>10</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>15</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>4</v>
+      </c>
+      <c r="R5" s="2">
+        <v>4</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="16" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB674035-EBF1-453B-8A6C-1F26BA3E29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB28F0D6-7B45-47EB-8FF4-D7705CAD5256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5490" yWindow="1410" windowWidth="30660" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="9555" yWindow="525" windowWidth="26130" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -365,10 +365,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -385,10 +381,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Skill0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>짧게베기2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,7 +401,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전박의 적을3번 벤다</t>
+    <t>접근베기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처의 적에게 빠르게 접근하여 베어버린다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HorizontalSlash0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HorizontalSlash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HorizontalSlash2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraceSlash0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraceSlash1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraceSlash2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧게베기3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길게베기3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근베기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근베기3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,6 +726,12 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -998,15 +1052,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="38.375" customWidth="1"/>
     <col min="5" max="5" width="12.125" customWidth="1"/>
@@ -1017,9 +1071,9 @@
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.625" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
     <col min="15" max="15" width="17.125" customWidth="1"/>
-    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="11.125" customWidth="1"/>
     <col min="18" max="18" width="19.5" customWidth="1"/>
     <col min="19" max="19" width="28" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
@@ -1107,13 +1161,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
@@ -1167,7 +1221,7 @@
         <v>34</v>
       </c>
       <c r="V2" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W2" s="2">
         <v>0</v>
@@ -1181,13 +1235,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="E3" s="3">
         <v>0</v>
@@ -1211,16 +1265,16 @@
         <v>0.1</v>
       </c>
       <c r="L3" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M3" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N3" s="3">
         <v>2</v>
       </c>
       <c r="O3" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P3" s="5">
         <v>0</v>
@@ -1235,13 +1289,13 @@
         <v>43</v>
       </c>
       <c r="T3" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="W3" s="2">
         <v>0</v>
@@ -1255,13 +1309,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E4" s="3">
         <v>0</v>
@@ -1285,10 +1339,10 @@
         <v>0.1</v>
       </c>
       <c r="L4" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="M4" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="N4" s="3">
         <v>2</v>
@@ -1309,13 +1363,13 @@
         <v>43</v>
       </c>
       <c r="T4" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U4" s="16" t="s">
         <v>34</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="W4" s="2">
         <v>0</v>
@@ -1329,13 +1383,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E5" s="3">
         <v>0</v>
@@ -1359,10 +1413,10 @@
         <v>0.1</v>
       </c>
       <c r="L5" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M5" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" s="3">
         <v>2</v>
@@ -1383,18 +1437,388 @@
         <v>43</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U5" s="16" t="s">
         <v>74</v>
       </c>
       <c r="V5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="16" t="s">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>30</v>
+      </c>
+      <c r="M6" s="3">
+        <v>3</v>
+      </c>
+      <c r="N6" s="3">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>15</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2">
+        <v>4</v>
+      </c>
+      <c r="S6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="V6" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>30</v>
+      </c>
+      <c r="M7" s="3">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3">
+        <v>2</v>
+      </c>
+      <c r="O7" s="4">
+        <v>15</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2">
+        <v>4</v>
+      </c>
+      <c r="S7" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="V7" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>50</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="3">
+        <v>2</v>
+      </c>
+      <c r="O8" s="4">
+        <v>10</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>4</v>
+      </c>
+      <c r="R8" s="2">
+        <v>4</v>
+      </c>
+      <c r="S8" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="U8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>50</v>
+      </c>
+      <c r="M9" s="3">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>10</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>4</v>
+      </c>
+      <c r="R9" s="2">
+        <v>4</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>50</v>
+      </c>
+      <c r="M10" s="3">
+        <v>6</v>
+      </c>
+      <c r="N10" s="3">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>10</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>4</v>
+      </c>
+      <c r="R10" s="2">
+        <v>4</v>
+      </c>
+      <c r="S10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T10" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="16" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB28F0D6-7B45-47EB-8FF4-D7705CAD5256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E0ACE0-8501-4B99-A7C2-202C152FBFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9555" yWindow="525" windowWidth="26130" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="2520" yWindow="525" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -458,6 +458,64 @@
   </si>
   <si>
     <t>접근베기3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slash3</t>
+  </si>
+  <si>
+    <t>HorizontalSlash3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TraceSlash3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>짧게베기4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길게베기4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접근베기4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gachalv1</t>
+  </si>
+  <si>
+    <t>Gachalv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gachalv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gachalv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gachalv5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requireupgrade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1082,7 +1140,7 @@
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1155,8 +1213,26 @@
       <c r="X1" s="15" t="s">
         <v>79</v>
       </c>
+      <c r="Y1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="AA1" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB1" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="AC1" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD1" s="15" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1229,8 +1305,26 @@
       <c r="X2" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="Y2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1244,7 +1338,7 @@
         <v>96</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="3">
         <v>5</v>
@@ -1277,7 +1371,7 @@
         <v>5</v>
       </c>
       <c r="P3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="2">
         <v>4</v>
@@ -1303,8 +1397,26 @@
       <c r="X3" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1318,7 +1430,7 @@
         <v>96</v>
       </c>
       <c r="E4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" s="3">
         <v>5</v>
@@ -1351,7 +1463,7 @@
         <v>5</v>
       </c>
       <c r="P4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="2">
         <v>4</v>
@@ -1377,22 +1489,40 @@
       <c r="X4" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E5" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F5" s="3">
         <v>5</v>
@@ -1413,19 +1543,19 @@
         <v>0.1</v>
       </c>
       <c r="L5" s="3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="M5" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="N5" s="3">
         <v>2</v>
       </c>
       <c r="O5" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="P5" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="2">
         <v>4</v>
@@ -1437,13 +1567,13 @@
         <v>43</v>
       </c>
       <c r="T5" s="16" t="s">
-        <v>37</v>
+        <v>118</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="W5" s="2">
         <v>0</v>
@@ -1451,22 +1581,40 @@
       <c r="X5" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="Y5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E6" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" s="3">
         <v>5</v>
@@ -1490,7 +1638,7 @@
         <v>30</v>
       </c>
       <c r="M6" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" s="3">
         <v>2</v>
@@ -1511,7 +1659,7 @@
         <v>43</v>
       </c>
       <c r="T6" s="16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="U6" s="16" t="s">
         <v>74</v>
@@ -1525,22 +1673,40 @@
       <c r="X6" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="Y6" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>90</v>
       </c>
       <c r="E7" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F7" s="3">
         <v>5</v>
@@ -1564,7 +1730,7 @@
         <v>30</v>
       </c>
       <c r="M7" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N7" s="3">
         <v>2</v>
@@ -1573,7 +1739,7 @@
         <v>15</v>
       </c>
       <c r="P7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="2">
         <v>4</v>
@@ -1585,7 +1751,7 @@
         <v>43</v>
       </c>
       <c r="T7" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="U7" s="16" t="s">
         <v>74</v>
@@ -1599,22 +1765,40 @@
       <c r="X7" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="Y7" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>97</v>
+      <c r="B8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F8" s="3">
         <v>5</v>
@@ -1635,19 +1819,19 @@
         <v>0.1</v>
       </c>
       <c r="L8" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N8" s="3">
         <v>2</v>
       </c>
       <c r="O8" s="4">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P8" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" s="2">
         <v>4</v>
@@ -1659,13 +1843,13 @@
         <v>43</v>
       </c>
       <c r="T8" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V8" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W8" s="2">
         <v>0</v>
@@ -1673,22 +1857,40 @@
       <c r="X8" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="Y8" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>110</v>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3">
         <v>5</v>
@@ -1709,19 +1911,19 @@
         <v>0.1</v>
       </c>
       <c r="L9" s="3">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M9" s="3">
+        <v>9</v>
+      </c>
+      <c r="N9" s="3">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4">
+        <v>15</v>
+      </c>
+      <c r="P9" s="5">
         <v>3</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2</v>
-      </c>
-      <c r="O9" s="4">
-        <v>10</v>
-      </c>
-      <c r="P9" s="5">
-        <v>0</v>
       </c>
       <c r="Q9" s="2">
         <v>4</v>
@@ -1733,13 +1935,13 @@
         <v>43</v>
       </c>
       <c r="T9" s="16" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V9" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="W9" s="2">
         <v>0</v>
@@ -1747,22 +1949,40 @@
       <c r="X9" s="16" t="s">
         <v>33</v>
       </c>
+      <c r="Y9" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>98</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10" s="3">
         <v>5</v>
@@ -1786,7 +2006,7 @@
         <v>50</v>
       </c>
       <c r="M10" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N10" s="3">
         <v>2</v>
@@ -1807,7 +2027,7 @@
         <v>43</v>
       </c>
       <c r="T10" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="U10" s="16" t="s">
         <v>34</v>
@@ -1820,6 +2040,300 @@
       </c>
       <c r="X10" s="16" t="s">
         <v>33</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="3">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>50</v>
+      </c>
+      <c r="M11" s="3">
+        <v>3</v>
+      </c>
+      <c r="N11" s="3">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>15</v>
+      </c>
+      <c r="P11" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>4</v>
+      </c>
+      <c r="R11" s="2">
+        <v>4</v>
+      </c>
+      <c r="S11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="U11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V11" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>50</v>
+      </c>
+      <c r="M12" s="3">
+        <v>6</v>
+      </c>
+      <c r="N12" s="3">
+        <v>2</v>
+      </c>
+      <c r="O12" s="4">
+        <v>20</v>
+      </c>
+      <c r="P12" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>4</v>
+      </c>
+      <c r="R12" s="2">
+        <v>4</v>
+      </c>
+      <c r="S12" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V12" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="3">
+        <v>11</v>
+      </c>
+      <c r="F13" s="3">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>50</v>
+      </c>
+      <c r="M13" s="3">
+        <v>9</v>
+      </c>
+      <c r="N13" s="3">
+        <v>2</v>
+      </c>
+      <c r="O13" s="4">
+        <v>25</v>
+      </c>
+      <c r="P13" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>4</v>
+      </c>
+      <c r="R13" s="2">
+        <v>4</v>
+      </c>
+      <c r="S13" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="V13" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E0ACE0-8501-4B99-A7C2-202C152FBFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91AACA2-2B62-4A7C-B044-3910FF0E692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2520" yWindow="525" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="128">
   <si>
     <t>id</t>
   </si>
@@ -516,6 +516,10 @@
   </si>
   <si>
     <t>Requireupgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsEffectRootPlayer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1140,7 +1144,7 @@
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1231,8 +1235,11 @@
       <c r="AD1" s="15" t="s">
         <v>126</v>
       </c>
+      <c r="AE1" s="15" t="s">
+        <v>127</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1323,8 +1330,11 @@
       <c r="AD2" s="2">
         <v>4</v>
       </c>
+      <c r="AE2" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1415,8 +1425,11 @@
       <c r="AD3" s="2">
         <v>4</v>
       </c>
+      <c r="AE3" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1460,7 +1473,7 @@
         <v>2</v>
       </c>
       <c r="O4" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P4" s="5">
         <v>2</v>
@@ -1507,8 +1520,11 @@
       <c r="AD4" s="2">
         <v>4</v>
       </c>
+      <c r="AE4" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1552,7 +1568,7 @@
         <v>2</v>
       </c>
       <c r="O5" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="P5" s="5">
         <v>3</v>
@@ -1599,8 +1615,11 @@
       <c r="AD5" s="2">
         <v>4</v>
       </c>
+      <c r="AE5" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1691,8 +1710,11 @@
       <c r="AD6" s="2">
         <v>4</v>
       </c>
+      <c r="AE6" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1783,8 +1805,11 @@
       <c r="AD7" s="2">
         <v>4</v>
       </c>
+      <c r="AE7" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1875,8 +1900,11 @@
       <c r="AD8" s="2">
         <v>4</v>
       </c>
+      <c r="AE8" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1920,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="4">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="P9" s="5">
         <v>3</v>
@@ -1967,8 +1995,11 @@
       <c r="AD9" s="2">
         <v>4</v>
       </c>
+      <c r="AE9" s="2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2059,8 +2090,11 @@
       <c r="AD10" s="2">
         <v>4</v>
       </c>
+      <c r="AE10" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2151,8 +2185,11 @@
       <c r="AD11" s="2">
         <v>4</v>
       </c>
+      <c r="AE11" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2243,8 +2280,11 @@
       <c r="AD12" s="2">
         <v>4</v>
       </c>
+      <c r="AE12" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2334,6 +2374,9 @@
       </c>
       <c r="AD13" s="2">
         <v>4</v>
+      </c>
+      <c r="AE13" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91AACA2-2B62-4A7C-B044-3910FF0E692B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D13B081-6A1F-4187-9ED9-34128D36F15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="525" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4170" yWindow="5190" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE5" sqref="AE5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D13B081-6A1F-4187-9ED9-34128D36F15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D3356C-699E-4DA3-A722-BF5A31B604F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4170" yWindow="5190" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1116,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AE13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1139,7 @@
     <col min="18" max="18" width="19.5" customWidth="1"/>
     <col min="19" max="19" width="28" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
-    <col min="21" max="21" width="8.875" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
     <col min="22" max="22" width="13.875" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -1752,7 +1752,7 @@
         <v>30</v>
       </c>
       <c r="M7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" s="3">
         <v>2</v>
@@ -1806,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="AE7" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1847,7 +1847,7 @@
         <v>30</v>
       </c>
       <c r="M8" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3">
         <v>2</v>
@@ -1942,7 +1942,7 @@
         <v>30</v>
       </c>
       <c r="M9" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N9" s="3">
         <v>2</v>
@@ -2132,7 +2132,7 @@
         <v>50</v>
       </c>
       <c r="M11" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N11" s="3">
         <v>2</v>
@@ -2227,7 +2227,7 @@
         <v>50</v>
       </c>
       <c r="M12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N12" s="3">
         <v>2</v>
@@ -2322,7 +2322,7 @@
         <v>50</v>
       </c>
       <c r="M13" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="N13" s="3">
         <v>2</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D3356C-699E-4DA3-A722-BF5A31B604F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87563401-893E-4BFE-82A6-380D157885A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="5190" windowWidth="33165" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="495" yWindow="2775" windowWidth="37665" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -521,6 +521,45 @@
   <si>
     <t>IsEffectRootPlayer</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-4_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-4_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-1_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-2_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-3_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-4_hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gachalv6</t>
+  </si>
+  <si>
+    <t>Gachalv7</t>
+  </si>
+  <si>
+    <t>Gachalv8</t>
+  </si>
+  <si>
+    <t>Gachalv9</t>
+  </si>
+  <si>
+    <t>Gachalv10</t>
   </si>
 </sst>
 </file>
@@ -1114,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="AE3" sqref="AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1144,7 +1183,7 @@
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1233,13 +1272,28 @@
         <v>125</v>
       </c>
       <c r="AD1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AF1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG1" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH1" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI1" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AJ1" s="15" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1328,13 +1382,28 @@
         <v>1</v>
       </c>
       <c r="AD2" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1396,7 +1465,7 @@
         <v>35</v>
       </c>
       <c r="U3" s="16" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="V3" s="16" t="s">
         <v>88</v>
@@ -1423,13 +1492,28 @@
         <v>1</v>
       </c>
       <c r="AD3" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1491,7 +1575,7 @@
         <v>36</v>
       </c>
       <c r="U4" s="16" t="s">
-        <v>34</v>
+        <v>75</v>
       </c>
       <c r="V4" s="16" t="s">
         <v>88</v>
@@ -1518,13 +1602,28 @@
         <v>1</v>
       </c>
       <c r="AD4" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE4" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1586,7 +1685,7 @@
         <v>118</v>
       </c>
       <c r="U5" s="16" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="V5" s="16" t="s">
         <v>88</v>
@@ -1613,13 +1712,28 @@
         <v>1</v>
       </c>
       <c r="AD5" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1681,7 +1795,7 @@
         <v>37</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="V6" s="16" t="s">
         <v>89</v>
@@ -1708,13 +1822,28 @@
         <v>1</v>
       </c>
       <c r="AD6" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1776,7 +1905,7 @@
         <v>42</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="V7" s="16" t="s">
         <v>89</v>
@@ -1803,13 +1932,28 @@
         <v>1</v>
       </c>
       <c r="AD7" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE7" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ7" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1871,7 +2015,7 @@
         <v>38</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="V8" s="16" t="s">
         <v>89</v>
@@ -1898,13 +2042,28 @@
         <v>1</v>
       </c>
       <c r="AD8" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE8" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ8" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1966,7 +2125,7 @@
         <v>119</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="V9" s="16" t="s">
         <v>89</v>
@@ -1993,13 +2152,28 @@
         <v>1</v>
       </c>
       <c r="AD9" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE9" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ9" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2061,7 +2235,7 @@
         <v>39</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="V10" s="16" t="s">
         <v>91</v>
@@ -2088,13 +2262,28 @@
         <v>1</v>
       </c>
       <c r="AD10" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ10" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2156,7 +2345,7 @@
         <v>40</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>34</v>
+        <v>131</v>
       </c>
       <c r="V11" s="16" t="s">
         <v>91</v>
@@ -2183,13 +2372,28 @@
         <v>1</v>
       </c>
       <c r="AD11" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE11" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ11" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2251,7 +2455,7 @@
         <v>41</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>34</v>
+        <v>132</v>
       </c>
       <c r="V12" s="16" t="s">
         <v>91</v>
@@ -2278,13 +2482,28 @@
         <v>1</v>
       </c>
       <c r="AD12" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE12" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ12" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2346,7 +2565,7 @@
         <v>120</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>34</v>
+        <v>133</v>
       </c>
       <c r="V13" s="16" t="s">
         <v>91</v>
@@ -2373,9 +2592,24 @@
         <v>1</v>
       </c>
       <c r="AD13" s="2">
-        <v>4</v>
-      </c>
-      <c r="AE13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ13" s="2" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87563401-893E-4BFE-82A6-380D157885A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057B47FD-0CF1-449C-B4CF-CEF9CD512AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="495" yWindow="2775" windowWidth="37665" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -560,6 +560,26 @@
   </si>
   <si>
     <t>Gachalv10</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1153,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AJ13"/>
+  <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE3" sqref="AE3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ17" sqref="AJ17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1183,7 +1203,7 @@
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" s="15" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -1292,8 +1312,11 @@
       <c r="AJ1" s="15" t="s">
         <v>127</v>
       </c>
+      <c r="AK1" s="15" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1402,8 +1425,11 @@
       <c r="AJ2" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK2" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1512,8 +1538,11 @@
       <c r="AJ3" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK3" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1622,8 +1651,11 @@
       <c r="AJ4" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK4" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1732,8 +1764,11 @@
       <c r="AJ5" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK5" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1842,8 +1877,11 @@
       <c r="AJ6" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK6" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1952,8 +1990,11 @@
       <c r="AJ7" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK7" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2062,8 +2103,11 @@
       <c r="AJ8" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="AK8" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2172,8 +2216,11 @@
       <c r="AJ9" s="2" t="b">
         <v>0</v>
       </c>
+      <c r="AK9" s="2" t="s">
+        <v>143</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2282,8 +2329,11 @@
       <c r="AJ10" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK10" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2392,8 +2442,11 @@
       <c r="AJ11" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK11" s="2" t="s">
+        <v>141</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2502,8 +2555,11 @@
       <c r="AJ12" s="2" t="b">
         <v>1</v>
       </c>
+      <c r="AK12" s="2" t="s">
+        <v>142</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2611,6 +2667,9 @@
       </c>
       <c r="AJ13" s="2" t="b">
         <v>1</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14F3585-B6AC-41C0-989B-784F99671780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CC5A23-3DEB-4498-B3F7-33B7B03D5BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -463,13 +463,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon3</t>
-  </si>
-  <si>
-    <t>하급4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon4</t>
   </si>
   <si>
@@ -491,13 +484,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon7</t>
-  </si>
-  <si>
-    <t>일반4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon8</t>
   </si>
   <si>
@@ -519,13 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>weapon11</t>
-  </si>
-  <si>
-    <t>레어4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>weapon12</t>
   </si>
   <si>
@@ -544,21 +523,6 @@
   </si>
   <si>
     <t>유니크3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapon15</t>
-  </si>
-  <si>
-    <t>유니크4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>weapon16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유물1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1119,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE13" sqref="AE13"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1145,6 +1109,9 @@
     <col min="21" max="21" width="13" customWidth="1"/>
     <col min="22" max="22" width="13.83203125" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" customWidth="1"/>
+    <col min="26" max="26" width="15.1640625" customWidth="1"/>
+    <col min="27" max="27" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.45">
@@ -1333,35 +1300,35 @@
       <c r="X2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="2">
-        <v>0.36000000000000004</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0.34</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0.32000000000000006</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0.30000000000000004</v>
-      </c>
-      <c r="AC2" s="2">
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="AF2" s="2">
-        <v>0.22000000000000003</v>
-      </c>
-      <c r="AG2" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="AH2" s="2">
-        <v>0.18000000000000002</v>
+      <c r="Y2">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="Z2">
+        <v>0.312</v>
+      </c>
+      <c r="AA2">
+        <v>0.255</v>
+      </c>
+      <c r="AB2">
+        <v>0.216</v>
+      </c>
+      <c r="AC2">
+        <v>0.186</v>
+      </c>
+      <c r="AD2">
+        <v>0.1608</v>
+      </c>
+      <c r="AE2">
+        <v>0.12419999999999999</v>
+      </c>
+      <c r="AF2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="AG2">
+        <v>4.9800000000000004E-2</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
       </c>
       <c r="AI2" s="2">
         <v>4</v>
@@ -1446,35 +1413,35 @@
       <c r="X3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y3" s="2">
-        <v>0.27</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0.255</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="AB3" s="2">
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="AC3" s="2">
-        <v>0.21</v>
-      </c>
-      <c r="AD3" s="2">
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="AE3" s="2">
-        <v>0.18</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="AG3" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="AH3" s="2">
-        <v>0.13500000000000001</v>
+      <c r="Y3">
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>0.28187999999999996</v>
+      </c>
+      <c r="AA3">
+        <v>0.33576</v>
+      </c>
+      <c r="AB3">
+        <v>0.37163999999999997</v>
+      </c>
+      <c r="AC3">
+        <v>0.39840000000000003</v>
+      </c>
+      <c r="AD3">
+        <v>0.42</v>
+      </c>
+      <c r="AE3">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="AF3">
+        <v>0.48</v>
+      </c>
+      <c r="AG3">
+        <v>0.51</v>
+      </c>
+      <c r="AH3">
+        <v>0.54600000000000004</v>
       </c>
       <c r="AI3" s="2">
         <v>4</v>
@@ -1559,35 +1526,35 @@
       <c r="X4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="2">
-        <v>0.18000000000000002</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0.17</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0.16000000000000003</v>
-      </c>
-      <c r="AB4" s="2">
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="AC4" s="2">
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="AD4" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="AE4" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="AF4" s="2">
-        <v>0.11000000000000001</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="AH4" s="2">
-        <v>9.0000000000000011E-2</v>
+      <c r="Y4">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Z4">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AA4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AB4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="AC4">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AD4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AE4">
+        <v>2.4E-2</v>
+      </c>
+      <c r="AF4">
+        <v>0.03</v>
+      </c>
+      <c r="AG4">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AH4">
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AI4" s="2">
         <v>4</v>
@@ -1672,35 +1639,35 @@
       <c r="X5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y5" s="2">
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="AB5" s="2">
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="AC5" s="2">
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="AD5" s="2">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="AE5" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="AF5" s="2">
-        <v>5.5000000000000007E-2</v>
-      </c>
-      <c r="AG5" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="AH5" s="2">
-        <v>4.5000000000000005E-2</v>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1.2E-4</v>
+      </c>
+      <c r="AA5">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="AB5">
+        <v>3.5999999999999997E-4</v>
+      </c>
+      <c r="AC5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AD5">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AE5">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AF5">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AG5">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="AH5">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AI5" s="2">
         <v>4</v>
@@ -1785,35 +1752,35 @@
       <c r="X6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y6" s="2">
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>5.9920000000000001E-2</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>7.9840000000000008E-2</v>
-      </c>
-      <c r="AB6" s="2">
-        <v>9.9759999999999974E-2</v>
-      </c>
-      <c r="AC6" s="2">
-        <v>0.11960000000000003</v>
-      </c>
-      <c r="AD6" s="2">
-        <v>0.13919999999999999</v>
-      </c>
-      <c r="AE6" s="2">
-        <v>0.15880000000000002</v>
-      </c>
-      <c r="AF6" s="2">
-        <v>0.17800000000000002</v>
-      </c>
-      <c r="AG6" s="2">
-        <v>0.19719999999999999</v>
-      </c>
-      <c r="AH6" s="2">
-        <v>0.21600000000000003</v>
+      <c r="Y6">
+        <v>0.22924999999999998</v>
+      </c>
+      <c r="Z6">
+        <v>0.182</v>
+      </c>
+      <c r="AA6">
+        <v>0.14874999999999999</v>
+      </c>
+      <c r="AB6">
+        <v>0.126</v>
+      </c>
+      <c r="AC6">
+        <v>0.1085</v>
+      </c>
+      <c r="AD6">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="AE6">
+        <v>7.2449999999999987E-2</v>
+      </c>
+      <c r="AF6">
+        <v>5.0749999999999997E-2</v>
+      </c>
+      <c r="AG6">
+        <v>2.9049999999999999E-2</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
       </c>
       <c r="AI6" s="2">
         <v>4</v>
@@ -1898,35 +1865,35 @@
       <c r="X7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="2">
-        <v>0.03</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>4.4939999999999994E-2</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>5.9879999999999996E-2</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>7.481999999999997E-2</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>8.9700000000000016E-2</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>0.10439999999999999</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>0.1191</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>0.13350000000000001</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>0.14789999999999998</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>0.16200000000000001</v>
+      <c r="Y7">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="Z7">
+        <v>0.16442999999999999</v>
+      </c>
+      <c r="AA7">
+        <v>0.19585999999999998</v>
+      </c>
+      <c r="AB7">
+        <v>0.21678999999999998</v>
+      </c>
+      <c r="AC7">
+        <v>0.2324</v>
+      </c>
+      <c r="AD7">
+        <v>0.24499999999999997</v>
+      </c>
+      <c r="AE7">
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="AF7">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="AG7">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="AH7">
+        <v>0.31850000000000001</v>
       </c>
       <c r="AI7" s="2">
         <v>4</v>
@@ -2011,35 +1978,35 @@
       <c r="X8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y8" s="2">
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>2.9960000000000001E-2</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>3.9920000000000004E-2</v>
-      </c>
-      <c r="AB8" s="2">
-        <v>4.9879999999999987E-2</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>5.9800000000000013E-2</v>
-      </c>
-      <c r="AD8" s="2">
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="AE8" s="2">
-        <v>7.9400000000000012E-2</v>
-      </c>
-      <c r="AF8" s="2">
-        <v>8.900000000000001E-2</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>9.8599999999999993E-2</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>0.10800000000000001</v>
+      <c r="Y8">
+        <v>1.7499999999999998E-3</v>
+      </c>
+      <c r="Z8">
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="AA8">
+        <v>5.2499999999999995E-3</v>
+      </c>
+      <c r="AB8">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="AC8">
+        <v>8.7499999999999991E-3</v>
+      </c>
+      <c r="AD8">
+        <v>1.0499999999999999E-2</v>
+      </c>
+      <c r="AE8">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="AF8">
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="AG8">
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="AH8">
+        <v>2.7999999999999997E-2</v>
       </c>
       <c r="AI8" s="2">
         <v>4</v>
@@ -2124,35 +2091,35 @@
       <c r="X9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y9" s="2">
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>1.498E-2</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>1.9960000000000002E-2</v>
-      </c>
-      <c r="AB9" s="2">
-        <v>2.4939999999999993E-2</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>2.9900000000000006E-2</v>
-      </c>
-      <c r="AD9" s="2">
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="AE9" s="2">
-        <v>3.9700000000000006E-2</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>4.4500000000000005E-2</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>4.9299999999999997E-2</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>5.4000000000000006E-2</v>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="AA9">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="AB9">
+        <v>2.0999999999999998E-4</v>
+      </c>
+      <c r="AC9">
+        <v>3.5E-4</v>
+      </c>
+      <c r="AD9">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AE9">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="AF9">
+        <v>1.7499999999999998E-3</v>
+      </c>
+      <c r="AG9">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="AH9">
+        <v>3.4999999999999996E-3</v>
       </c>
       <c r="AI9" s="2">
         <v>4</v>
@@ -2237,35 +2204,35 @@
       <c r="X10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>1.6000000000000001E-4</v>
-      </c>
-      <c r="AB10" s="2">
-        <v>2.3999999999999998E-4</v>
-      </c>
-      <c r="AC10" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="AD10" s="2">
-        <v>8.0000000000000004E-4</v>
-      </c>
-      <c r="AE10" s="2">
-        <v>1.2000000000000001E-3</v>
-      </c>
-      <c r="AF10" s="2">
-        <v>2E-3</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>2.8000000000000004E-3</v>
-      </c>
-      <c r="AH10" s="2">
-        <v>4.0000000000000001E-3</v>
+      <c r="Y10">
+        <v>3.2750000000000001E-2</v>
+      </c>
+      <c r="Z10">
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="AA10">
+        <v>2.1250000000000002E-2</v>
+      </c>
+      <c r="AB10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AC10">
+        <v>1.55E-2</v>
+      </c>
+      <c r="AD10">
+        <v>1.3400000000000002E-2</v>
+      </c>
+      <c r="AE10">
+        <v>1.035E-2</v>
+      </c>
+      <c r="AF10">
+        <v>7.2499999999999995E-3</v>
+      </c>
+      <c r="AG10">
+        <v>4.15E-3</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
       </c>
       <c r="AI10" s="2">
         <v>4</v>
@@ -2350,35 +2317,35 @@
       <c r="X11" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>1.2E-4</v>
-      </c>
-      <c r="AB11" s="2">
-        <v>1.7999999999999998E-4</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="AD11" s="2">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="AE11" s="2">
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="AF11" s="2">
-        <v>1.5E-3</v>
-      </c>
-      <c r="AG11" s="2">
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="AH11" s="2">
-        <v>3.0000000000000001E-3</v>
+      <c r="Y11">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="Z11">
+        <v>2.349E-2</v>
+      </c>
+      <c r="AA11">
+        <v>2.7980000000000001E-2</v>
+      </c>
+      <c r="AB11">
+        <v>3.0969999999999998E-2</v>
+      </c>
+      <c r="AC11">
+        <v>3.32E-2</v>
+      </c>
+      <c r="AD11">
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="AE11">
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="AF11">
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="AG11">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="AH11">
+        <v>4.5500000000000006E-2</v>
       </c>
       <c r="AI11" s="2">
         <v>4</v>
@@ -2463,35 +2430,35 @@
       <c r="X12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>1.1999999999999999E-4</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="AF12" s="2">
+      <c r="Y12">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="Z12">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AA12">
+        <v>7.5000000000000002E-4</v>
+      </c>
+      <c r="AB12">
         <v>1E-3</v>
       </c>
-      <c r="AG12" s="2">
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="AH12" s="2">
+      <c r="AC12">
+        <v>1.2500000000000002E-3</v>
+      </c>
+      <c r="AD12">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AE12">
         <v>2E-3</v>
+      </c>
+      <c r="AF12">
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="AG12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AH12">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="AI12" s="2">
         <v>4</v>
@@ -2576,35 +2543,35 @@
       <c r="X13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2">
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AA13">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AA13" s="2">
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="AB13" s="2">
-        <v>5.9999999999999995E-5</v>
-      </c>
-      <c r="AC13" s="2">
+      <c r="AB13">
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="AC13">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="AD13">
         <v>1E-4</v>
       </c>
-      <c r="AD13" s="2">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="AE13" s="2">
-        <v>3.0000000000000003E-4</v>
-      </c>
-      <c r="AF13" s="2">
+      <c r="AE13">
+        <v>1.5000000000000001E-4</v>
+      </c>
+      <c r="AF13">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="AG13">
+        <v>3.5000000000000005E-4</v>
+      </c>
+      <c r="AH13">
         <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AG13" s="2">
-        <v>7.000000000000001E-4</v>
-      </c>
-      <c r="AH13" s="2">
-        <v>1E-3</v>
       </c>
       <c r="AI13" s="2">
         <v>4</v>
@@ -2625,15 +2592,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDD430D-3C7E-404D-942C-275A2BE9BF6F}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:O13"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="16.4140625" customWidth="1"/>
+    <col min="6" max="6" width="27.6640625" customWidth="1"/>
     <col min="7" max="7" width="16.9140625" customWidth="1"/>
     <col min="8" max="8" width="15.58203125" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
@@ -2647,7 +2614,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
         <v>96</v>
@@ -2705,44 +2672,44 @@
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="12">
-        <f t="shared" ref="F2:O2" si="0">F21*$F$29</f>
-        <v>0.36000000000000004</v>
+        <f t="shared" ref="F2:O2" si="0">F16*$F$24</f>
+        <v>0.39300000000000002</v>
       </c>
       <c r="G2" s="12">
         <f t="shared" si="0"/>
-        <v>0.34</v>
+        <v>0.312</v>
       </c>
       <c r="H2" s="12">
         <f t="shared" si="0"/>
-        <v>0.32000000000000006</v>
+        <v>0.255</v>
       </c>
       <c r="I2" s="12">
         <f t="shared" si="0"/>
-        <v>0.30000000000000004</v>
+        <v>0.216</v>
       </c>
       <c r="J2" s="12">
         <f t="shared" si="0"/>
-        <v>0.27999999999999997</v>
+        <v>0.186</v>
       </c>
       <c r="K2" s="12">
         <f t="shared" si="0"/>
-        <v>0.26</v>
+        <v>0.1608</v>
       </c>
       <c r="L2" s="12">
         <f t="shared" si="0"/>
-        <v>0.24</v>
+        <v>0.12419999999999999</v>
       </c>
       <c r="M2" s="12">
         <f t="shared" si="0"/>
-        <v>0.22000000000000003</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="N2" s="12">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>4.9800000000000004E-2</v>
       </c>
       <c r="O2" s="12">
         <f t="shared" si="0"/>
-        <v>0.18000000000000002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -2760,44 +2727,44 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="12">
-        <f t="shared" ref="F3:O3" si="1">F21*$F$30</f>
-        <v>0.27</v>
+        <f t="shared" ref="F3:O3" si="1">F16*$F$25</f>
+        <v>0.22924999999999998</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" si="1"/>
-        <v>0.255</v>
+        <v>0.182</v>
       </c>
       <c r="H3" s="12">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>0.14874999999999999</v>
       </c>
       <c r="I3" s="12">
         <f t="shared" si="1"/>
-        <v>0.22499999999999998</v>
+        <v>0.126</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" si="1"/>
-        <v>0.21</v>
+        <v>0.1085</v>
       </c>
       <c r="K3" s="12">
         <f t="shared" si="1"/>
-        <v>0.19500000000000001</v>
+        <v>9.3799999999999994E-2</v>
       </c>
       <c r="L3" s="12">
         <f t="shared" si="1"/>
-        <v>0.18</v>
+        <v>7.2449999999999987E-2</v>
       </c>
       <c r="M3" s="12">
         <f t="shared" si="1"/>
-        <v>0.16500000000000001</v>
+        <v>5.0749999999999997E-2</v>
       </c>
       <c r="N3" s="12">
         <f t="shared" si="1"/>
-        <v>0.15</v>
+        <v>2.9049999999999999E-2</v>
       </c>
       <c r="O3" s="12">
         <f t="shared" si="1"/>
-        <v>0.13500000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.45">
@@ -2815,104 +2782,104 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="12">
-        <f t="shared" ref="F4:O4" si="2">F21*$F$31</f>
-        <v>0.18000000000000002</v>
+        <f t="shared" ref="F4:O4" si="2">F16*$F$26</f>
+        <v>3.2750000000000001E-2</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="2"/>
-        <v>0.17</v>
+        <v>2.6000000000000002E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="2"/>
-        <v>0.16000000000000003</v>
+        <v>2.1250000000000002E-2</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="2"/>
-        <v>0.15000000000000002</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="2"/>
-        <v>0.13999999999999999</v>
+        <v>1.55E-2</v>
       </c>
       <c r="K4" s="12">
-        <f>K21*$F$31</f>
-        <v>0.13</v>
+        <f>K16*$F$26</f>
+        <v>1.3400000000000002E-2</v>
       </c>
       <c r="L4" s="12">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>1.035E-2</v>
       </c>
       <c r="M4" s="12">
         <f t="shared" si="2"/>
-        <v>0.11000000000000001</v>
+        <v>7.2499999999999995E-3</v>
       </c>
       <c r="N4" s="12">
         <f t="shared" si="2"/>
-        <v>0.1</v>
+        <v>4.15E-3</v>
       </c>
       <c r="O4" s="12">
         <f t="shared" si="2"/>
-        <v>9.0000000000000011E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>114</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="12">
-        <f t="shared" ref="F5:O5" si="3">F21*$F$32</f>
-        <v>9.0000000000000011E-2</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="F5" s="13">
+        <f t="shared" ref="F5:O5" si="3">F17*$F$24</f>
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="G5" s="13">
         <f t="shared" si="3"/>
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H5" s="12">
+        <v>0.28187999999999996</v>
+      </c>
+      <c r="H5" s="13">
         <f t="shared" si="3"/>
-        <v>8.0000000000000016E-2</v>
-      </c>
-      <c r="I5" s="12">
+        <v>0.33576</v>
+      </c>
+      <c r="I5" s="13">
         <f t="shared" si="3"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="J5" s="12">
+        <v>0.37163999999999997</v>
+      </c>
+      <c r="J5" s="13">
         <f t="shared" si="3"/>
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="K5" s="12">
-        <f>K21*$F$32</f>
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="L5" s="12">
+        <v>0.39840000000000003</v>
+      </c>
+      <c r="K5" s="13">
         <f t="shared" si="3"/>
-        <v>0.06</v>
-      </c>
-      <c r="M5" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="L5" s="13">
         <f t="shared" si="3"/>
-        <v>5.5000000000000007E-2</v>
-      </c>
-      <c r="N5" s="12">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="M5" s="13">
         <f t="shared" si="3"/>
-        <v>0.05</v>
-      </c>
-      <c r="O5" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="N5" s="13">
         <f t="shared" si="3"/>
-        <v>4.5000000000000005E-2</v>
+        <v>0.51</v>
+      </c>
+      <c r="O5" s="13">
+        <f t="shared" si="3"/>
+        <v>0.54600000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>116</v>
@@ -2925,49 +2892,49 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="13">
-        <f t="shared" ref="F6:O6" si="4">F22*$F$29</f>
-        <v>4.0000000000000008E-2</v>
+        <f t="shared" ref="F6:O6" si="4">F17*$F$25</f>
+        <v>0.11899999999999999</v>
       </c>
       <c r="G6" s="13">
         <f t="shared" si="4"/>
-        <v>5.9920000000000001E-2</v>
+        <v>0.16442999999999999</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" si="4"/>
-        <v>7.9840000000000008E-2</v>
+        <v>0.19585999999999998</v>
       </c>
       <c r="I6" s="13">
         <f t="shared" si="4"/>
-        <v>9.9759999999999974E-2</v>
+        <v>0.21678999999999998</v>
       </c>
       <c r="J6" s="13">
         <f t="shared" si="4"/>
-        <v>0.11960000000000003</v>
+        <v>0.2324</v>
       </c>
       <c r="K6" s="13">
         <f t="shared" si="4"/>
-        <v>0.13919999999999999</v>
+        <v>0.24499999999999997</v>
       </c>
       <c r="L6" s="13">
         <f t="shared" si="4"/>
-        <v>0.15880000000000002</v>
+        <v>0.26249999999999996</v>
       </c>
       <c r="M6" s="13">
         <f t="shared" si="4"/>
-        <v>0.17800000000000002</v>
+        <v>0.27999999999999997</v>
       </c>
       <c r="N6" s="13">
         <f t="shared" si="4"/>
-        <v>0.19719999999999999</v>
+        <v>0.29749999999999999</v>
       </c>
       <c r="O6" s="13">
         <f t="shared" si="4"/>
-        <v>0.21600000000000003</v>
+        <v>0.31850000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>118</v>
@@ -2980,159 +2947,159 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="13">
-        <f t="shared" ref="F7:O7" si="5">F22*$F$30</f>
-        <v>0.03</v>
+        <f t="shared" ref="F7:O7" si="5">F17*$F$26</f>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="G7" s="13">
         <f t="shared" si="5"/>
-        <v>4.4939999999999994E-2</v>
+        <v>2.349E-2</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" si="5"/>
-        <v>5.9879999999999996E-2</v>
+        <v>2.7980000000000001E-2</v>
       </c>
       <c r="I7" s="13">
         <f t="shared" si="5"/>
-        <v>7.481999999999997E-2</v>
+        <v>3.0969999999999998E-2</v>
       </c>
       <c r="J7" s="13">
         <f t="shared" si="5"/>
-        <v>8.9700000000000016E-2</v>
+        <v>3.32E-2</v>
       </c>
       <c r="K7" s="13">
         <f t="shared" si="5"/>
-        <v>0.10439999999999999</v>
+        <v>3.4999999999999996E-2</v>
       </c>
       <c r="L7" s="13">
         <f t="shared" si="5"/>
-        <v>0.1191</v>
+        <v>3.7500000000000006E-2</v>
       </c>
       <c r="M7" s="13">
         <f t="shared" si="5"/>
-        <v>0.13350000000000001</v>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="N7" s="13">
         <f t="shared" si="5"/>
-        <v>0.14789999999999998</v>
+        <v>4.2500000000000003E-2</v>
       </c>
       <c r="O7" s="13">
         <f t="shared" si="5"/>
-        <v>0.16200000000000001</v>
+        <v>4.5500000000000006E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D8">
-        <v>1</v>
+      <c r="D8" s="2">
+        <v>2</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="13">
-        <f t="shared" ref="F8:O8" si="6">F22*$F$31</f>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="F8" s="12">
+        <f t="shared" ref="F8:O8" si="6">F18*$F$24</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G8" s="12">
         <f t="shared" si="6"/>
-        <v>2.9960000000000001E-2</v>
-      </c>
-      <c r="H8" s="13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H8" s="12">
         <f t="shared" si="6"/>
-        <v>3.9920000000000004E-2</v>
-      </c>
-      <c r="I8" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I8" s="12">
         <f t="shared" si="6"/>
-        <v>4.9879999999999987E-2</v>
-      </c>
-      <c r="J8" s="13">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J8" s="12">
         <f t="shared" si="6"/>
-        <v>5.9800000000000013E-2</v>
-      </c>
-      <c r="K8" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K8" s="12">
         <f t="shared" si="6"/>
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="L8" s="13">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="L8" s="12">
         <f t="shared" si="6"/>
-        <v>7.9400000000000012E-2</v>
-      </c>
-      <c r="M8" s="13">
+        <v>2.4E-2</v>
+      </c>
+      <c r="M8" s="12">
         <f t="shared" si="6"/>
-        <v>8.900000000000001E-2</v>
-      </c>
-      <c r="N8" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="N8" s="12">
         <f t="shared" si="6"/>
-        <v>9.8599999999999993E-2</v>
-      </c>
-      <c r="O8" s="13">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="O8" s="12">
         <f t="shared" si="6"/>
-        <v>0.10800000000000001</v>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D9">
-        <v>1</v>
+      <c r="D9" s="2">
+        <v>2</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="13">
-        <f t="shared" ref="F9:O9" si="7">F22*$F$32</f>
-        <v>1.0000000000000002E-2</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="F9" s="12">
+        <f t="shared" ref="F9:O9" si="7">F18*$F$25</f>
+        <v>1.7499999999999998E-3</v>
+      </c>
+      <c r="G9" s="12">
         <f t="shared" si="7"/>
-        <v>1.498E-2</v>
-      </c>
-      <c r="H9" s="13">
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="H9" s="12">
         <f t="shared" si="7"/>
-        <v>1.9960000000000002E-2</v>
-      </c>
-      <c r="I9" s="13">
+        <v>5.2499999999999995E-3</v>
+      </c>
+      <c r="I9" s="12">
         <f t="shared" si="7"/>
-        <v>2.4939999999999993E-2</v>
-      </c>
-      <c r="J9" s="13">
+        <v>6.9999999999999993E-3</v>
+      </c>
+      <c r="J9" s="12">
         <f t="shared" si="7"/>
-        <v>2.9900000000000006E-2</v>
-      </c>
-      <c r="K9" s="13">
+        <v>8.7499999999999991E-3</v>
+      </c>
+      <c r="K9" s="12">
         <f t="shared" si="7"/>
-        <v>3.4799999999999998E-2</v>
-      </c>
-      <c r="L9" s="13">
+        <v>1.0499999999999999E-2</v>
+      </c>
+      <c r="L9" s="12">
         <f t="shared" si="7"/>
-        <v>3.9700000000000006E-2</v>
-      </c>
-      <c r="M9" s="13">
+        <v>1.3999999999999999E-2</v>
+      </c>
+      <c r="M9" s="12">
         <f t="shared" si="7"/>
-        <v>4.4500000000000005E-2</v>
-      </c>
-      <c r="N9" s="13">
+        <v>1.7499999999999998E-2</v>
+      </c>
+      <c r="N9" s="12">
         <f t="shared" si="7"/>
-        <v>4.9299999999999997E-2</v>
-      </c>
-      <c r="O9" s="13">
+        <v>2.0999999999999998E-2</v>
+      </c>
+      <c r="O9" s="12">
         <f t="shared" si="7"/>
-        <v>5.4000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.7999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>124</v>
@@ -3145,40 +3112,40 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="12">
-        <f t="shared" ref="F10:O10" si="8">F23*$F$29</f>
-        <v>0</v>
+        <f t="shared" ref="F10:O10" si="8">F18*$F$26</f>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="8"/>
-        <v>8.0000000000000007E-5</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" si="8"/>
-        <v>1.6000000000000001E-4</v>
+        <v>7.5000000000000002E-4</v>
       </c>
       <c r="I10" s="12">
         <f t="shared" si="8"/>
-        <v>2.3999999999999998E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="8"/>
-        <v>4.0000000000000002E-4</v>
+        <v>1.2500000000000002E-3</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="8"/>
-        <v>8.0000000000000004E-4</v>
+        <v>1.5E-3</v>
       </c>
       <c r="L10" s="12">
         <f t="shared" si="8"/>
-        <v>1.2000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="M10" s="12">
         <f t="shared" si="8"/>
-        <v>2E-3</v>
+        <v>2.5000000000000005E-3</v>
       </c>
       <c r="N10" s="12">
         <f t="shared" si="8"/>
-        <v>2.8000000000000004E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="O10" s="12">
         <f t="shared" si="8"/>
@@ -3186,460 +3153,370 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>127</v>
       </c>
-      <c r="D11" s="2">
-        <v>2</v>
+      <c r="D11">
+        <v>3</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" s="12">
-        <f t="shared" ref="F11:O11" si="9">F23*$F$30</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="9"/>
-        <v>6.0000000000000002E-5</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="F11" s="13">
+        <f t="shared" ref="F11:O11" si="9">F19*$F$24</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="13">
         <f t="shared" si="9"/>
         <v>1.2E-4</v>
       </c>
-      <c r="I11" s="12">
+      <c r="H11" s="13">
         <f t="shared" si="9"/>
-        <v>1.7999999999999998E-4</v>
-      </c>
-      <c r="J11" s="12">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="I11" s="13">
         <f t="shared" si="9"/>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="K11" s="12">
-        <f t="shared" si="9"/>
+        <v>3.5999999999999997E-4</v>
+      </c>
+      <c r="J11" s="13">
+        <f>J19*$F$24</f>
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="L11" s="12">
-        <f t="shared" si="9"/>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="M11" s="12">
-        <f t="shared" si="9"/>
-        <v>1.5E-3</v>
-      </c>
-      <c r="N11" s="12">
-        <f t="shared" si="9"/>
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="O11" s="12">
+      <c r="K11" s="13">
+        <f>K19*$F$24</f>
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="L11" s="13">
+        <f>L19*$F$24</f>
+        <v>1.8E-3</v>
+      </c>
+      <c r="M11" s="13">
         <f t="shared" si="9"/>
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="N11" s="13">
+        <f t="shared" si="9"/>
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="O11" s="13">
+        <f t="shared" si="9"/>
+        <v>6.0000000000000001E-3</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A12" s="2">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="2">
-        <v>2</v>
+      <c r="D12">
+        <v>3</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" s="12">
-        <f t="shared" ref="F12:O12" si="10">F23*$F$31</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="12">
+      <c r="F12" s="13">
+        <f t="shared" ref="F12:O12" si="10">F19*$F$25</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
         <f t="shared" si="10"/>
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="H12" s="12">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="H12" s="13">
+        <f>H19*$F$25</f>
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="I12" s="13">
         <f t="shared" si="10"/>
-        <v>8.0000000000000007E-5</v>
-      </c>
-      <c r="I12" s="12">
+        <v>2.0999999999999998E-4</v>
+      </c>
+      <c r="J12" s="13">
+        <f>J19*$F$25</f>
+        <v>3.5E-4</v>
+      </c>
+      <c r="K12" s="13">
+        <f>K19*$F$25</f>
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="L12" s="13">
+        <f>L19*$F$25</f>
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="M12" s="13">
         <f t="shared" si="10"/>
-        <v>1.1999999999999999E-4</v>
-      </c>
-      <c r="J12" s="12">
+        <v>1.7499999999999998E-3</v>
+      </c>
+      <c r="N12" s="13">
         <f t="shared" si="10"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="K12" s="12">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="O12" s="13">
         <f t="shared" si="10"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="L12" s="12">
-        <f t="shared" si="10"/>
-        <v>6.0000000000000006E-4</v>
-      </c>
-      <c r="M12" s="12">
-        <f t="shared" si="10"/>
-        <v>1E-3</v>
-      </c>
-      <c r="N12" s="12">
-        <f t="shared" si="10"/>
-        <v>1.4000000000000002E-3</v>
-      </c>
-      <c r="O12" s="12">
-        <f t="shared" si="10"/>
-        <v>2E-3</v>
+        <v>3.4999999999999996E-3</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="2">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>131</v>
       </c>
-      <c r="D13" s="2">
-        <v>2</v>
+      <c r="D13">
+        <v>3</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" s="12">
-        <f t="shared" ref="F13:O13" si="11">F23*$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="11"/>
+      <c r="F13" s="13">
+        <f>F19*$F$26</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="13">
+        <f>G19*$F$26</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H13" s="13">
+        <f>H19*$F$26</f>
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="H13" s="12">
-        <f t="shared" si="11"/>
-        <v>4.0000000000000003E-5</v>
-      </c>
-      <c r="I13" s="12">
-        <f t="shared" si="11"/>
-        <v>5.9999999999999995E-5</v>
-      </c>
-      <c r="J13" s="12">
-        <f t="shared" si="11"/>
+      <c r="I13" s="13">
+        <f>I19*$F$26</f>
+        <v>2.9999999999999997E-5</v>
+      </c>
+      <c r="J13" s="13">
+        <f>J19*F26</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K13" s="13">
+        <f>K19*$F$26</f>
         <v>1E-4</v>
       </c>
-      <c r="K13" s="12">
-        <f t="shared" si="11"/>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="L13" s="12">
-        <f t="shared" si="11"/>
-        <v>3.0000000000000003E-4</v>
-      </c>
-      <c r="M13" s="12">
-        <f t="shared" si="11"/>
+      <c r="L13" s="13">
+        <f>L19*$F$26</f>
+        <v>1.5000000000000001E-4</v>
+      </c>
+      <c r="M13" s="13">
+        <f>M19*$F$26</f>
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="N13" s="13">
+        <f>N19*$F$26</f>
+        <v>3.5000000000000005E-4</v>
+      </c>
+      <c r="O13" s="13">
+        <f>O19*$F$26</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="N13" s="12">
-        <f t="shared" si="11"/>
-        <v>7.000000000000001E-4</v>
-      </c>
-      <c r="O13" s="12">
-        <f t="shared" si="11"/>
-        <v>1E-3</v>
-      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" t="s">
-        <v>133</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="13">
-        <f t="shared" ref="F14:O14" si="12">F24*$F$29</f>
-        <v>0</v>
+        <f t="shared" ref="F14:O14" si="11">SUM(F2:F13)</f>
+        <v>1</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.99999999999999978</v>
       </c>
       <c r="H14" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="I14" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="J14" s="13">
-        <f>J24*$F$29</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1.0000000000000002</v>
       </c>
       <c r="K14" s="13">
-        <f>K24*$F$29</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="L14" s="13">
-        <f>L24*$F$29</f>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="M14" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
       <c r="N14" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="O14" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="E16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0.52</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.31</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="N16" s="13">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E17" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F17" s="13">
+        <v>0.34</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.4698</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0.55959999999999999</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0.61939999999999995</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="L17" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="N17" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F18" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="H18" s="13">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="J18" s="13">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0.06</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E19" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H19" s="13">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="I19" s="13">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="J19" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="K19" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="L19" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M19" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="N19" s="13">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E20" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="13">
-        <f t="shared" ref="F15:O15" si="13">F24*$F$30</f>
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <f>H24*$F$30</f>
-        <v>0</v>
-      </c>
-      <c r="I15" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="13">
-        <f>J24*$F$30</f>
-        <v>0</v>
-      </c>
-      <c r="K15" s="13">
-        <f>K24*$F$30</f>
-        <v>0</v>
-      </c>
-      <c r="L15" s="13">
-        <f>L24*$F$30</f>
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="13">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="13">
-        <f>F24*$F$31</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="13">
-        <f>G24*$F$31</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <f>H24*$F$31</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="13">
-        <f>I24*$F$31</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="13">
-        <f>J24*F31</f>
-        <v>0</v>
-      </c>
-      <c r="K16" s="13">
-        <f>K24*$F$31</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="13">
-        <f>L24*$F$31</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="13">
-        <f>M24*$F$31</f>
-        <v>0</v>
-      </c>
-      <c r="N16" s="13">
-        <f>N24*$F$31</f>
-        <v>0</v>
-      </c>
-      <c r="O16" s="13">
-        <f>O24*$F$31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" t="s">
-        <v>139</v>
-      </c>
-      <c r="D17">
-        <v>3</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="13">
-        <f>F24*$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="13">
-        <f>G24*$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="13">
-        <f>H24*$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="13">
-        <f>I24*$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="13">
-        <f t="shared" ref="J17" si="14">J24*F32</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="13">
-        <f>K24*$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="13">
-        <f>L24*$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="13">
-        <f>M24*$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="13">
-        <f>N24*$F$32</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="13">
-        <f>O24*$F$32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A18" s="2">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="2">
-        <v>4</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E19" s="2"/>
-      <c r="F19" s="13">
-        <f t="shared" ref="F19:O19" si="15">SUM(F2:F18)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="G19" s="13">
-        <f t="shared" si="15"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="H19" s="13">
-        <f>SUM(H2:H18)</f>
-        <v>1</v>
-      </c>
-      <c r="I19" s="13">
-        <f t="shared" si="15"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="J19" s="13">
-        <f>SUM(J2:J18)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="K19" s="13">
-        <f>SUM(K2:K18)</f>
-        <v>1</v>
-      </c>
-      <c r="L19" s="13">
-        <f>SUM(L2:L18)</f>
-        <v>1.0000000000000002</v>
-      </c>
-      <c r="M19" s="13">
-        <f>SUM(M2:M18)</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="13">
-        <f>SUM(N2:N18)</f>
-        <v>1</v>
-      </c>
-      <c r="O19" s="13">
-        <f t="shared" si="15"/>
-        <v>1.0000000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E20" s="2"/>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
@@ -3651,315 +3528,135 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E21" s="2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
       <c r="F21" s="13">
-        <v>0.9</v>
+        <f>SUM(F16:F19)</f>
+        <v>1</v>
       </c>
       <c r="G21" s="13">
-        <v>0.85</v>
+        <f t="shared" ref="G21:O21" si="12">SUM(G16:G19)</f>
+        <v>1</v>
       </c>
       <c r="H21" s="13">
-        <v>0.8</v>
+        <f t="shared" si="12"/>
+        <v>0.99999999999999989</v>
       </c>
       <c r="I21" s="13">
-        <v>0.75</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="J21" s="13">
-        <v>0.7</v>
+        <f t="shared" si="12"/>
+        <v>1</v>
       </c>
       <c r="K21" s="13">
-        <v>0.65</v>
+        <f>SUM(K16:K19)</f>
+        <v>1</v>
       </c>
       <c r="L21" s="13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M21" s="13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="13">
+        <f t="shared" si="12"/>
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="O21" s="13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E22" s="2"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E23" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E24" s="2">
+        <v>4</v>
+      </c>
+      <c r="F24" s="13">
         <v>0.6</v>
       </c>
-      <c r="M21" s="13">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="N21" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="O21" s="13">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E22" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0.14979999999999999</v>
-      </c>
-      <c r="H22" s="13">
-        <f>55.96%-37.5%+1.5%</f>
-        <v>0.1996</v>
-      </c>
-      <c r="I22" s="13">
-        <f>61.94%-39%+2%</f>
-        <v>0.24939999999999993</v>
-      </c>
-      <c r="J22" s="13">
-        <f>66.4%-39%+2.5%</f>
-        <v>0.29900000000000004</v>
-      </c>
-      <c r="K22" s="13">
-        <f>70%-38.2%+3%</f>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="L22" s="13">
-        <f>75%-39.3%+4%</f>
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="M22" s="13">
-        <f>80%-40.5%+5%</f>
-        <v>0.44500000000000001</v>
-      </c>
-      <c r="N22" s="13">
-        <f>85%-41.7%+6%</f>
-        <v>0.49299999999999994</v>
-      </c>
-      <c r="O22" s="13">
-        <f>91%-45%+8%</f>
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E23" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0</v>
-      </c>
-      <c r="G23" s="13">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H23" s="13">
+      <c r="G24" s="13">
+        <f>F24*$G$27</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H24" s="14">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I23" s="13">
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="J23" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="K23" s="13">
-        <v>2E-3</v>
-      </c>
-      <c r="L23" s="13">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M23" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="N23" s="13">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="O23" s="13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
-      </c>
-      <c r="I24" s="13">
-        <v>0</v>
-      </c>
-      <c r="J24" s="13">
-        <v>0</v>
-      </c>
-      <c r="K24" s="13">
-        <v>0</v>
-      </c>
-      <c r="L24" s="13">
-        <v>0</v>
-      </c>
-      <c r="M24" s="13">
-        <v>0</v>
-      </c>
-      <c r="N24" s="13">
-        <v>0</v>
-      </c>
-      <c r="O24" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E25" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="13">
+        <v>0.35</v>
+      </c>
+      <c r="G25" s="13">
+        <f>F25*$G$27</f>
+        <v>3.5E-4</v>
+      </c>
+      <c r="H25" s="14">
+        <v>2.9999999999999997E-4</v>
+      </c>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E26" s="2" t="s">
-        <v>146</v>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.45">
+      <c r="E26" s="2">
+        <v>2</v>
       </c>
       <c r="F26" s="13">
-        <f t="shared" ref="F26:O26" si="16">SUM(F21:F24)</f>
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="G26" s="13">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="H26" s="13">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="I26" s="13">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="J26" s="13">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="K26" s="13">
-        <f>SUM(K21:K24)</f>
-        <v>1</v>
-      </c>
-      <c r="L26" s="13">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="M26" s="13">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-      <c r="N26" s="13">
-        <f t="shared" si="16"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="O26" s="13">
-        <f t="shared" si="16"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
+        <f>F26*$G$27</f>
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H26" s="14">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E27" s="2"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="F27" s="13">
+        <f>SUM(F24:F26)</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="H27" s="14">
+        <f>SUM(H24:H26)</f>
+        <v>8.9999999999999998E-4</v>
+      </c>
       <c r="I27" s="13"/>
       <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E28" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E29" s="2">
-        <v>4</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="G29" s="13">
-        <f>F29*$G$33</f>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="H29" s="14">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E30" s="2">
-        <v>3</v>
-      </c>
-      <c r="F30" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="G30" s="13">
-        <f>F30*$G$33</f>
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H30" s="14">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E31" s="2">
-        <v>2</v>
-      </c>
-      <c r="F31" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="G31" s="13">
-        <f>F31*$G$33</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H31" s="14">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="G32" s="13">
-        <f>F32*$G$33</f>
-        <v>1E-4</v>
-      </c>
-      <c r="H32" s="14">
-        <v>1E-4</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-    </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.45">
-      <c r="E33" s="2"/>
-      <c r="F33" s="13">
-        <f>SUM(F29:F32)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="G33" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="H33" s="14">
-        <f>SUM(H29:H32)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CC5A23-3DEB-4498-B3F7-33B7B03D5BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9A327E-3868-4B7F-9F7F-633AADC5C121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1083,38 +1083,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AK13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" customWidth="1"/>
+    <col min="4" max="4" width="38.375" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.58203125" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.08203125" customWidth="1"/>
-    <col min="15" max="15" width="17.08203125" customWidth="1"/>
-    <col min="17" max="17" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="15" max="15" width="17.125" customWidth="1"/>
+    <col min="17" max="17" width="19.875" customWidth="1"/>
     <col min="18" max="18" width="19.5" customWidth="1"/>
     <col min="19" max="19" width="28" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" customWidth="1"/>
+    <col min="22" max="22" width="13.875" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" customWidth="1"/>
-    <col min="26" max="26" width="15.1640625" customWidth="1"/>
-    <col min="27" max="27" width="18.1640625" customWidth="1"/>
+    <col min="25" max="25" width="14.875" customWidth="1"/>
+    <col min="26" max="26" width="15.125" customWidth="1"/>
+    <col min="27" max="27" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:37" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1301,31 +1301,31 @@
         <v>21</v>
       </c>
       <c r="Y2">
-        <v>0.39300000000000002</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="Z2">
-        <v>0.312</v>
+        <v>0.31740000000000002</v>
       </c>
       <c r="AA2">
-        <v>0.255</v>
+        <v>0.26285999999999998</v>
       </c>
       <c r="AB2">
-        <v>0.216</v>
+        <v>0.22631999999999997</v>
       </c>
       <c r="AC2">
-        <v>0.186</v>
+        <v>0.19889999999999999</v>
       </c>
       <c r="AD2">
-        <v>0.1608</v>
+        <v>0.17639999999999997</v>
       </c>
       <c r="AE2">
-        <v>0.12419999999999999</v>
+        <v>0.1452</v>
       </c>
       <c r="AF2">
-        <v>8.6999999999999994E-2</v>
+        <v>0.11399999999999999</v>
       </c>
       <c r="AG2">
-        <v>4.9800000000000004E-2</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="AH2">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>0.51</v>
       </c>
       <c r="AH3">
-        <v>0.54600000000000004</v>
+        <v>0.59160000000000001</v>
       </c>
       <c r="AI3" s="2">
         <v>4</v>
@@ -1453,7 +1453,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1527,34 +1527,34 @@
         <v>21</v>
       </c>
       <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="AA4">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="AB4">
+        <v>1.8E-3</v>
+      </c>
+      <c r="AC4">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AD4">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="Z4">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="AA4">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="AB4">
-        <v>1.2E-2</v>
-      </c>
-      <c r="AC4">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AD4">
-        <v>1.7999999999999999E-2</v>
-      </c>
       <c r="AE4">
-        <v>2.4E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="AF4">
-        <v>0.03</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="AG4">
-        <v>3.5999999999999997E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="AH4">
-        <v>4.8000000000000001E-2</v>
+        <v>5.3999999999999994E-3</v>
       </c>
       <c r="AI4" s="2">
         <v>4</v>
@@ -1566,7 +1566,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1646,28 +1646,28 @@
         <v>1.2E-4</v>
       </c>
       <c r="AA5">
+        <v>1.7999999999999998E-4</v>
+      </c>
+      <c r="AB5">
         <v>2.4000000000000001E-4</v>
       </c>
-      <c r="AB5">
-        <v>3.5999999999999997E-4</v>
-      </c>
       <c r="AC5">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AD5">
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>1.8E-3</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="AH5">
         <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AG5">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="AH5">
-        <v>6.0000000000000001E-3</v>
       </c>
       <c r="AI5" s="2">
         <v>4</v>
@@ -1679,7 +1679,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1753,31 +1753,31 @@
         <v>21</v>
       </c>
       <c r="Y6">
-        <v>0.22924999999999998</v>
+        <v>0.23099999999999998</v>
       </c>
       <c r="Z6">
-        <v>0.182</v>
+        <v>0.18515000000000001</v>
       </c>
       <c r="AA6">
-        <v>0.14874999999999999</v>
+        <v>0.153335</v>
       </c>
       <c r="AB6">
-        <v>0.126</v>
+        <v>0.13201999999999997</v>
       </c>
       <c r="AC6">
-        <v>0.1085</v>
+        <v>0.116025</v>
       </c>
       <c r="AD6">
-        <v>9.3799999999999994E-2</v>
+        <v>0.10289999999999999</v>
       </c>
       <c r="AE6">
-        <v>7.2449999999999987E-2</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="AF6">
-        <v>5.0749999999999997E-2</v>
+        <v>6.649999999999999E-2</v>
       </c>
       <c r="AG6">
-        <v>2.9049999999999999E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="AH6">
         <v>0</v>
@@ -1792,7 +1792,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1893,7 +1893,7 @@
         <v>0.29749999999999999</v>
       </c>
       <c r="AH7">
-        <v>0.31850000000000001</v>
+        <v>0.34509999999999996</v>
       </c>
       <c r="AI7" s="2">
         <v>4</v>
@@ -1905,7 +1905,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1979,34 +1979,34 @@
         <v>21</v>
       </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>3.5E-4</v>
+      </c>
+      <c r="AA8">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="AB8">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="AC8">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AD8">
         <v>1.7499999999999998E-3</v>
       </c>
-      <c r="Z8">
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="AA8">
-        <v>5.2499999999999995E-3</v>
-      </c>
-      <c r="AB8">
-        <v>6.9999999999999993E-3</v>
-      </c>
-      <c r="AC8">
-        <v>8.7499999999999991E-3</v>
-      </c>
-      <c r="AD8">
-        <v>1.0499999999999999E-2</v>
-      </c>
       <c r="AE8">
-        <v>1.3999999999999999E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="AF8">
-        <v>1.7499999999999998E-2</v>
+        <v>2.4499999999999999E-3</v>
       </c>
       <c r="AG8">
-        <v>2.0999999999999998E-2</v>
+        <v>2.8E-3</v>
       </c>
       <c r="AH8">
-        <v>2.7999999999999997E-2</v>
+        <v>3.1499999999999996E-3</v>
       </c>
       <c r="AI8" s="2">
         <v>4</v>
@@ -2018,7 +2018,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2098,28 +2098,28 @@
         <v>6.9999999999999994E-5</v>
       </c>
       <c r="AA9">
+        <v>1.0499999999999999E-4</v>
+      </c>
+      <c r="AB9">
         <v>1.3999999999999999E-4</v>
       </c>
-      <c r="AB9">
-        <v>2.0999999999999998E-4</v>
-      </c>
       <c r="AC9">
+        <v>1.75E-4</v>
+      </c>
+      <c r="AD9">
         <v>3.5E-4</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1.0499999999999999E-3</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="AH9">
         <v>1.7499999999999998E-3</v>
-      </c>
-      <c r="AG9">
-        <v>2.4499999999999999E-3</v>
-      </c>
-      <c r="AH9">
-        <v>3.4999999999999996E-3</v>
       </c>
       <c r="AI9" s="2">
         <v>4</v>
@@ -2131,7 +2131,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2205,31 +2205,31 @@
         <v>21</v>
       </c>
       <c r="Y10">
-        <v>3.2750000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="Z10">
-        <v>2.6000000000000002E-2</v>
+        <v>2.6450000000000001E-2</v>
       </c>
       <c r="AA10">
-        <v>2.1250000000000002E-2</v>
+        <v>2.1905000000000001E-2</v>
       </c>
       <c r="AB10">
-        <v>1.7999999999999999E-2</v>
+        <v>1.8860000000000002E-2</v>
       </c>
       <c r="AC10">
-        <v>1.55E-2</v>
+        <v>1.6575000000000003E-2</v>
       </c>
       <c r="AD10">
-        <v>1.3400000000000002E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="AE10">
-        <v>1.035E-2</v>
+        <v>1.21E-2</v>
       </c>
       <c r="AF10">
-        <v>7.2499999999999995E-3</v>
+        <v>9.5000000000000015E-3</v>
       </c>
       <c r="AG10">
-        <v>4.15E-3</v>
+        <v>6.9000000000000008E-3</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -2244,7 +2244,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="AH11">
-        <v>4.5500000000000006E-2</v>
+        <v>4.9300000000000004E-2</v>
       </c>
       <c r="AI11" s="2">
         <v>4</v>
@@ -2357,7 +2357,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2431,34 +2431,34 @@
         <v>21</v>
       </c>
       <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="AA12">
+        <v>1E-4</v>
+      </c>
+      <c r="AB12">
+        <v>1.5000000000000001E-4</v>
+      </c>
+      <c r="AC12">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AD12">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="Z12">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="AA12">
-        <v>7.5000000000000002E-4</v>
-      </c>
-      <c r="AB12">
-        <v>1E-3</v>
-      </c>
-      <c r="AC12">
-        <v>1.2500000000000002E-3</v>
-      </c>
-      <c r="AD12">
-        <v>1.5E-3</v>
-      </c>
       <c r="AE12">
-        <v>2E-3</v>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="AF12">
-        <v>2.5000000000000005E-3</v>
+        <v>3.5000000000000005E-4</v>
       </c>
       <c r="AG12">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="AH12">
-        <v>4.0000000000000001E-3</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="AI12" s="2">
         <v>4</v>
@@ -2470,7 +2470,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2550,28 +2550,28 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="AA13">
+        <v>1.4999999999999999E-5</v>
+      </c>
+      <c r="AB13">
         <v>2.0000000000000002E-5</v>
       </c>
-      <c r="AB13">
-        <v>2.9999999999999997E-5</v>
-      </c>
       <c r="AC13">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="AD13">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>1E-4</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>1.5000000000000001E-4</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AH13">
         <v>2.5000000000000001E-4</v>
-      </c>
-      <c r="AG13">
-        <v>3.5000000000000005E-4</v>
-      </c>
-      <c r="AH13">
-        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AI13" s="2">
         <v>4</v>
@@ -2594,25 +2594,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDD430D-3C7E-404D-942C-275A2BE9BF6F}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F11" sqref="F11:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="27.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.9140625" customWidth="1"/>
-    <col min="8" max="8" width="15.58203125" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="7" max="7" width="16.875" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.375" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="20.08203125" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" customWidth="1"/>
-    <col min="14" max="14" width="18.4140625" customWidth="1"/>
-    <col min="15" max="15" width="23.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.125" customWidth="1"/>
+    <col min="13" max="13" width="17.875" customWidth="1"/>
+    <col min="14" max="14" width="18.375" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2673,46 +2673,46 @@
       <c r="E2" s="2"/>
       <c r="F2" s="12">
         <f t="shared" ref="F2:O2" si="0">F16*$F$24</f>
-        <v>0.39300000000000002</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="G2" s="12">
         <f t="shared" si="0"/>
-        <v>0.312</v>
+        <v>0.31740000000000002</v>
       </c>
       <c r="H2" s="12">
         <f t="shared" si="0"/>
-        <v>0.255</v>
+        <v>0.26285999999999998</v>
       </c>
       <c r="I2" s="12">
         <f t="shared" si="0"/>
-        <v>0.216</v>
+        <v>0.22631999999999997</v>
       </c>
       <c r="J2" s="12">
         <f t="shared" si="0"/>
-        <v>0.186</v>
+        <v>0.19889999999999999</v>
       </c>
       <c r="K2" s="12">
         <f t="shared" si="0"/>
-        <v>0.1608</v>
+        <v>0.17639999999999997</v>
       </c>
       <c r="L2" s="12">
         <f t="shared" si="0"/>
-        <v>0.12419999999999999</v>
+        <v>0.1452</v>
       </c>
       <c r="M2" s="12">
         <f t="shared" si="0"/>
-        <v>8.6999999999999994E-2</v>
+        <v>0.11399999999999999</v>
       </c>
       <c r="N2" s="12">
         <f t="shared" si="0"/>
-        <v>4.9800000000000004E-2</v>
+        <v>8.2799999999999999E-2</v>
       </c>
       <c r="O2" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2728,46 +2728,46 @@
       <c r="E3" s="2"/>
       <c r="F3" s="12">
         <f t="shared" ref="F3:O3" si="1">F16*$F$25</f>
-        <v>0.22924999999999998</v>
+        <v>0.23099999999999998</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" si="1"/>
-        <v>0.182</v>
+        <v>0.18515000000000001</v>
       </c>
       <c r="H3" s="12">
         <f t="shared" si="1"/>
-        <v>0.14874999999999999</v>
+        <v>0.153335</v>
       </c>
       <c r="I3" s="12">
         <f t="shared" si="1"/>
-        <v>0.126</v>
+        <v>0.13201999999999997</v>
       </c>
       <c r="J3" s="12">
         <f t="shared" si="1"/>
-        <v>0.1085</v>
+        <v>0.116025</v>
       </c>
       <c r="K3" s="12">
         <f t="shared" si="1"/>
-        <v>9.3799999999999994E-2</v>
+        <v>0.10289999999999999</v>
       </c>
       <c r="L3" s="12">
         <f t="shared" si="1"/>
-        <v>7.2449999999999987E-2</v>
+        <v>8.4699999999999998E-2</v>
       </c>
       <c r="M3" s="12">
         <f t="shared" si="1"/>
-        <v>5.0749999999999997E-2</v>
+        <v>6.649999999999999E-2</v>
       </c>
       <c r="N3" s="12">
         <f t="shared" si="1"/>
-        <v>2.9049999999999999E-2</v>
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="O3" s="12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2783,46 +2783,46 @@
       <c r="E4" s="2"/>
       <c r="F4" s="12">
         <f t="shared" ref="F4:O4" si="2">F16*$F$26</f>
-        <v>3.2750000000000001E-2</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="2"/>
-        <v>2.6000000000000002E-2</v>
+        <v>2.6450000000000001E-2</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="2"/>
-        <v>2.1250000000000002E-2</v>
+        <v>2.1905000000000001E-2</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="2"/>
-        <v>1.7999999999999999E-2</v>
+        <v>1.8860000000000002E-2</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="2"/>
-        <v>1.55E-2</v>
+        <v>1.6575000000000003E-2</v>
       </c>
       <c r="K4" s="12">
         <f>K16*$F$26</f>
-        <v>1.3400000000000002E-2</v>
+        <v>1.47E-2</v>
       </c>
       <c r="L4" s="12">
         <f t="shared" si="2"/>
-        <v>1.035E-2</v>
+        <v>1.21E-2</v>
       </c>
       <c r="M4" s="12">
         <f t="shared" si="2"/>
-        <v>7.2499999999999995E-3</v>
+        <v>9.5000000000000015E-3</v>
       </c>
       <c r="N4" s="12">
         <f t="shared" si="2"/>
-        <v>4.15E-3</v>
+        <v>6.9000000000000008E-3</v>
       </c>
       <c r="O4" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2874,10 +2874,10 @@
       </c>
       <c r="O5" s="13">
         <f t="shared" si="3"/>
-        <v>0.54600000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.59160000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2929,10 +2929,10 @@
       </c>
       <c r="O6" s="13">
         <f t="shared" si="4"/>
-        <v>0.31850000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.34509999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2984,10 +2984,10 @@
       </c>
       <c r="O7" s="13">
         <f t="shared" si="5"/>
-        <v>4.5500000000000006E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+        <v>4.9300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -3003,46 +3003,46 @@
       <c r="E8" s="2"/>
       <c r="F8" s="12">
         <f t="shared" ref="F8:O8" si="6">F18*$F$24</f>
-        <v>3.0000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" si="6"/>
-        <v>6.0000000000000001E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H8" s="12">
         <f t="shared" si="6"/>
-        <v>8.9999999999999993E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="I8" s="12">
         <f t="shared" si="6"/>
-        <v>1.2E-2</v>
+        <v>1.8E-3</v>
       </c>
       <c r="J8" s="12">
         <f t="shared" si="6"/>
-        <v>1.4999999999999999E-2</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="K8" s="12">
         <f t="shared" si="6"/>
-        <v>1.7999999999999999E-2</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="L8" s="12">
         <f t="shared" si="6"/>
-        <v>2.4E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="M8" s="12">
         <f t="shared" si="6"/>
-        <v>0.03</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="N8" s="12">
         <f t="shared" si="6"/>
-        <v>3.5999999999999997E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="O8" s="12">
         <f t="shared" si="6"/>
-        <v>4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+        <v>5.3999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -3058,46 +3058,46 @@
       <c r="E9" s="2"/>
       <c r="F9" s="12">
         <f t="shared" ref="F9:O9" si="7">F18*$F$25</f>
-        <v>1.7499999999999998E-3</v>
+        <v>0</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" si="7"/>
-        <v>3.4999999999999996E-3</v>
+        <v>3.5E-4</v>
       </c>
       <c r="H9" s="12">
         <f t="shared" si="7"/>
-        <v>5.2499999999999995E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="I9" s="12">
         <f t="shared" si="7"/>
-        <v>6.9999999999999993E-3</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="J9" s="12">
         <f t="shared" si="7"/>
-        <v>8.7499999999999991E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="K9" s="12">
         <f t="shared" si="7"/>
-        <v>1.0499999999999999E-2</v>
+        <v>1.7499999999999998E-3</v>
       </c>
       <c r="L9" s="12">
         <f t="shared" si="7"/>
-        <v>1.3999999999999999E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="M9" s="12">
         <f t="shared" si="7"/>
-        <v>1.7499999999999998E-2</v>
+        <v>2.4499999999999999E-3</v>
       </c>
       <c r="N9" s="12">
         <f t="shared" si="7"/>
-        <v>2.0999999999999998E-2</v>
+        <v>2.8E-3</v>
       </c>
       <c r="O9" s="12">
         <f t="shared" si="7"/>
-        <v>2.7999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+        <v>3.1499999999999996E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3113,46 +3113,46 @@
       <c r="E10" s="2"/>
       <c r="F10" s="12">
         <f t="shared" ref="F10:O10" si="8">F18*$F$26</f>
-        <v>2.5000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" si="8"/>
-        <v>5.0000000000000001E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="H10" s="12">
         <f t="shared" si="8"/>
-        <v>7.5000000000000002E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="I10" s="12">
         <f t="shared" si="8"/>
-        <v>1E-3</v>
+        <v>1.5000000000000001E-4</v>
       </c>
       <c r="J10" s="12">
         <f t="shared" si="8"/>
-        <v>1.2500000000000002E-3</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K10" s="12">
         <f t="shared" si="8"/>
-        <v>1.5E-3</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="L10" s="12">
         <f t="shared" si="8"/>
-        <v>2E-3</v>
+        <v>3.0000000000000003E-4</v>
       </c>
       <c r="M10" s="12">
         <f t="shared" si="8"/>
-        <v>2.5000000000000005E-3</v>
+        <v>3.5000000000000005E-4</v>
       </c>
       <c r="N10" s="12">
         <f t="shared" si="8"/>
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="O10" s="12">
         <f t="shared" si="8"/>
-        <v>4.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+        <v>4.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -3176,38 +3176,38 @@
       </c>
       <c r="H11" s="13">
         <f t="shared" si="9"/>
-        <v>2.4000000000000001E-4</v>
+        <v>1.7999999999999998E-4</v>
       </c>
       <c r="I11" s="13">
         <f t="shared" si="9"/>
-        <v>3.5999999999999997E-4</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="J11" s="13">
         <f>J19*$F$24</f>
-        <v>5.9999999999999995E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="K11" s="13">
         <f>K19*$F$24</f>
-        <v>1.1999999999999999E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="L11" s="13">
         <f>L19*$F$24</f>
-        <v>1.8E-3</v>
+        <v>1.1999999999999999E-3</v>
       </c>
       <c r="M11" s="13">
         <f t="shared" si="9"/>
-        <v>3.0000000000000001E-3</v>
+        <v>1.8E-3</v>
       </c>
       <c r="N11" s="13">
         <f t="shared" si="9"/>
-        <v>4.1999999999999997E-3</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="O11" s="13">
         <f t="shared" si="9"/>
-        <v>6.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13</v>
       </c>
@@ -3231,38 +3231,38 @@
       </c>
       <c r="H12" s="13">
         <f>H19*$F$25</f>
-        <v>1.3999999999999999E-4</v>
+        <v>1.0499999999999999E-4</v>
       </c>
       <c r="I12" s="13">
         <f t="shared" si="10"/>
-        <v>2.0999999999999998E-4</v>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="J12" s="13">
         <f>J19*$F$25</f>
-        <v>3.5E-4</v>
+        <v>1.75E-4</v>
       </c>
       <c r="K12" s="13">
         <f>K19*$F$25</f>
-        <v>6.9999999999999999E-4</v>
+        <v>3.5E-4</v>
       </c>
       <c r="L12" s="13">
         <f>L19*$F$25</f>
-        <v>1.0499999999999999E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="M12" s="13">
         <f t="shared" si="10"/>
-        <v>1.7499999999999998E-3</v>
+        <v>1.0499999999999999E-3</v>
       </c>
       <c r="N12" s="13">
         <f t="shared" si="10"/>
-        <v>2.4499999999999999E-3</v>
+        <v>1.4E-3</v>
       </c>
       <c r="O12" s="13">
         <f t="shared" si="10"/>
-        <v>3.4999999999999996E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+        <v>1.7499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -3286,38 +3286,38 @@
       </c>
       <c r="H13" s="13">
         <f>H19*$F$26</f>
-        <v>2.0000000000000002E-5</v>
+        <v>1.4999999999999999E-5</v>
       </c>
       <c r="I13" s="13">
         <f>I19*$F$26</f>
-        <v>2.9999999999999997E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="J13" s="13">
         <f>J19*F26</f>
-        <v>5.0000000000000002E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="K13" s="13">
         <f>K19*$F$26</f>
-        <v>1E-4</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="L13" s="13">
         <f>L19*$F$26</f>
-        <v>1.5000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="M13" s="13">
         <f>M19*$F$26</f>
-        <v>2.5000000000000001E-4</v>
+        <v>1.5000000000000001E-4</v>
       </c>
       <c r="N13" s="13">
         <f>N19*$F$26</f>
-        <v>3.5000000000000005E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="O13" s="13">
         <f>O19*$F$26</f>
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+        <v>2.5000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="F14" s="13">
         <f t="shared" ref="F14:O14" si="11">SUM(F2:F13)</f>
@@ -3325,23 +3325,23 @@
       </c>
       <c r="G14" s="13">
         <f t="shared" si="11"/>
-        <v>0.99999999999999978</v>
+        <v>1</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="I14" s="13">
         <f t="shared" si="11"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="J14" s="13">
         <f t="shared" si="11"/>
-        <v>1.0000000000000002</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="K14" s="13">
         <f t="shared" si="11"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="L14" s="13">
         <f t="shared" si="11"/>
@@ -3349,7 +3349,7 @@
       </c>
       <c r="M14" s="13">
         <f t="shared" si="11"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="N14" s="13">
         <f t="shared" si="11"/>
@@ -3357,10 +3357,10 @@
       </c>
       <c r="O14" s="13">
         <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -3373,42 +3373,42 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E16" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F16" s="13">
-        <v>0.65500000000000003</v>
+        <v>0.66</v>
       </c>
       <c r="G16" s="13">
-        <v>0.52</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="H16" s="13">
-        <v>0.42499999999999999</v>
+        <v>0.43809999999999999</v>
       </c>
       <c r="I16" s="13">
-        <v>0.36</v>
+        <v>0.37719999999999998</v>
       </c>
       <c r="J16" s="13">
-        <v>0.31</v>
+        <v>0.33150000000000002</v>
       </c>
       <c r="K16" s="13">
-        <v>0.26800000000000002</v>
+        <v>0.29399999999999998</v>
       </c>
       <c r="L16" s="13">
-        <v>0.20699999999999999</v>
+        <v>0.24199999999999999</v>
       </c>
       <c r="M16" s="13">
-        <v>0.14499999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="N16" s="13">
-        <v>8.3000000000000004E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="O16" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="2" t="s">
         <v>132</v>
       </c>
@@ -3440,45 +3440,45 @@
         <v>0.85</v>
       </c>
       <c r="O17" s="13">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.45">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E18" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1E-3</v>
+      </c>
+      <c r="H18" s="13">
+        <v>2E-3</v>
+      </c>
+      <c r="I18" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J18" s="13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K18" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G18" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="H18" s="13">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="I18" s="13">
-        <v>0.02</v>
-      </c>
-      <c r="J18" s="13">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="K18" s="13">
-        <v>0.03</v>
-      </c>
       <c r="L18" s="13">
-        <v>0.04</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="M18" s="13">
-        <v>0.05</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="N18" s="13">
-        <v>0.06</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="O18" s="13">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.45">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="2" t="s">
         <v>134</v>
       </c>
@@ -3489,31 +3489,31 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H19" s="13">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="I19" s="13">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="I19" s="13">
-        <v>5.9999999999999995E-4</v>
-      </c>
       <c r="J19" s="13">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K19" s="13">
         <v>1E-3</v>
       </c>
-      <c r="K19" s="13">
+      <c r="L19" s="13">
         <v>2E-3</v>
       </c>
-      <c r="L19" s="13">
+      <c r="M19" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="M19" s="13">
+      <c r="N19" s="13">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="O19" s="13">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="N19" s="13">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="O19" s="13">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="2" t="s">
         <v>135</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="2" t="s">
         <v>136</v>
       </c>
@@ -3542,11 +3542,11 @@
       </c>
       <c r="H21" s="13">
         <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="I21" s="13">
         <f t="shared" si="12"/>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="J21" s="13">
         <f t="shared" si="12"/>
@@ -3566,14 +3566,14 @@
       </c>
       <c r="N21" s="13">
         <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="O21" s="13">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -3581,7 +3581,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="6" t="s">
         <v>138</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E24" s="2">
         <v>4</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E25" s="2">
         <v>3</v>
       </c>
@@ -3625,7 +3625,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E26" s="2">
         <v>2</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
       <c r="F27" s="13">
         <f>SUM(F24:F26)</f>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B9A327E-3868-4B7F-9F7F-633AADC5C121}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A9518-9F28-4EF5-9400-AE1F2EFE79CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -551,6 +551,14 @@
   </si>
   <si>
     <t>등급별확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasEffectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HasEffectValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,40 +1089,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AK13"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="38.375" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="38.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="13.58203125" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" customWidth="1"/>
-    <col min="15" max="15" width="17.125" customWidth="1"/>
-    <col min="17" max="17" width="19.875" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.08203125" customWidth="1"/>
+    <col min="15" max="15" width="17.08203125" customWidth="1"/>
+    <col min="17" max="17" width="19.83203125" customWidth="1"/>
     <col min="18" max="18" width="19.5" customWidth="1"/>
     <col min="19" max="19" width="28" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="13.875" customWidth="1"/>
+    <col min="22" max="22" width="13.83203125" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.875" customWidth="1"/>
-    <col min="26" max="26" width="15.125" customWidth="1"/>
-    <col min="27" max="27" width="18.125" customWidth="1"/>
+    <col min="25" max="25" width="14.83203125" customWidth="1"/>
+    <col min="26" max="26" width="15.08203125" customWidth="1"/>
+    <col min="27" max="27" width="18.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1226,8 +1234,14 @@
       <c r="AK1" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL1" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1244,7 +1258,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3">
         <v>0.3</v>
@@ -1339,8 +1353,14 @@
       <c r="AK2" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL2" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1357,7 +1377,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" s="3">
         <v>0.3</v>
@@ -1452,8 +1472,14 @@
       <c r="AK3" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="4" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL3" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1470,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G4" s="3">
         <v>0.3</v>
@@ -1565,8 +1591,14 @@
       <c r="AK4" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="5" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL4" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1583,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G5" s="3">
         <v>0.3</v>
@@ -1678,8 +1710,14 @@
       <c r="AK5" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="6" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL5" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1696,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G6" s="3">
         <v>0.3</v>
@@ -1791,8 +1829,14 @@
       <c r="AK6" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL6" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1809,7 +1853,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7" s="3">
         <v>0.3</v>
@@ -1904,8 +1948,14 @@
       <c r="AK7" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL7" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1922,7 +1972,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8" s="3">
         <v>0.3</v>
@@ -2017,8 +2067,14 @@
       <c r="AK8" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:37" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AL8" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2035,7 +2091,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G9" s="3">
         <v>0.3</v>
@@ -2130,8 +2186,14 @@
       <c r="AK9" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL9" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2148,7 +2210,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G10" s="3">
         <v>0.3</v>
@@ -2243,8 +2305,14 @@
       <c r="AK10" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL10" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2261,7 +2329,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G11" s="3">
         <v>0.3</v>
@@ -2356,8 +2424,14 @@
       <c r="AK11" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL11" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2374,7 +2448,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G12" s="3">
         <v>0.3</v>
@@ -2469,8 +2543,14 @@
       <c r="AK12" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="13" spans="1:37" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AL12" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2487,7 +2567,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3">
         <v>0.3</v>
@@ -2581,6 +2661,12 @@
       </c>
       <c r="AK13" s="2" t="s">
         <v>95</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -2598,21 +2684,21 @@
       <selection activeCell="F11" sqref="F11:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="27.58203125" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.58203125" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="22.375" customWidth="1"/>
+    <col min="10" max="10" width="22.33203125" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="20.125" customWidth="1"/>
-    <col min="13" max="13" width="17.875" customWidth="1"/>
-    <col min="14" max="14" width="18.375" customWidth="1"/>
-    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="12" max="12" width="20.08203125" customWidth="1"/>
+    <col min="13" max="13" width="17.83203125" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="23.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -2657,7 +2743,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2712,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2767,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2822,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2877,7 +2963,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2932,7 +3018,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2987,7 +3073,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -3042,7 +3128,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -3097,7 +3183,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3152,7 +3238,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>12</v>
       </c>
@@ -3207,7 +3293,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>13</v>
       </c>
@@ -3262,7 +3348,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>14</v>
       </c>
@@ -3317,7 +3403,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="F14" s="13">
         <f t="shared" ref="F14:O14" si="11">SUM(F2:F13)</f>
@@ -3360,7 +3446,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -3373,7 +3459,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E16" s="2" t="s">
         <v>92</v>
       </c>
@@ -3408,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E17" s="2" t="s">
         <v>132</v>
       </c>
@@ -3443,7 +3529,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E18" s="2" t="s">
         <v>133</v>
       </c>
@@ -3478,7 +3564,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E19" s="2" t="s">
         <v>134</v>
       </c>
@@ -3513,7 +3599,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E20" s="2" t="s">
         <v>135</v>
       </c>
@@ -3528,7 +3614,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E21" s="2" t="s">
         <v>136</v>
       </c>
@@ -3573,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E22" s="2"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -3581,7 +3667,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E23" s="6" t="s">
         <v>138</v>
       </c>
@@ -3591,7 +3677,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E24" s="2">
         <v>4</v>
       </c>
@@ -3608,7 +3694,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E25" s="2">
         <v>3</v>
       </c>
@@ -3625,7 +3711,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E26" s="2">
         <v>2</v>
       </c>
@@ -3642,7 +3728,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E27" s="2"/>
       <c r="F27" s="13">
         <f>SUM(F24:F26)</f>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0A9518-9F28-4EF5-9400-AE1F2EFE79CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94D9CD-C3DD-4F55-97A5-76F3035C96D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1091,38 +1091,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.796875" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" customWidth="1"/>
+    <col min="4" max="4" width="38.296875" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.58203125" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.08203125" customWidth="1"/>
-    <col min="15" max="15" width="17.08203125" customWidth="1"/>
-    <col min="17" max="17" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.09765625" customWidth="1"/>
+    <col min="15" max="15" width="17.09765625" customWidth="1"/>
+    <col min="17" max="17" width="19.796875" customWidth="1"/>
     <col min="18" max="18" width="19.5" customWidth="1"/>
     <col min="19" max="19" width="28" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" customWidth="1"/>
+    <col min="22" max="22" width="13.796875" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.83203125" customWidth="1"/>
-    <col min="26" max="26" width="15.08203125" customWidth="1"/>
-    <col min="27" max="27" width="18.08203125" customWidth="1"/>
+    <col min="25" max="25" width="14.796875" customWidth="1"/>
+    <col min="26" max="26" width="15.09765625" customWidth="1"/>
+    <col min="27" max="27" width="18.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>0.3</v>
       </c>
       <c r="H2" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -1360,7 +1360,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1383,16 +1383,16 @@
         <v>0.3</v>
       </c>
       <c r="H3" s="3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K3" s="3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="L3" s="3">
         <v>3</v>
@@ -1479,7 +1479,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1508,10 +1508,10 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="K4" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L4" s="3">
         <v>3</v>
@@ -1598,7 +1598,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1627,10 +1627,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="K5" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L5" s="3">
         <v>3</v>
@@ -1717,7 +1717,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0.3</v>
       </c>
       <c r="H6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1836,7 +1836,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1859,16 +1859,16 @@
         <v>0.3</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K7" s="3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="L7" s="3">
         <v>30</v>
@@ -1955,7 +1955,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1978,16 +1978,16 @@
         <v>0.3</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L8" s="3">
         <v>30</v>
@@ -2074,7 +2074,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2097,16 +2097,16 @@
         <v>0.3</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K9" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L9" s="3">
         <v>30</v>
@@ -2193,7 +2193,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2216,7 +2216,7 @@
         <v>0.3</v>
       </c>
       <c r="H10" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2312,7 +2312,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2335,16 +2335,16 @@
         <v>0.3</v>
       </c>
       <c r="H11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="K11" s="3">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="L11" s="3">
         <v>50</v>
@@ -2431,7 +2431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2454,16 +2454,16 @@
         <v>0.3</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L12" s="3">
         <v>50</v>
@@ -2550,7 +2550,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2573,16 +2573,16 @@
         <v>0.3</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K13" s="3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="L13" s="3">
         <v>50</v>
@@ -2684,21 +2684,21 @@
       <selection activeCell="F11" sqref="F11:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="27.58203125" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
-    <col min="8" max="8" width="15.58203125" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.796875" customWidth="1"/>
+    <col min="8" max="8" width="15.59765625" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="22.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.296875" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="20.08203125" customWidth="1"/>
-    <col min="13" max="13" width="17.83203125" customWidth="1"/>
-    <col min="14" max="14" width="18.33203125" customWidth="1"/>
-    <col min="15" max="15" width="23.58203125" customWidth="1"/>
+    <col min="12" max="12" width="20.09765625" customWidth="1"/>
+    <col min="13" max="13" width="17.796875" customWidth="1"/>
+    <col min="14" max="14" width="18.296875" customWidth="1"/>
+    <col min="15" max="15" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2963,7 +2963,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3018,7 +3018,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>12</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>13</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>14</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E14" s="2"/>
       <c r="F14" s="13">
         <f t="shared" ref="F14:O14" si="11">SUM(F2:F13)</f>
@@ -3446,7 +3446,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -3459,7 +3459,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E16" s="2" t="s">
         <v>92</v>
       </c>
@@ -3494,7 +3494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E17" s="2" t="s">
         <v>132</v>
       </c>
@@ -3529,7 +3529,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E18" s="2" t="s">
         <v>133</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E19" s="2" t="s">
         <v>134</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E20" s="2" t="s">
         <v>135</v>
       </c>
@@ -3614,7 +3614,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E21" s="2" t="s">
         <v>136</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E22" s="2"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -3667,7 +3667,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E23" s="6" t="s">
         <v>138</v>
       </c>
@@ -3677,7 +3677,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E24" s="2">
         <v>4</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E25" s="2">
         <v>3</v>
       </c>
@@ -3711,7 +3711,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E26" s="2">
         <v>2</v>
       </c>
@@ -3728,7 +3728,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E27" s="2"/>
       <c r="F27" s="13">
         <f>SUM(F24:F26)</f>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D94D9CD-C3DD-4F55-97A5-76F3035C96D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A66379-EA50-48E5-B6A7-01C881D82C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Damage" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -559,6 +560,14 @@
   </si>
   <si>
     <t>HasEffectValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxDam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1092,7 +1101,7 @@
   <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1389,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="K3" s="3">
         <v>0.15</v>
@@ -1508,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K4" s="3">
         <v>0.2</v>
@@ -1627,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="K5" s="3">
         <v>0.3</v>
@@ -1865,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="K7" s="3">
         <v>0.15</v>
@@ -1984,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0.2</v>
@@ -2103,7 +2112,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" s="3">
         <v>0.3</v>
@@ -2341,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K11" s="3">
         <v>0.15</v>
@@ -2460,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>0.2</v>
@@ -2579,7 +2588,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K13" s="3">
         <v>0.3</v>
@@ -3749,4 +3758,496 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A07E8E-FEEA-4C26-B5B2-FDE2FA39AFB6}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="3">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f>B2*10</f>
+        <v>100</v>
+      </c>
+      <c r="K2">
+        <f>F2+G2*J2</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="3">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="0">B3*10</f>
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K13" si="1">F3+G3*J3</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="3">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>6</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="3">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="3">
+        <v>3</v>
+      </c>
+      <c r="I5" s="3">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>30</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H7" s="3">
+        <v>30</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H8" s="3">
+        <v>30</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="3">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1.8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="3">
+        <v>30</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="3">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D10" s="3">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>50</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="3">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D11" s="3">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H11" s="3">
+        <v>50</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="H12" s="3">
+        <v>50</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="3">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="3">
+        <v>50</v>
+      </c>
+      <c r="I13" s="3">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A66379-EA50-48E5-B6A7-01C881D82C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF5F53-413D-4C6B-91E3-A58F63520154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1101,37 +1101,37 @@
   <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.796875" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="38.296875" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="38.25" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.09765625" customWidth="1"/>
-    <col min="15" max="15" width="17.09765625" customWidth="1"/>
-    <col min="17" max="17" width="19.796875" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="15" max="15" width="17.125" customWidth="1"/>
+    <col min="17" max="17" width="19.75" customWidth="1"/>
     <col min="18" max="18" width="19.5" customWidth="1"/>
     <col min="19" max="19" width="28" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="13.796875" customWidth="1"/>
+    <col min="22" max="22" width="13.75" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.796875" customWidth="1"/>
-    <col min="26" max="26" width="15.09765625" customWidth="1"/>
-    <col min="27" max="27" width="18.09765625" customWidth="1"/>
+    <col min="25" max="25" width="14.75" customWidth="1"/>
+    <col min="26" max="26" width="15.125" customWidth="1"/>
+    <col min="27" max="27" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:39" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>0.3</v>
       </c>
       <c r="H2" s="3">
-        <v>0.6</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>0.3</v>
       </c>
       <c r="H3" s="3">
-        <v>0.6</v>
+        <v>10</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>0.3</v>
       </c>
       <c r="H4" s="3">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>0.3</v>
       </c>
       <c r="H5" s="3">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -1726,7 +1726,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>0.3</v>
       </c>
       <c r="H6" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1845,7 +1845,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>0.3</v>
       </c>
       <c r="H7" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1964,7 +1964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>0.3</v>
       </c>
       <c r="H8" s="3">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>0.3</v>
       </c>
       <c r="H9" s="3">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>0.3</v>
       </c>
       <c r="H10" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>0.3</v>
       </c>
       <c r="H11" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -2440,7 +2440,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>0.3</v>
       </c>
       <c r="H12" s="3">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -2559,7 +2559,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>0.3</v>
       </c>
       <c r="H13" s="3">
-        <v>2.5</v>
+        <v>10</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -2693,21 +2693,21 @@
       <selection activeCell="F11" sqref="F11:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="27.59765625" customWidth="1"/>
-    <col min="7" max="7" width="16.796875" customWidth="1"/>
-    <col min="8" max="8" width="15.59765625" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="15.625" customWidth="1"/>
     <col min="9" max="9" width="15.5" customWidth="1"/>
-    <col min="10" max="10" width="22.296875" customWidth="1"/>
+    <col min="10" max="10" width="22.25" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="20.09765625" customWidth="1"/>
-    <col min="13" max="13" width="17.796875" customWidth="1"/>
-    <col min="14" max="14" width="18.296875" customWidth="1"/>
-    <col min="15" max="15" width="23.59765625" customWidth="1"/>
+    <col min="12" max="12" width="20.125" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="14" max="14" width="18.25" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2972,7 +2972,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>12</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>13</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>14</v>
       </c>
@@ -3412,7 +3412,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="F14" s="13">
         <f t="shared" ref="F14:O14" si="11">SUM(F2:F13)</f>
@@ -3455,7 +3455,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -3468,7 +3468,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E16" s="2" t="s">
         <v>92</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="2" t="s">
         <v>132</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>0.98599999999999999</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E18" s="2" t="s">
         <v>133</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="2" t="s">
         <v>134</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="2" t="s">
         <v>135</v>
       </c>
@@ -3623,7 +3623,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="2" t="s">
         <v>136</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
@@ -3676,7 +3676,7 @@
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="6" t="s">
         <v>138</v>
       </c>
@@ -3686,7 +3686,7 @@
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E24" s="2">
         <v>4</v>
       </c>
@@ -3703,7 +3703,7 @@
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E25" s="2">
         <v>3</v>
       </c>
@@ -3720,7 +3720,7 @@
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E26" s="2">
         <v>2</v>
       </c>
@@ -3737,7 +3737,7 @@
       <c r="I26" s="13"/>
       <c r="J26" s="13"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
       <c r="F27" s="13">
         <f>SUM(F24:F26)</f>
@@ -3762,15 +3762,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0A07E8E-FEEA-4C26-B5B2-FDE2FA39AFB6}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:I13"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -3801,8 +3801,11 @@
       <c r="K1" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="O1" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
@@ -3838,8 +3841,11 @@
         <f>F2+G2*J2</f>
         <v>10.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="O2" s="3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>52</v>
       </c>
@@ -3875,8 +3881,11 @@
         <f t="shared" ref="K3:K13" si="1">F3+G3*J3</f>
         <v>16.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="O3" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>53</v>
       </c>
@@ -3912,8 +3921,11 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="O4" s="3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>64</v>
       </c>
@@ -3949,8 +3961,11 @@
         <f t="shared" si="1"/>
         <v>33.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="O5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>54</v>
       </c>
@@ -3986,8 +4001,11 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="O6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>55</v>
       </c>
@@ -4023,8 +4041,11 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="O7" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>56</v>
       </c>
@@ -4060,8 +4081,11 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="O8" s="3">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>65</v>
       </c>
@@ -4097,8 +4121,11 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="O9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>57</v>
       </c>
@@ -4134,8 +4161,11 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="O10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>58</v>
       </c>
@@ -4171,8 +4201,11 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="O11" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>59</v>
       </c>
@@ -4208,8 +4241,11 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="O12" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>66</v>
       </c>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62FF5F53-413D-4C6B-91E3-A58F63520154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3173207-EC7C-420C-B192-16AE2B9BA715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="H2" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1273,7 @@
         <v>0.3</v>
       </c>
       <c r="H2" s="3">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0.3</v>
       </c>
       <c r="H3" s="3">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0.3</v>
       </c>
       <c r="H4" s="3">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0.3</v>
       </c>
       <c r="H5" s="3">
-        <v>10</v>
+        <v>0.6</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>0.3</v>
       </c>
       <c r="H6" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0.3</v>
       </c>
       <c r="H7" s="3">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0.3</v>
       </c>
       <c r="H8" s="3">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0.3</v>
       </c>
       <c r="H9" s="3">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0.3</v>
       </c>
       <c r="H10" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0.3</v>
       </c>
       <c r="H11" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0.3</v>
       </c>
       <c r="H12" s="3">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0.3</v>
       </c>
       <c r="H13" s="3">
-        <v>10</v>
+        <v>2.5</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
@@ -3765,7 +3765,7 @@
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3173207-EC7C-420C-B192-16AE2B9BA715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FED7886-9C26-4360-8A01-3B3D43BF3F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1749,7 +1749,7 @@
         <v>0.3</v>
       </c>
       <c r="H6" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
@@ -1868,7 +1868,7 @@
         <v>0.3</v>
       </c>
       <c r="H7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0.3</v>
       </c>
       <c r="H8" s="3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0.3</v>
       </c>
       <c r="H9" s="3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -2225,7 +2225,7 @@
         <v>0.3</v>
       </c>
       <c r="H10" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2344,7 +2344,7 @@
         <v>0.3</v>
       </c>
       <c r="H11" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -2463,7 +2463,7 @@
         <v>0.3</v>
       </c>
       <c r="H12" s="3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -2582,7 +2582,7 @@
         <v>0.3</v>
       </c>
       <c r="H13" s="3">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FED7886-9C26-4360-8A01-3B3D43BF3F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C24C04-8456-42EC-BDF7-795FF0FA998A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C24C04-8456-42EC-BDF7-795FF0FA998A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32323D43-B6A9-4A06-AD9B-29EE8789B796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1273,7 +1273,7 @@
         <v>0.3</v>
       </c>
       <c r="H2" s="3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
@@ -1392,7 +1392,7 @@
         <v>0.3</v>
       </c>
       <c r="H3" s="3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1511,7 +1511,7 @@
         <v>0.3</v>
       </c>
       <c r="H4" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>0.3</v>
       </c>
       <c r="H5" s="3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32323D43-B6A9-4A06-AD9B-29EE8789B796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D065651-CF35-4B7B-8025-C8222505DB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="3975" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1050" yWindow="4320" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1440,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y3">
         <v>0.20400000000000001</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y6">
         <v>0.23099999999999998</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="Y7">
         <v>0.11899999999999999</v>
@@ -2035,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="Y10">
         <v>3.3000000000000002E-2</v>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="Y11">
         <v>1.7000000000000001E-2</v>
@@ -2511,7 +2511,7 @@
         <v>0</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="Y12">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="Y13">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D065651-CF35-4B7B-8025-C8222505DB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F49769-AFE9-4D73-9839-855173D00606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1050" yWindow="4320" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -568,6 +568,18 @@
   </si>
   <si>
     <t>maxDam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionAbilType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionAbiltMaxLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollectionValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1098,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AM13"/>
+  <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AN1" sqref="AN1:AN1048576"/>
+      <selection activeCell="AP10" sqref="AP10:AP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1131,7 +1143,7 @@
     <col min="27" max="27" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1249,8 +1261,17 @@
       <c r="AM1" s="8" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AN1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1368,8 +1389,17 @@
       <c r="AM2" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AN2">
+        <v>11</v>
+      </c>
+      <c r="AO2">
+        <v>200</v>
+      </c>
+      <c r="AP2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1487,8 +1517,17 @@
       <c r="AM3" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AN3">
+        <v>11</v>
+      </c>
+      <c r="AO3">
+        <v>200</v>
+      </c>
+      <c r="AP3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1606,8 +1645,17 @@
       <c r="AM4" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="5" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AN4">
+        <v>11</v>
+      </c>
+      <c r="AO4">
+        <v>200</v>
+      </c>
+      <c r="AP4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1725,8 +1773,17 @@
       <c r="AM5" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AN5">
+        <v>11</v>
+      </c>
+      <c r="AO5">
+        <v>200</v>
+      </c>
+      <c r="AP5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1844,8 +1901,17 @@
       <c r="AM6" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AN6">
+        <v>11</v>
+      </c>
+      <c r="AO6">
+        <v>200</v>
+      </c>
+      <c r="AP6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1963,8 +2029,17 @@
       <c r="AM7" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AN7">
+        <v>11</v>
+      </c>
+      <c r="AO7">
+        <v>200</v>
+      </c>
+      <c r="AP7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2082,8 +2157,17 @@
       <c r="AM8" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:39" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AN8">
+        <v>11</v>
+      </c>
+      <c r="AO8">
+        <v>200</v>
+      </c>
+      <c r="AP8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2201,8 +2285,17 @@
       <c r="AM9" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN9">
+        <v>11</v>
+      </c>
+      <c r="AO9">
+        <v>200</v>
+      </c>
+      <c r="AP9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2320,8 +2413,17 @@
       <c r="AM10" s="2">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN10">
+        <v>11</v>
+      </c>
+      <c r="AO10">
+        <v>200</v>
+      </c>
+      <c r="AP10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2439,8 +2541,17 @@
       <c r="AM11" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN11">
+        <v>11</v>
+      </c>
+      <c r="AO11">
+        <v>200</v>
+      </c>
+      <c r="AP11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2558,8 +2669,17 @@
       <c r="AM12" s="2">
         <v>300</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AN12">
+        <v>11</v>
+      </c>
+      <c r="AO12">
+        <v>200</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2676,6 +2796,15 @@
       </c>
       <c r="AM13" s="2">
         <v>600</v>
+      </c>
+      <c r="AN13">
+        <v>11</v>
+      </c>
+      <c r="AO13">
+        <v>200</v>
+      </c>
+      <c r="AP13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F49769-AFE9-4D73-9839-855173D00606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3068CB87-BF7F-47BB-8338-FDC54F458690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="4320" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1395" yWindow="4665" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1112,8 +1112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AP10" sqref="AP10:AP13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1291,7 +1291,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
         <v>0.6</v>
@@ -1419,7 +1419,7 @@
         <v>10</v>
       </c>
       <c r="G3" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
         <v>0.6</v>
@@ -1547,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
         <v>0.5</v>
@@ -1675,7 +1675,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
         <v>0.5</v>
@@ -1803,7 +1803,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
         <v>3</v>
@@ -1931,7 +1931,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H7" s="3">
         <v>3</v>
@@ -2059,7 +2059,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
@@ -2187,7 +2187,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="3">
         <v>2</v>
@@ -2315,7 +2315,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>6</v>
@@ -2443,7 +2443,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
         <v>6</v>
@@ -2571,7 +2571,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>4</v>
@@ -2699,7 +2699,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>4</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3068CB87-BF7F-47BB-8338-FDC54F458690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE940F01-B741-4AB4-8C6C-9C9FFBE4D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1395" yWindow="4665" windowWidth="35220" windowHeight="13905" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -190,42 +190,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>직선상의 적을 베어버린다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>짧게베기2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짧게베기1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길게베기1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길게베기2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방의 적을 1번 벤다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근베기1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근처의 적에게 빠르게 접근하여 베어버린다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Slash0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -262,22 +230,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>짧게베기3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길게베기3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근베기2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근베기3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Slash3</t>
   </si>
   <si>
@@ -289,18 +241,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>짧게베기4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>길게베기4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근베기4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -580,6 +520,54 @@
   </si>
   <si>
     <t>CollectionValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌검 비기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발도술 비기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패검 비기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌검 제1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌검 제2형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발도술 제1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발도술 제2형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발도술 오의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패검 제1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패검 제2형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패검 오의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쾌검 오의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1113,7 +1101,7 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1217,58 +1205,58 @@
         <v>39</v>
       </c>
       <c r="Y1" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z1" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF1" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="Z1" s="8" t="s">
+      <c r="AG1" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="AA1" s="8" t="s">
+      <c r="AH1" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="AB1" s="8" t="s">
+      <c r="AI1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AK1" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="AC1" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="AD1" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AI1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AJ1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="AK1" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="AL1" s="8" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="AM1" s="8" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="AN1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="AO1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="AP1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1276,14 +1264,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D2" s="3"/>
       <c r="E2" s="3">
         <v>0</v>
       </c>
@@ -1381,7 +1367,7 @@
         <v>1</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AL2" s="2">
         <v>11</v>
@@ -1404,14 +1390,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -1509,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AL3" s="2">
         <v>11</v>
@@ -1532,14 +1516,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3">
         <v>2</v>
       </c>
@@ -1637,7 +1619,7 @@
         <v>1</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL4" s="2">
         <v>11</v>
@@ -1660,14 +1642,12 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>48</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3">
         <v>3</v>
       </c>
@@ -1714,10 +1694,10 @@
         <v>31</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>40</v>
@@ -1726,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -1765,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AL5" s="2">
         <v>11</v>
@@ -1788,14 +1768,12 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="D6" s="3"/>
       <c r="E6" s="3">
         <v>4</v>
       </c>
@@ -1893,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AL6" s="2">
         <v>11</v>
@@ -1916,14 +1894,12 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D7" s="3"/>
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -2021,7 +1997,7 @@
         <v>1</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AL7" s="2">
         <v>11</v>
@@ -2044,14 +2020,12 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3">
         <v>6</v>
       </c>
@@ -2149,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL8" s="2">
         <v>11</v>
@@ -2172,14 +2146,12 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>42</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3">
         <v>7</v>
       </c>
@@ -2226,10 +2198,10 @@
         <v>31</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="V9" s="9" t="s">
         <v>41</v>
@@ -2238,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="9" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2277,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AL9" s="2">
         <v>11</v>
@@ -2300,14 +2272,12 @@
         <v>8</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="D10" s="3"/>
       <c r="E10" s="3">
         <v>8</v>
       </c>
@@ -2357,10 +2327,10 @@
         <v>27</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W10" s="2">
         <v>0</v>
@@ -2405,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="AL10" s="2">
         <v>11</v>
@@ -2428,14 +2398,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D11" s="3"/>
       <c r="E11" s="3">
         <v>9</v>
       </c>
@@ -2485,10 +2453,10 @@
         <v>28</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W11" s="2">
         <v>0</v>
@@ -2533,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="AL11" s="2">
         <v>11</v>
@@ -2556,14 +2524,12 @@
         <v>10</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D12" s="3"/>
       <c r="E12" s="3">
         <v>10</v>
       </c>
@@ -2613,10 +2579,10 @@
         <v>29</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="V12" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W12" s="2">
         <v>0</v>
@@ -2661,7 +2627,7 @@
         <v>1</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="AL12" s="2">
         <v>11</v>
@@ -2684,14 +2650,12 @@
         <v>11</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="D13" s="3"/>
       <c r="E13" s="3">
         <v>11</v>
       </c>
@@ -2738,19 +2702,19 @@
         <v>31</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="V13" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W13" s="2">
         <v>0</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="Y13">
         <v>0</v>
@@ -2789,7 +2753,7 @@
         <v>1</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="AL13" s="2">
         <v>11</v>
@@ -2838,47 +2802,47 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -2886,10 +2850,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -2941,10 +2905,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2996,10 +2960,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -3051,10 +3015,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -3106,10 +3070,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3161,10 +3125,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3216,10 +3180,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
@@ -3271,10 +3235,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="D9" s="2">
         <v>2</v>
@@ -3326,10 +3290,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -3381,10 +3345,10 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -3436,10 +3400,10 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -3491,10 +3455,10 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -3599,7 +3563,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E16" s="2" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F16" s="13">
         <v>0.66</v>
@@ -3634,7 +3598,7 @@
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="F17" s="13">
         <v>0.34</v>
@@ -3669,7 +3633,7 @@
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E18" s="2" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="F18" s="13">
         <v>0</v>
@@ -3704,7 +3668,7 @@
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="F19" s="13">
         <v>0</v>
@@ -3739,7 +3703,7 @@
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -3754,7 +3718,7 @@
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="F21" s="13">
         <f>SUM(F16:F19)</f>
@@ -3807,7 +3771,7 @@
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="6" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
@@ -3925,10 +3889,10 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="O1" s="3">
         <v>0.7</v>
@@ -3936,7 +3900,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="B2" s="3">
         <v>10</v>
@@ -3976,7 +3940,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B3" s="3">
         <v>10</v>
@@ -4016,7 +3980,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3">
         <v>10</v>
@@ -4056,7 +4020,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B5" s="3">
         <v>10</v>
@@ -4096,7 +4060,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
@@ -4136,7 +4100,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B7" s="3">
         <v>10</v>
@@ -4176,7 +4140,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3">
         <v>10</v>
@@ -4216,7 +4180,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B9" s="3">
         <v>10</v>
@@ -4256,7 +4220,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3">
         <v>10</v>
@@ -4296,7 +4260,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B11" s="3">
         <v>10</v>
@@ -4336,7 +4300,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
@@ -4376,7 +4340,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3">
         <v>10</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE940F01-B741-4AB4-8C6C-9C9FFBE4D55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97AA0AE-7209-4FEC-AA56-D75EDEE88534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K6" s="3">
         <v>0.1</v>
@@ -1916,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" s="3">
         <v>0.15</v>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0.2</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K9" s="3">
         <v>0.3</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10" s="3">
         <v>0.1</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K11" s="3">
         <v>0.15</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K12" s="3">
         <v>0.2</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K13" s="3">
         <v>0.3</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97AA0AE-7209-4FEC-AA56-D75EDEE88534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAB11CF-95F9-4456-B79C-37BB099609DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1101,7 +1101,7 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2042,7 +2042,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K8" s="3">
         <v>0.2</v>
@@ -2168,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K9" s="3">
         <v>0.3</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAB11CF-95F9-4456-B79C-37BB099609DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8A244A-1C19-4683-AF4F-2517B631C9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="140">
   <si>
     <t>id</t>
   </si>
@@ -467,34 +467,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>일반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>레어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유니트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>등급별확률</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HasEffectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -523,51 +499,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쾌검 비기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발도술 비기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패검 비기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쾌검 제1형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쾌검 제2형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발도술 제1형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발도술 제2형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>발도술 오의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패검 제1형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패검 제2형</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>패검 오의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쾌검 오의</t>
+    <t>전방베기 2형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방베기 오의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선베기 2형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선베기 오의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전베기 2형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전베기 오의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전베기 1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선베기 1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방베기 1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방베기 3형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선베기 3형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전베기 3형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방을 벤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변 적들을 벤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선으로 길게 적을 벤다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -770,9 +758,6 @@
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -1101,7 +1086,7 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1129,6 +1114,7 @@
     <col min="25" max="25" width="14.75" customWidth="1"/>
     <col min="26" max="26" width="15.125" customWidth="1"/>
     <col min="27" max="27" width="18.125" customWidth="1"/>
+    <col min="41" max="41" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
@@ -1244,19 +1230,19 @@
         <v>76</v>
       </c>
       <c r="AL1" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP1" t="s">
         <v>124</v>
-      </c>
-      <c r="AM1" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1267,9 +1253,11 @@
         <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="E2" s="3">
         <v>0</v>
       </c>
@@ -1379,7 +1367,7 @@
         <v>11</v>
       </c>
       <c r="AO2">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="AP2">
         <v>1</v>
@@ -1393,9 +1381,11 @@
         <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="E3" s="3">
         <v>1</v>
       </c>
@@ -1505,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="AO3">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="AP3">
         <v>1</v>
@@ -1519,9 +1509,11 @@
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="3"/>
+        <v>134</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
@@ -1541,7 +1533,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L4" s="3">
         <v>3</v>
@@ -1631,7 +1623,7 @@
         <v>11</v>
       </c>
       <c r="AO4">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="AP4">
         <v>1</v>
@@ -1645,9 +1637,11 @@
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D5" s="3"/>
+        <v>126</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>137</v>
+      </c>
       <c r="E5" s="3">
         <v>3</v>
       </c>
@@ -1664,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="K5" s="3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L5" s="3">
         <v>3</v>
@@ -1712,31 +1706,31 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>1.2E-4</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="AA5">
-        <v>1.7999999999999998E-4</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="AB5">
-        <v>2.4000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AC5">
-        <v>2.9999999999999997E-4</v>
+        <v>3.6000000000000002E-4</v>
       </c>
       <c r="AD5">
-        <v>5.9999999999999995E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AE5">
-        <v>1.1999999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="AF5">
-        <v>1.8E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="AG5">
-        <v>2.3999999999999998E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AH5">
-        <v>3.0000000000000001E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="AI5" s="2">
         <v>4</v>
@@ -1757,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="AO5">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="AP5">
         <v>1</v>
@@ -1771,9 +1765,11 @@
         <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E6" s="3">
         <v>4</v>
       </c>
@@ -1784,13 +1780,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" s="3">
         <v>0.1</v>
@@ -1883,7 +1879,7 @@
         <v>11</v>
       </c>
       <c r="AO6">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AP6">
         <v>1</v>
@@ -1897,9 +1893,11 @@
         <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="3"/>
+        <v>127</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E7" s="3">
         <v>5</v>
       </c>
@@ -1910,13 +1908,13 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K7" s="3">
         <v>0.15</v>
@@ -2009,7 +2007,7 @@
         <v>11</v>
       </c>
       <c r="AO7">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AP7">
         <v>1</v>
@@ -2023,9 +2021,11 @@
         <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="D8" s="3"/>
+        <v>135</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E8" s="3">
         <v>6</v>
       </c>
@@ -2036,16 +2036,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="K8" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L8" s="3">
         <v>30</v>
@@ -2135,7 +2135,7 @@
         <v>11</v>
       </c>
       <c r="AO8">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="AP8">
         <v>1</v>
@@ -2149,9 +2149,11 @@
         <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="E9" s="3">
         <v>7</v>
       </c>
@@ -2162,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K9" s="3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="3">
         <v>30</v>
@@ -2216,31 +2218,31 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>6.9999999999999994E-5</v>
+        <v>1.2999999999999999E-4</v>
       </c>
       <c r="AA9">
-        <v>1.0499999999999999E-4</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="AB9">
-        <v>1.3999999999999999E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="AC9">
-        <v>1.75E-4</v>
+        <v>3.1E-4</v>
       </c>
       <c r="AD9">
-        <v>3.5E-4</v>
+        <v>3.6999999999999999E-4</v>
       </c>
       <c r="AE9">
-        <v>6.9999999999999999E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AF9">
-        <v>1.0499999999999999E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="AG9">
         <v>1.4E-3</v>
       </c>
       <c r="AH9">
-        <v>1.7499999999999998E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="AI9" s="2">
         <v>4</v>
@@ -2261,7 +2263,7 @@
         <v>11</v>
       </c>
       <c r="AO9">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="AP9">
         <v>1</v>
@@ -2275,9 +2277,11 @@
         <v>49</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>131</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="E10" s="3">
         <v>8</v>
       </c>
@@ -2288,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K10" s="3">
         <v>0.1</v>
@@ -2387,7 +2391,7 @@
         <v>11</v>
       </c>
       <c r="AO10">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AP10">
         <v>1</v>
@@ -2401,9 +2405,11 @@
         <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" s="3"/>
+        <v>129</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="E11" s="3">
         <v>9</v>
       </c>
@@ -2414,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K11" s="3">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="L11" s="3">
         <v>50</v>
@@ -2513,7 +2519,7 @@
         <v>11</v>
       </c>
       <c r="AO11">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AP11">
         <v>1</v>
@@ -2527,9 +2533,11 @@
         <v>51</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="3"/>
+        <v>136</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="E12" s="3">
         <v>10</v>
       </c>
@@ -2540,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="K12" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L12" s="3">
         <v>50</v>
@@ -2639,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="AO12">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="AP12">
         <v>1</v>
@@ -2653,9 +2661,11 @@
         <v>54</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="E13" s="3">
         <v>11</v>
       </c>
@@ -2666,16 +2676,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="K13" s="3">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="L13" s="3">
         <v>50</v>
@@ -2720,31 +2730,31 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>1.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="AA13">
-        <v>1.4999999999999999E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="AB13">
-        <v>2.0000000000000002E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="AC13">
-        <v>2.5000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="AD13">
-        <v>5.0000000000000002E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="AE13">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="AF13">
-        <v>1.5000000000000001E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="AG13">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="AH13">
-        <v>2.5000000000000001E-4</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="AI13" s="2">
         <v>4</v>
@@ -2765,7 +2775,7 @@
         <v>11</v>
       </c>
       <c r="AO13">
-        <v>200</v>
+        <v>1</v>
       </c>
       <c r="AP13">
         <v>1</v>
@@ -2780,18 +2790,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DDD430D-3C7E-404D-942C-275A2BE9BF6F}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11:O13"/>
+      <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="15.625" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
     <col min="10" max="10" width="22.25" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="20.125" customWidth="1"/>
@@ -2802,7 +2812,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s">
         <v>81</v>
@@ -2845,7 +2855,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2858,49 +2868,38 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="12">
-        <f t="shared" ref="F2:O2" si="0">F16*$F$24</f>
+      <c r="F2" s="2">
         <v>0.39600000000000002</v>
       </c>
-      <c r="G2" s="12">
-        <f t="shared" si="0"/>
+      <c r="G2" s="2">
         <v>0.31740000000000002</v>
       </c>
-      <c r="H2" s="12">
-        <f t="shared" si="0"/>
+      <c r="H2" s="2">
         <v>0.26285999999999998</v>
       </c>
-      <c r="I2" s="12">
-        <f t="shared" si="0"/>
+      <c r="I2" s="2">
         <v>0.22631999999999997</v>
       </c>
-      <c r="J2" s="12">
-        <f t="shared" si="0"/>
+      <c r="J2" s="2">
         <v>0.19889999999999999</v>
       </c>
-      <c r="K2" s="12">
-        <f t="shared" si="0"/>
+      <c r="K2" s="2">
         <v>0.17639999999999997</v>
       </c>
-      <c r="L2" s="12">
-        <f t="shared" si="0"/>
+      <c r="L2" s="2">
         <v>0.1452</v>
       </c>
-      <c r="M2" s="12">
-        <f t="shared" si="0"/>
+      <c r="M2" s="2">
         <v>0.11399999999999999</v>
       </c>
-      <c r="N2" s="12">
-        <f t="shared" si="0"/>
+      <c r="N2" s="2">
         <v>8.2799999999999999E-2</v>
       </c>
-      <c r="O2" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2913,49 +2912,38 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="12">
-        <f t="shared" ref="F3:O3" si="1">F16*$F$25</f>
-        <v>0.23099999999999998</v>
-      </c>
-      <c r="G3" s="12">
-        <f t="shared" si="1"/>
-        <v>0.18515000000000001</v>
-      </c>
-      <c r="H3" s="12">
-        <f t="shared" si="1"/>
-        <v>0.153335</v>
-      </c>
-      <c r="I3" s="12">
-        <f t="shared" si="1"/>
-        <v>0.13201999999999997</v>
-      </c>
-      <c r="J3" s="12">
-        <f t="shared" si="1"/>
-        <v>0.116025</v>
-      </c>
-      <c r="K3" s="12">
-        <f t="shared" si="1"/>
-        <v>0.10289999999999999</v>
-      </c>
-      <c r="L3" s="12">
-        <f t="shared" si="1"/>
-        <v>8.4699999999999998E-2</v>
-      </c>
-      <c r="M3" s="12">
-        <f t="shared" si="1"/>
-        <v>6.649999999999999E-2</v>
-      </c>
-      <c r="N3" s="12">
-        <f t="shared" si="1"/>
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="O3" s="12">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="F3" s="2">
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.28187999999999996</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.33576</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.37163999999999997</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0.39840000000000003</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0.59160000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2968,101 +2956,79 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="12">
-        <f t="shared" ref="F4:O4" si="2">F16*$F$26</f>
-        <v>3.3000000000000002E-2</v>
-      </c>
-      <c r="G4" s="12">
-        <f t="shared" si="2"/>
-        <v>2.6450000000000001E-2</v>
-      </c>
-      <c r="H4" s="12">
-        <f t="shared" si="2"/>
-        <v>2.1905000000000001E-2</v>
-      </c>
-      <c r="I4" s="12">
-        <f t="shared" si="2"/>
-        <v>1.8860000000000002E-2</v>
-      </c>
-      <c r="J4" s="12">
-        <f t="shared" si="2"/>
-        <v>1.6575000000000003E-2</v>
-      </c>
-      <c r="K4" s="12">
-        <f>K16*$F$26</f>
-        <v>1.47E-2</v>
-      </c>
-      <c r="L4" s="12">
-        <f t="shared" si="2"/>
-        <v>1.21E-2</v>
-      </c>
-      <c r="M4" s="12">
-        <f t="shared" si="2"/>
-        <v>9.5000000000000015E-3</v>
-      </c>
-      <c r="N4" s="12">
-        <f t="shared" si="2"/>
-        <v>6.9000000000000008E-3</v>
-      </c>
-      <c r="O4" s="12">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L4" s="2">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="M4" s="2">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="N4" s="2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="O4" s="2">
+        <v>5.3999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="13">
-        <f t="shared" ref="F5:O5" si="3">F17*$F$24</f>
-        <v>0.20400000000000001</v>
-      </c>
-      <c r="G5" s="13">
-        <f t="shared" si="3"/>
-        <v>0.28187999999999996</v>
-      </c>
-      <c r="H5" s="13">
-        <f t="shared" si="3"/>
-        <v>0.33576</v>
-      </c>
-      <c r="I5" s="13">
-        <f t="shared" si="3"/>
-        <v>0.37163999999999997</v>
-      </c>
-      <c r="J5" s="13">
-        <f t="shared" si="3"/>
-        <v>0.39840000000000003</v>
-      </c>
-      <c r="K5" s="13">
-        <f t="shared" si="3"/>
-        <v>0.42</v>
-      </c>
-      <c r="L5" s="13">
-        <f t="shared" si="3"/>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="M5" s="13">
-        <f t="shared" si="3"/>
-        <v>0.48</v>
-      </c>
-      <c r="N5" s="13">
-        <f t="shared" si="3"/>
-        <v>0.51</v>
-      </c>
-      <c r="O5" s="13">
-        <f t="shared" si="3"/>
-        <v>0.59160000000000001</v>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1.5E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2E-3</v>
+      </c>
+      <c r="O5" s="2">
+        <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -3078,46 +3044,35 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="13">
-        <f t="shared" ref="F6:O6" si="4">F17*$F$25</f>
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="G6" s="13">
-        <f t="shared" si="4"/>
-        <v>0.16442999999999999</v>
-      </c>
-      <c r="H6" s="13">
-        <f t="shared" si="4"/>
-        <v>0.19585999999999998</v>
-      </c>
-      <c r="I6" s="13">
-        <f t="shared" si="4"/>
-        <v>0.21678999999999998</v>
-      </c>
-      <c r="J6" s="13">
-        <f t="shared" si="4"/>
-        <v>0.2324</v>
-      </c>
-      <c r="K6" s="13">
-        <f t="shared" si="4"/>
-        <v>0.24499999999999997</v>
-      </c>
-      <c r="L6" s="13">
-        <f t="shared" si="4"/>
-        <v>0.26249999999999996</v>
-      </c>
-      <c r="M6" s="13">
-        <f t="shared" si="4"/>
-        <v>0.27999999999999997</v>
-      </c>
-      <c r="N6" s="13">
-        <f t="shared" si="4"/>
-        <v>0.29749999999999999</v>
-      </c>
-      <c r="O6" s="13">
-        <f t="shared" si="4"/>
-        <v>0.34509999999999996</v>
+      <c r="F6">
+        <v>0.23099999999999998</v>
+      </c>
+      <c r="G6">
+        <v>0.18515000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.153335</v>
+      </c>
+      <c r="I6">
+        <v>0.13201999999999997</v>
+      </c>
+      <c r="J6">
+        <v>0.116025</v>
+      </c>
+      <c r="K6">
+        <v>0.10289999999999999</v>
+      </c>
+      <c r="L6">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="M6">
+        <v>6.649999999999999E-2</v>
+      </c>
+      <c r="N6">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -3133,159 +3088,126 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="13">
-        <f t="shared" ref="F7:O7" si="5">F17*$F$26</f>
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="G7" s="13">
-        <f t="shared" si="5"/>
-        <v>2.349E-2</v>
-      </c>
-      <c r="H7" s="13">
-        <f t="shared" si="5"/>
-        <v>2.7980000000000001E-2</v>
-      </c>
-      <c r="I7" s="13">
-        <f t="shared" si="5"/>
-        <v>3.0969999999999998E-2</v>
-      </c>
-      <c r="J7" s="13">
-        <f t="shared" si="5"/>
-        <v>3.32E-2</v>
-      </c>
-      <c r="K7" s="13">
-        <f t="shared" si="5"/>
-        <v>3.4999999999999996E-2</v>
-      </c>
-      <c r="L7" s="13">
-        <f t="shared" si="5"/>
-        <v>3.7500000000000006E-2</v>
-      </c>
-      <c r="M7" s="13">
-        <f t="shared" si="5"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="N7" s="13">
-        <f t="shared" si="5"/>
-        <v>4.2500000000000003E-2</v>
-      </c>
-      <c r="O7" s="13">
-        <f t="shared" si="5"/>
-        <v>4.9300000000000004E-2</v>
+      <c r="F7">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G7">
+        <v>0.16442999999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.19585999999999998</v>
+      </c>
+      <c r="I7">
+        <v>0.21678999999999998</v>
+      </c>
+      <c r="J7">
+        <v>0.2324</v>
+      </c>
+      <c r="K7">
+        <v>0.24499999999999997</v>
+      </c>
+      <c r="L7">
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="M7">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="N7">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.34509999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>105</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>106</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="12">
-        <f t="shared" ref="F8:O8" si="6">F18*$F$24</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="12">
-        <f t="shared" si="6"/>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="H8" s="12">
-        <f t="shared" si="6"/>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="I8" s="12">
-        <f t="shared" si="6"/>
-        <v>1.8E-3</v>
-      </c>
-      <c r="J8" s="12">
-        <f t="shared" si="6"/>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="K8" s="12">
-        <f t="shared" si="6"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="L8" s="12">
-        <f t="shared" si="6"/>
-        <v>3.5999999999999999E-3</v>
-      </c>
-      <c r="M8" s="12">
-        <f t="shared" si="6"/>
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="N8" s="12">
-        <f t="shared" si="6"/>
-        <v>4.7999999999999996E-3</v>
-      </c>
-      <c r="O8" s="12">
-        <f t="shared" si="6"/>
-        <v>5.3999999999999994E-3</v>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>3.5E-4</v>
+      </c>
+      <c r="H8">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I8">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="J8">
+        <v>1.4E-3</v>
+      </c>
+      <c r="K8">
+        <v>1.7499999999999998E-3</v>
+      </c>
+      <c r="L8">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M8">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="N8">
+        <v>2.8E-3</v>
+      </c>
+      <c r="O8">
+        <v>3.1499999999999996E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="12">
-        <f t="shared" ref="F9:O9" si="7">F18*$F$25</f>
-        <v>0</v>
-      </c>
-      <c r="G9" s="12">
-        <f t="shared" si="7"/>
-        <v>3.5E-4</v>
-      </c>
-      <c r="H9" s="12">
-        <f t="shared" si="7"/>
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="I9" s="12">
-        <f t="shared" si="7"/>
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="J9" s="12">
-        <f t="shared" si="7"/>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1.2999999999999999E-4</v>
+      </c>
+      <c r="H9">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="I9">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="J9">
+        <v>3.1E-4</v>
+      </c>
+      <c r="K9">
+        <v>3.6999999999999999E-4</v>
+      </c>
+      <c r="L9">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M9">
+        <v>1E-3</v>
+      </c>
+      <c r="N9">
         <v>1.4E-3</v>
       </c>
-      <c r="K9" s="12">
-        <f t="shared" si="7"/>
-        <v>1.7499999999999998E-3</v>
-      </c>
-      <c r="L9" s="12">
-        <f t="shared" si="7"/>
-        <v>2.0999999999999999E-3</v>
-      </c>
-      <c r="M9" s="12">
-        <f t="shared" si="7"/>
-        <v>2.4499999999999999E-3</v>
-      </c>
-      <c r="N9" s="12">
-        <f t="shared" si="7"/>
-        <v>2.8E-3</v>
-      </c>
-      <c r="O9" s="12">
-        <f t="shared" si="7"/>
-        <v>3.1499999999999996E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O9">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3298,553 +3220,734 @@
       <c r="D10" s="2">
         <v>2</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="12">
-        <f t="shared" ref="F10:O10" si="8">F18*$F$26</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" si="8"/>
+      <c r="F10" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2.6450000000000001E-2</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.1905000000000001E-2</v>
+      </c>
+      <c r="I10" s="2">
+        <v>1.8860000000000002E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.6575000000000003E-2</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.21E-2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>9.5000000000000015E-3</v>
+      </c>
+      <c r="N10" s="2">
+        <v>6.9000000000000008E-3</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2.349E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2.7980000000000001E-2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>3.0969999999999998E-2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3.32E-2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="N11" s="2">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="O11" s="2">
+        <v>4.9300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="2">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="H10" s="12">
-        <f t="shared" si="8"/>
+      <c r="H12" s="2">
         <v>1E-4</v>
       </c>
-      <c r="I10" s="12">
-        <f t="shared" si="8"/>
+      <c r="I12" s="2">
         <v>1.5000000000000001E-4</v>
       </c>
-      <c r="J10" s="12">
-        <f t="shared" si="8"/>
+      <c r="J12" s="2">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="K10" s="12">
-        <f t="shared" si="8"/>
+      <c r="K12" s="2">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="L10" s="12">
-        <f t="shared" si="8"/>
+      <c r="L12" s="2">
         <v>3.0000000000000003E-4</v>
       </c>
-      <c r="M10" s="12">
-        <f t="shared" si="8"/>
+      <c r="M12" s="2">
         <v>3.5000000000000005E-4</v>
       </c>
-      <c r="N10" s="12">
-        <f t="shared" si="8"/>
+      <c r="N12" s="2">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="O10" s="12">
-        <f t="shared" si="8"/>
+      <c r="O12" s="2">
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D11">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D13" s="2">
         <v>3</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="13">
-        <f t="shared" ref="F11:O11" si="9">F19*$F$24</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <f t="shared" si="9"/>
-        <v>1.2E-4</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="9"/>
-        <v>1.7999999999999998E-4</v>
-      </c>
-      <c r="I11" s="13">
-        <f t="shared" si="9"/>
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="J11" s="13">
-        <f>J19*$F$24</f>
+      <c r="F13" s="2">
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="I13" s="2">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M13" s="2">
         <v>2.9999999999999997E-4</v>
       </c>
-      <c r="K11" s="13">
-        <f>K19*$F$24</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="L11" s="13">
-        <f>L19*$F$24</f>
-        <v>1.1999999999999999E-3</v>
-      </c>
-      <c r="M11" s="13">
-        <f t="shared" si="9"/>
-        <v>1.8E-3</v>
-      </c>
-      <c r="N11" s="13">
-        <f t="shared" si="9"/>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="O11" s="13">
-        <f t="shared" si="9"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="13">
-        <f t="shared" ref="F12:O12" si="10">F19*$F$25</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <f t="shared" si="10"/>
-        <v>6.9999999999999994E-5</v>
-      </c>
-      <c r="H12" s="13">
-        <f>H19*$F$25</f>
-        <v>1.0499999999999999E-4</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="10"/>
-        <v>1.3999999999999999E-4</v>
-      </c>
-      <c r="J12" s="13">
-        <f>J19*$F$25</f>
-        <v>1.75E-4</v>
-      </c>
-      <c r="K12" s="13">
-        <f>K19*$F$25</f>
-        <v>3.5E-4</v>
-      </c>
-      <c r="L12" s="13">
-        <f>L19*$F$25</f>
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="M12" s="13">
-        <f t="shared" si="10"/>
-        <v>1.0499999999999999E-3</v>
-      </c>
-      <c r="N12" s="13">
-        <f t="shared" si="10"/>
-        <v>1.4E-3</v>
-      </c>
-      <c r="O12" s="13">
-        <f t="shared" si="10"/>
-        <v>1.7499999999999998E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="13">
-        <f>F19*$F$26</f>
-        <v>0</v>
-      </c>
-      <c r="G13" s="13">
-        <f>G19*$F$26</f>
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="H13" s="13">
-        <f>H19*$F$26</f>
-        <v>1.4999999999999999E-5</v>
-      </c>
-      <c r="I13" s="13">
-        <f>I19*$F$26</f>
-        <v>2.0000000000000002E-5</v>
-      </c>
-      <c r="J13" s="13">
-        <f>J19*F26</f>
-        <v>2.5000000000000001E-5</v>
-      </c>
-      <c r="K13" s="13">
-        <f>K19*$F$26</f>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="L13" s="13">
-        <f>L19*$F$26</f>
-        <v>1E-4</v>
-      </c>
-      <c r="M13" s="13">
-        <f>M19*$F$26</f>
-        <v>1.5000000000000001E-4</v>
-      </c>
-      <c r="N13" s="13">
-        <f>N19*$F$26</f>
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="O13" s="13">
-        <f>O19*$F$26</f>
-        <v>2.5000000000000001E-4</v>
+      <c r="N13" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O13" s="2">
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
-      <c r="F14" s="13">
-        <f t="shared" ref="F14:O14" si="11">SUM(F2:F13)</f>
-        <v>1</v>
-      </c>
-      <c r="G14" s="13">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="11"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="J14" s="13">
-        <f t="shared" si="11"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="K14" s="13">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="L14" s="13">
-        <f t="shared" si="11"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="M14" s="13">
-        <f t="shared" si="11"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="N14" s="13">
-        <f t="shared" si="11"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="O14" s="13">
-        <f t="shared" si="11"/>
-        <v>0.99999999999999989</v>
+      <c r="F14" s="12">
+        <f>SUM(F2:F13)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="12">
+        <f>SUM(G2:G13)</f>
+        <v>1.00013</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:O14" si="0">SUM(H2:H13)</f>
+        <v>1.0001599999999999</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.0001899999999999</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1.0002200000000001</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.99996999999999991</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>0.99969999999999981</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0.9997999999999998</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>0.99979999999999991</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999978</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0.66</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="H16" s="13">
-        <v>0.43809999999999999</v>
-      </c>
-      <c r="I16" s="13">
-        <v>0.37719999999999998</v>
-      </c>
-      <c r="J16" s="13">
-        <v>0.33150000000000002</v>
-      </c>
-      <c r="K16" s="13">
-        <v>0.29399999999999998</v>
-      </c>
-      <c r="L16" s="13">
-        <v>0.24199999999999999</v>
-      </c>
-      <c r="M16" s="13">
-        <v>0.19</v>
-      </c>
-      <c r="N16" s="13">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F17" s="13">
-        <v>0.34</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0.4698</v>
-      </c>
-      <c r="H17" s="13">
-        <v>0.55959999999999999</v>
-      </c>
-      <c r="I17" s="13">
-        <v>0.61939999999999995</v>
-      </c>
-      <c r="J17" s="13">
-        <v>0.66400000000000003</v>
-      </c>
-      <c r="K17" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="L17" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="M17" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="N17" s="13">
-        <v>0.85</v>
-      </c>
-      <c r="O17" s="13">
-        <v>0.98599999999999999</v>
-      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="H18" s="13">
-        <v>2E-3</v>
-      </c>
-      <c r="I18" s="13">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J18" s="13">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="K18" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="L18" s="13">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="M18" s="13">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="N18" s="13">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="O18" s="13">
-        <v>8.9999999999999993E-3</v>
-      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E19" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" s="13">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H19" s="13">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I19" s="13">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="J19" s="13">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="K19" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="L19" s="13">
-        <v>2E-3</v>
-      </c>
-      <c r="M19" s="13">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="N19" s="13">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="O19" s="13">
-        <v>5.0000000000000001E-3</v>
-      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
     </row>
     <row r="20" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E20" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
     </row>
     <row r="21" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E21" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="F21" s="13">
-        <f>SUM(F16:F19)</f>
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
-        <f t="shared" ref="G21:O21" si="12">SUM(G16:G19)</f>
-        <v>1</v>
-      </c>
-      <c r="H21" s="13">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="I21" s="13">
-        <f t="shared" si="12"/>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="J21" s="13">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="K21" s="13">
-        <f>SUM(K16:K19)</f>
-        <v>1</v>
-      </c>
-      <c r="L21" s="13">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="M21" s="13">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="N21" s="13">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="O21" s="13">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
     </row>
     <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E24" s="2">
-        <v>4</v>
-      </c>
-      <c r="F24" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="G24" s="13">
-        <f>F24*$G$27</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="H24" s="14">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E25" s="2">
-        <v>3</v>
-      </c>
-      <c r="F25" s="13">
-        <v>0.35</v>
-      </c>
-      <c r="G25" s="13">
-        <f>F25*$G$27</f>
-        <v>3.5E-4</v>
-      </c>
-      <c r="H25" s="14">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="G26" s="13">
-        <f>F26*$G$27</f>
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="H26" s="14">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
-      <c r="F27" s="13">
-        <f>SUM(F24:F26)</f>
-        <v>1</v>
-      </c>
-      <c r="G27" s="13">
-        <v>1E-3</v>
-      </c>
-      <c r="H27" s="14">
-        <f>SUM(H24:H26)</f>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="2">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0.31740000000000002</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.26285999999999998</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0.22631999999999997</v>
+      </c>
+      <c r="J34" s="2">
+        <v>0.19889999999999999</v>
+      </c>
+      <c r="K34" s="2">
+        <v>0.17639999999999997</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.1452</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0.11399999999999999</v>
+      </c>
+      <c r="N34" s="2">
+        <v>8.2799999999999999E-2</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="2">
+        <v>0.20400000000000001</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.28187999999999996</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.33576</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.37163999999999997</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0.39840000000000003</v>
+      </c>
+      <c r="K35" s="2">
+        <v>0.42</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.48</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0.59160000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="H36" s="2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="J36" s="2">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="K36" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="L36" s="2">
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="M36" s="2">
+        <v>4.1999999999999997E-3</v>
+      </c>
+      <c r="N36" s="2">
+        <v>4.7999999999999996E-3</v>
+      </c>
+      <c r="O36" s="2">
+        <v>5.3999999999999994E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="2">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <v>1.2E-4</v>
+      </c>
+      <c r="H37" s="2">
+        <v>1.7999999999999998E-4</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="J37" s="2">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="K37" s="2">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="L37" s="2">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="M37" s="2">
+        <v>1.8E-3</v>
+      </c>
+      <c r="N37" s="2">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="O37" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <v>0.23099999999999998</v>
+      </c>
+      <c r="G38">
+        <v>0.18515000000000001</v>
+      </c>
+      <c r="H38">
+        <v>0.153335</v>
+      </c>
+      <c r="I38">
+        <v>0.13201999999999997</v>
+      </c>
+      <c r="J38">
+        <v>0.116025</v>
+      </c>
+      <c r="K38">
+        <v>0.10289999999999999</v>
+      </c>
+      <c r="L38">
+        <v>8.4699999999999998E-2</v>
+      </c>
+      <c r="M38">
+        <v>6.649999999999999E-2</v>
+      </c>
+      <c r="N38">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.16442999999999999</v>
+      </c>
+      <c r="H39">
+        <v>0.19585999999999998</v>
+      </c>
+      <c r="I39">
+        <v>0.21678999999999998</v>
+      </c>
+      <c r="J39">
+        <v>0.2324</v>
+      </c>
+      <c r="K39">
+        <v>0.24499999999999997</v>
+      </c>
+      <c r="L39">
+        <v>0.26249999999999996</v>
+      </c>
+      <c r="M39">
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="N39">
+        <v>0.29749999999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.34509999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>3.5E-4</v>
+      </c>
+      <c r="H40">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="I40">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="J40">
+        <v>1.4E-3</v>
+      </c>
+      <c r="K40">
+        <v>1.7499999999999998E-3</v>
+      </c>
+      <c r="L40">
+        <v>2.0999999999999999E-3</v>
+      </c>
+      <c r="M40">
+        <v>2.4499999999999999E-3</v>
+      </c>
+      <c r="N40">
+        <v>2.8E-3</v>
+      </c>
+      <c r="O40">
+        <v>3.1499999999999996E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>6.9999999999999994E-5</v>
+      </c>
+      <c r="H41">
+        <v>1.0499999999999999E-4</v>
+      </c>
+      <c r="I41">
+        <v>1.3999999999999999E-4</v>
+      </c>
+      <c r="J41">
+        <v>1.75E-4</v>
+      </c>
+      <c r="K41">
+        <v>3.5E-4</v>
+      </c>
+      <c r="L41">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="M41">
+        <v>1.0499999999999999E-3</v>
+      </c>
+      <c r="N41">
+        <v>1.4E-3</v>
+      </c>
+      <c r="O41">
+        <v>1.7499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="2">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <v>2.6450000000000001E-2</v>
+      </c>
+      <c r="H42" s="2">
+        <v>2.1905000000000001E-2</v>
+      </c>
+      <c r="I42" s="2">
+        <v>1.8860000000000002E-2</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1.6575000000000003E-2</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L42" s="2">
+        <v>1.21E-2</v>
+      </c>
+      <c r="M42" s="2">
+        <v>9.5000000000000015E-3</v>
+      </c>
+      <c r="N42" s="2">
+        <v>6.9000000000000008E-3</v>
+      </c>
+      <c r="O42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="2">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="G43" s="2">
+        <v>2.349E-2</v>
+      </c>
+      <c r="H43" s="2">
+        <v>2.7980000000000001E-2</v>
+      </c>
+      <c r="I43" s="2">
+        <v>3.0969999999999998E-2</v>
+      </c>
+      <c r="J43" s="2">
+        <v>3.32E-2</v>
+      </c>
+      <c r="K43" s="2">
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="L43" s="2">
+        <v>3.7500000000000006E-2</v>
+      </c>
+      <c r="M43" s="2">
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="N43" s="2">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="O43" s="2">
+        <v>4.9300000000000004E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="H44" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1.5000000000000001E-4</v>
+      </c>
+      <c r="J44" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="K44" s="2">
+        <v>2.5000000000000001E-4</v>
+      </c>
+      <c r="L44" s="2">
+        <v>3.0000000000000003E-4</v>
+      </c>
+      <c r="M44" s="2">
+        <v>3.5000000000000005E-4</v>
+      </c>
+      <c r="N44" s="2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="O44" s="2">
+        <v>4.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H45" s="2">
+        <v>1.4999999999999999E-5</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="K45" s="2">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="L45" s="2">
+        <v>1E-4</v>
+      </c>
+      <c r="M45" s="2">
+        <v>1.5000000000000001E-4</v>
+      </c>
+      <c r="N45" s="2">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="O45" s="2">
+        <v>2.5000000000000001E-4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3889,10 +3992,10 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="K1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="O1" s="3">
         <v>0.7</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C8A244A-1C19-4683-AF4F-2517B631C9EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756D79D7-FA04-44AB-BF20-A5F22403629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP11" sqref="AP11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1114,6 +1114,7 @@
     <col min="25" max="25" width="14.75" customWidth="1"/>
     <col min="26" max="26" width="15.125" customWidth="1"/>
     <col min="27" max="27" width="18.125" customWidth="1"/>
+    <col min="40" max="40" width="17.625" customWidth="1"/>
     <col min="41" max="41" width="20" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1367,9 +1368,9 @@
         <v>11</v>
       </c>
       <c r="AO2">
-        <v>2000</v>
-      </c>
-      <c r="AP2">
+        <v>4000</v>
+      </c>
+      <c r="AP2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1495,9 +1496,9 @@
         <v>11</v>
       </c>
       <c r="AO3">
-        <v>2000</v>
-      </c>
-      <c r="AP3">
+        <v>4000</v>
+      </c>
+      <c r="AP3" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1619,13 +1620,13 @@
       <c r="AM4" s="2">
         <v>300</v>
       </c>
-      <c r="AN4">
-        <v>11</v>
-      </c>
-      <c r="AO4">
-        <v>10</v>
-      </c>
-      <c r="AP4">
+      <c r="AN4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>50</v>
+      </c>
+      <c r="AP4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1748,13 +1749,13 @@
         <v>600</v>
       </c>
       <c r="AN5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1879,9 +1880,9 @@
         <v>11</v>
       </c>
       <c r="AO6">
-        <v>1000</v>
-      </c>
-      <c r="AP6">
+        <v>4000</v>
+      </c>
+      <c r="AP6" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2007,9 +2008,9 @@
         <v>11</v>
       </c>
       <c r="AO7">
-        <v>1000</v>
-      </c>
-      <c r="AP7">
+        <v>4000</v>
+      </c>
+      <c r="AP7" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2131,14 +2132,14 @@
       <c r="AM8" s="2">
         <v>300</v>
       </c>
-      <c r="AN8">
-        <v>11</v>
-      </c>
-      <c r="AO8">
-        <v>10</v>
-      </c>
-      <c r="AP8">
-        <v>1</v>
+      <c r="AN8" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>20</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2260,13 +2261,13 @@
         <v>600</v>
       </c>
       <c r="AN9">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2388,13 +2389,13 @@
         <v>50</v>
       </c>
       <c r="AN10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2516,13 +2517,13 @@
         <v>100</v>
       </c>
       <c r="AN11">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AO11">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="12" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2643,14 +2644,14 @@
       <c r="AM12" s="2">
         <v>300</v>
       </c>
-      <c r="AN12">
-        <v>11</v>
-      </c>
-      <c r="AO12">
-        <v>5</v>
-      </c>
-      <c r="AP12">
-        <v>1</v>
+      <c r="AN12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>10</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2772,13 +2773,13 @@
         <v>600</v>
       </c>
       <c r="AN13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AO13">
         <v>1</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756D79D7-FA04-44AB-BF20-A5F22403629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D880CCB-D889-4D57-9494-8D17ACB7BEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6705" yWindow="4530" windowWidth="28800" windowHeight="11160" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -503,26 +503,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전방베기 오의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직선베기 2형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>직선베기 오의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회전베기 2형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회전베기 오의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회전베기 1형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -547,15 +535,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전방을 벤다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주변 적들을 벤다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직선으로 길게 적을 벤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방의 적들을 벤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변의 적들을 벤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방베기 4형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선베기 4형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전베기 4형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1254,10 +1254,10 @@
         <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>125</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1510,10 +1510,10 @@
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -1638,10 +1638,10 @@
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -1766,10 +1766,10 @@
         <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1894,10 +1894,10 @@
         <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -2022,10 +2022,10 @@
         <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
@@ -2150,10 +2150,10 @@
         <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
@@ -2278,10 +2278,10 @@
         <v>49</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
@@ -2406,10 +2406,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" s="3">
         <v>9</v>
@@ -2534,10 +2534,10 @@
         <v>51</v>
       </c>
       <c r="C12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>138</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -2662,10 +2662,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" s="3">
         <v>11</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D880CCB-D889-4D57-9494-8D17ACB7BEC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D6D2CE-D526-47B4-A0EB-08B556E7C7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="4530" windowWidth="28800" windowHeight="11160" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -285,22 +285,6 @@
   </si>
   <si>
     <t>2-4_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-1_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-2_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-3_hit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-4_hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1085,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1207,19 +1191,19 @@
         <v>62</v>
       </c>
       <c r="AD1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH1" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="AE1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG1" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="AH1" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="AI1" s="8" t="s">
         <v>63</v>
@@ -1228,22 +1212,22 @@
         <v>64</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="AL1" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN1" t="s">
         <v>118</v>
       </c>
-      <c r="AM1" s="8" t="s">
+      <c r="AO1" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>123</v>
-      </c>
       <c r="AP1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1254,10 +1238,10 @@
         <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E2" s="3">
         <v>0</v>
@@ -1356,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AL2" s="2">
         <v>11</v>
@@ -1382,10 +1366,10 @@
         <v>44</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -1484,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="AK3" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AL3" s="2">
         <v>11</v>
@@ -1510,10 +1494,10 @@
         <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>131</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
@@ -1612,7 +1596,7 @@
         <v>1</v>
       </c>
       <c r="AK4" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AL4" s="2">
         <v>11</v>
@@ -1638,10 +1622,10 @@
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E5" s="3">
         <v>3</v>
@@ -1740,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="AK5" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AL5" s="2">
         <v>11</v>
@@ -1766,10 +1750,10 @@
         <v>46</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E6" s="3">
         <v>4</v>
@@ -1868,7 +1852,7 @@
         <v>1</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AL6" s="2">
         <v>11</v>
@@ -1894,10 +1878,10 @@
         <v>47</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3">
         <v>5</v>
@@ -1996,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AL7" s="2">
         <v>11</v>
@@ -2022,10 +2006,10 @@
         <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E8" s="3">
         <v>6</v>
@@ -2124,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="AK8" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AL8" s="2">
         <v>11</v>
@@ -2150,10 +2134,10 @@
         <v>53</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E9" s="3">
         <v>7</v>
@@ -2252,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="AK9" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AL9" s="2">
         <v>11</v>
@@ -2278,10 +2262,10 @@
         <v>49</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E10" s="3">
         <v>8</v>
@@ -2332,7 +2316,7 @@
         <v>27</v>
       </c>
       <c r="U10" s="9" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="V10" s="9" t="s">
         <v>42</v>
@@ -2380,7 +2364,7 @@
         <v>1</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AL10" s="2">
         <v>11</v>
@@ -2406,10 +2390,10 @@
         <v>50</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E11" s="3">
         <v>9</v>
@@ -2460,7 +2444,7 @@
         <v>28</v>
       </c>
       <c r="U11" s="9" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="V11" s="9" t="s">
         <v>42</v>
@@ -2508,7 +2492,7 @@
         <v>1</v>
       </c>
       <c r="AK11" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AL11" s="2">
         <v>11</v>
@@ -2534,10 +2518,10 @@
         <v>51</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E12" s="3">
         <v>10</v>
@@ -2588,7 +2572,7 @@
         <v>29</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="V12" s="9" t="s">
         <v>42</v>
@@ -2636,7 +2620,7 @@
         <v>1</v>
       </c>
       <c r="AK12" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AL12" s="2">
         <v>11</v>
@@ -2662,10 +2646,10 @@
         <v>54</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E13" s="3">
         <v>11</v>
@@ -2716,7 +2700,7 @@
         <v>57</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="V13" s="9" t="s">
         <v>42</v>
@@ -2764,7 +2748,7 @@
         <v>1</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AL13" s="2">
         <v>11</v>
@@ -2813,47 +2797,47 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2861,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -2905,10 +2889,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -2949,10 +2933,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -2993,10 +2977,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -3037,10 +3021,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -3081,10 +3065,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -3125,10 +3109,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -3169,10 +3153,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -3213,10 +3197,10 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D10" s="2">
         <v>2</v>
@@ -3257,10 +3241,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D11" s="2">
         <v>3</v>
@@ -3301,10 +3285,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -3345,10 +3329,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D13" s="2">
         <v>3</v>
@@ -3993,10 +3977,10 @@
         <v>10</v>
       </c>
       <c r="J1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="O1" s="3">
         <v>0.7</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D6D2CE-D526-47B4-A0EB-08B556E7C7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB95B9FB-6494-49E8-B6FE-A0A231B2E784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10:U13"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP9" sqref="AP9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1483,7 +1483,7 @@
         <v>4000</v>
       </c>
       <c r="AP3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1995,7 +1995,7 @@
         <v>4000</v>
       </c>
       <c r="AP7" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB95B9FB-6494-49E8-B6FE-A0A231B2E784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836BFB5-9D68-47FE-A8F5-2A881FDA1442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AP9" sqref="AP9"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1515,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" s="3">
         <v>0.4</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="K5" s="3">
         <v>0.5</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3836BFB5-9D68-47FE-A8F5-2A881FDA1442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A000035-E68E-4489-9F46-715BEB4BB3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AP4" sqref="AP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1736,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="AO5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP5">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -2248,10 +2248,10 @@
         <v>1</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP9">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2760,10 +2760,10 @@
         <v>1</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP13">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A000035-E68E-4489-9F46-715BEB4BB3FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81585475-4EDD-4310-8A3F-0D1B28E5B1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AP4" sqref="AP4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K6" s="3">
         <v>0.1</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K7" s="3">
         <v>0.15</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="K8" s="3">
         <v>0.4</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K9" s="3">
         <v>0.5</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K10" s="3">
         <v>0.1</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K11" s="3">
         <v>0.2</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K12" s="3">
         <v>0.4</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K13" s="3">
         <v>0.5</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81585475-4EDD-4310-8A3F-0D1B28E5B1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E39B0-EF5B-4DFE-BBA8-95ADEF1425BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K6" s="3">
         <v>0.1</v>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K7" s="3">
         <v>0.15</v>
@@ -2027,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K8" s="3">
         <v>0.4</v>
@@ -2155,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K9" s="3">
         <v>0.5</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K10" s="3">
         <v>0.1</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="K11" s="3">
         <v>0.2</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K12" s="3">
         <v>0.4</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="K13" s="3">
         <v>0.5</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F73E39B0-EF5B-4DFE-BBA8-95ADEF1425BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA79767-90E0-49E9-B769-D093DB4306D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1070,7 +1070,7 @@
   <dimension ref="A1:AP13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2042,7 +2042,7 @@
         <v>2</v>
       </c>
       <c r="O8" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="P8" s="5">
         <v>2</v>
@@ -2170,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="O9" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P9" s="5">
         <v>3</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA79767-90E0-49E9-B769-D093DB4306D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248271E6-5FE3-4452-86E9-2C78E43A3016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="32865" windowHeight="18075" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1069,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2036,7 +2036,7 @@
         <v>30</v>
       </c>
       <c r="M8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N8" s="3">
         <v>2</v>
@@ -2164,7 +2164,7 @@
         <v>30</v>
       </c>
       <c r="M9" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" s="3">
         <v>2</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248271E6-5FE3-4452-86E9-2C78E43A3016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC757B84-DA52-40C3-BB4E-5D5D9B4A9651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -540,6 +540,14 @@
   </si>
   <si>
     <t>회전베기 4형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestroyValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MakeRequireValue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1067,27 +1075,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AP13"/>
+  <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AU11" sqref="AU11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="38.25" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="5" max="5" width="12.08203125" customWidth="1"/>
+    <col min="6" max="6" width="10.58203125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="8" max="8" width="13.58203125" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" customWidth="1"/>
-    <col min="15" max="15" width="17.125" customWidth="1"/>
+    <col min="14" max="14" width="12.08203125" customWidth="1"/>
+    <col min="15" max="15" width="17.08203125" customWidth="1"/>
     <col min="17" max="17" width="19.75" customWidth="1"/>
     <col min="18" max="18" width="19.5" customWidth="1"/>
     <col min="19" max="19" width="28" customWidth="1"/>
@@ -1096,13 +1104,14 @@
     <col min="22" max="22" width="13.75" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.75" customWidth="1"/>
-    <col min="26" max="26" width="15.125" customWidth="1"/>
-    <col min="27" max="27" width="18.125" customWidth="1"/>
-    <col min="40" max="40" width="17.625" customWidth="1"/>
+    <col min="26" max="26" width="15.08203125" customWidth="1"/>
+    <col min="27" max="27" width="18.08203125" customWidth="1"/>
+    <col min="40" max="40" width="17.58203125" customWidth="1"/>
     <col min="41" max="41" width="20" customWidth="1"/>
+    <col min="43" max="43" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1229,8 +1238,14 @@
       <c r="AP1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="2" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AQ1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR1" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1352,13 +1367,19 @@
         <v>11</v>
       </c>
       <c r="AO2">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AP2" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AQ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1480,13 +1501,19 @@
         <v>11</v>
       </c>
       <c r="AO3">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="AP3" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AQ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1608,13 +1635,19 @@
         <v>2</v>
       </c>
       <c r="AO4" s="2">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AP4" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AQ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1741,8 +1774,14 @@
       <c r="AP5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AQ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1864,13 +1903,19 @@
         <v>11</v>
       </c>
       <c r="AO6">
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="AP6" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AQ6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1992,13 +2037,19 @@
         <v>11</v>
       </c>
       <c r="AO7">
-        <v>4000</v>
+        <v>8000</v>
       </c>
       <c r="AP7" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AQ7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2120,13 +2171,19 @@
         <v>2</v>
       </c>
       <c r="AO8" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP8" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:42" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AQ8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2253,8 +2310,14 @@
       <c r="AP9">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2376,13 +2439,19 @@
         <v>0</v>
       </c>
       <c r="AO10">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AP10">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="11" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2504,13 +2573,19 @@
         <v>0</v>
       </c>
       <c r="AO11">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="AP11">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2632,13 +2707,19 @@
         <v>2</v>
       </c>
       <c r="AO12" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AP12" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AQ12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2764,6 +2845,12 @@
       </c>
       <c r="AP13">
         <v>0.05</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR13">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2781,21 +2868,21 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="6" max="6" width="27.58203125" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="8" max="8" width="18.58203125" customWidth="1"/>
     <col min="9" max="9" width="19.75" customWidth="1"/>
     <col min="10" max="10" width="22.25" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="20.125" customWidth="1"/>
+    <col min="12" max="12" width="20.08203125" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="14" max="14" width="18.25" customWidth="1"/>
-    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="15" max="15" width="23.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -2840,7 +2927,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2884,7 +2971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2928,7 +3015,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2972,7 +3059,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3016,7 +3103,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3060,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3104,7 +3191,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3148,7 +3235,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3192,7 +3279,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3236,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -3280,7 +3367,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -3324,7 +3411,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -3368,7 +3455,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E14" s="2"/>
       <c r="F14" s="12">
         <f>SUM(F2:F13)</f>
@@ -3411,7 +3498,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3424,7 +3511,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3437,7 +3524,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -3450,7 +3537,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -3463,7 +3550,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -3476,7 +3563,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -3489,7 +3576,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -3502,7 +3589,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -3510,7 +3597,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -3518,7 +3605,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -3526,7 +3613,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -3534,7 +3621,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -3542,7 +3629,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.45">
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -3550,7 +3637,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F34" s="2">
         <v>0.39600000000000002</v>
       </c>
@@ -3582,7 +3669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F35" s="2">
         <v>0.20400000000000001</v>
       </c>
@@ -3614,7 +3701,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -3646,7 +3733,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F37" s="2">
         <v>0</v>
       </c>
@@ -3678,7 +3765,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F38">
         <v>0.23099999999999998</v>
       </c>
@@ -3710,7 +3797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F39">
         <v>0.11899999999999999</v>
       </c>
@@ -3742,7 +3829,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F40">
         <v>0</v>
       </c>
@@ -3774,7 +3861,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:15" x14ac:dyDescent="0.45">
       <c r="F41">
         <v>0</v>
       </c>
@@ -3806,7 +3893,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F42" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -3838,7 +3925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F43" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -3870,7 +3957,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F44" s="2">
         <v>0</v>
       </c>
@@ -3902,7 +3989,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -3949,9 +4036,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="34" x14ac:dyDescent="0.45">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -3986,7 +4073,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4026,7 +4113,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -4066,7 +4153,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -4106,7 +4193,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -4146,7 +4233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -4186,7 +4273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -4226,7 +4313,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -4266,7 +4353,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -4306,7 +4393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -4346,7 +4433,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
@@ -4386,7 +4473,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
@@ -4426,7 +4513,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC757B84-DA52-40C3-BB4E-5D5D9B4A9651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB88E874-9118-4B72-BBE8-C56F841B02E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
     <sheet name="Damage" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -555,9 +556,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000000000%"/>
     <numFmt numFmtId="177" formatCode="0.0000%"/>
+    <numFmt numFmtId="181" formatCode="0.000%"/>
+    <numFmt numFmtId="190" formatCode="0.00000000000000000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -715,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -756,6 +759,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1078,7 +1087,7 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AU11" sqref="AU11"/>
+      <selection activeCell="AT4" sqref="AT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1373,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="AQ2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AR2" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -1641,10 +1650,10 @@
         <v>1</v>
       </c>
       <c r="AQ4" s="2">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="AR4" s="2">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -1775,10 +1784,10 @@
         <v>0.05</v>
       </c>
       <c r="AQ5" s="2">
-        <v>1</v>
+        <v>600</v>
       </c>
       <c r="AR5" s="2">
-        <v>1</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -1909,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="AQ6" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AR6" s="2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -2043,10 +2052,10 @@
         <v>2</v>
       </c>
       <c r="AQ7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -2177,10 +2186,10 @@
         <v>2</v>
       </c>
       <c r="AQ8" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="AR8" s="2">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
@@ -2311,10 +2320,10 @@
         <v>0.05</v>
       </c>
       <c r="AQ9" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="AR9" s="2">
-        <v>1</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2445,10 +2454,10 @@
         <v>0.01</v>
       </c>
       <c r="AQ10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR10">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2579,10 +2588,10 @@
         <v>0.01</v>
       </c>
       <c r="AQ11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR11">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2713,10 +2722,10 @@
         <v>3</v>
       </c>
       <c r="AQ12" s="2">
-        <v>1</v>
+        <v>2000</v>
       </c>
       <c r="AR12" s="2">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="13" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
@@ -2847,10 +2856,10 @@
         <v>0.05</v>
       </c>
       <c r="AQ13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR13">
-        <v>1</v>
+        <v>2500</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -4554,4 +4563,258 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{542A4FDC-0096-4DBE-BEAD-1754997A5039}">
+  <dimension ref="B4:J21"/>
+  <sheetViews>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="8" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <v>6000</v>
+      </c>
+      <c r="C4">
+        <v>20000</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="G4" s="14">
+        <f>B4/$E$8</f>
+        <v>0.14152612336360421</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:J4" si="0">C4/$E$8</f>
+        <v>0.47175374454534735</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="0"/>
+        <v>3.5381530840901051E-3</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="0"/>
+        <v>8.2556905295435787E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>3000</v>
+      </c>
+      <c r="C5">
+        <v>11000</v>
+      </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>40</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G6" si="1">B5/$E$8</f>
+        <v>7.0763061681802103E-2</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" ref="H5:H6" si="2">C5/$E$8</f>
+        <v>0.25946455949994102</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" ref="I5:I6" si="3">D5/$E$8</f>
+        <v>2.3587687227267368E-3</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" ref="J5:J6" si="4">E5/$E$8</f>
+        <v>9.4350748909069471E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>450</v>
+      </c>
+      <c r="C6">
+        <v>1600</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="1"/>
+        <v>1.0614459252270315E-2</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="2"/>
+        <v>3.7740299563627788E-2</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="3"/>
+        <v>2.3587687227267368E-4</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="4"/>
+        <v>2.3587687227267368E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="E8">
+        <f>SUM(B4:E6)</f>
+        <v>42395</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G10" s="15">
+        <f>$H$4/G4</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" ref="H10:J10" si="5">$H$4/H4</f>
+        <v>1</v>
+      </c>
+      <c r="I10" s="15">
+        <f>$H$4/I4</f>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="5"/>
+        <v>571.42857142857144</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G11" s="15">
+        <f t="shared" ref="G11:J11" si="6">$H$4/G5</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="6"/>
+        <v>1.8181818181818183</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="6"/>
+        <v>200</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G12" s="15">
+        <f t="shared" ref="G12:J12" si="7">$H$4/G6</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="7"/>
+        <v>12.5</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="7"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G15">
+        <v>3.3</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>133</v>
+      </c>
+      <c r="J15">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="G16">
+        <v>6.6</v>
+      </c>
+      <c r="H16">
+        <v>1.8</v>
+      </c>
+      <c r="I16">
+        <v>200</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G17">
+        <v>44.4</v>
+      </c>
+      <c r="H17">
+        <v>12.5</v>
+      </c>
+      <c r="I17">
+        <v>2000</v>
+      </c>
+      <c r="J17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>150</v>
+      </c>
+      <c r="J19">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>200</v>
+      </c>
+      <c r="J20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" x14ac:dyDescent="0.45">
+      <c r="G21">
+        <v>45</v>
+      </c>
+      <c r="H21">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>2000</v>
+      </c>
+      <c r="J21">
+        <v>2500</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\madaki\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB88E874-9118-4B72-BBE8-C56F841B02E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5808122-5952-466D-A53C-C3B97B3FC6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1755" yWindow="4455" windowWidth="34110" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -559,8 +559,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0.0000000000%"/>
     <numFmt numFmtId="177" formatCode="0.0000%"/>
-    <numFmt numFmtId="181" formatCode="0.000%"/>
-    <numFmt numFmtId="190" formatCode="0.00000000000000000%"/>
+    <numFmt numFmtId="178" formatCode="0.000%"/>
+    <numFmt numFmtId="179" formatCode="0.00000000000000000%"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -761,10 +761,10 @@
     <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="190" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1086,25 +1086,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AR13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT4" sqref="AT4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="38.25" customWidth="1"/>
-    <col min="5" max="5" width="12.08203125" customWidth="1"/>
-    <col min="6" max="6" width="10.58203125" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.58203125" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
     <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.08203125" customWidth="1"/>
-    <col min="15" max="15" width="17.08203125" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="15" max="15" width="17.125" customWidth="1"/>
     <col min="17" max="17" width="19.75" customWidth="1"/>
     <col min="18" max="18" width="19.5" customWidth="1"/>
     <col min="19" max="19" width="28" customWidth="1"/>
@@ -1113,14 +1113,14 @@
     <col min="22" max="22" width="13.75" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.75" customWidth="1"/>
-    <col min="26" max="26" width="15.08203125" customWidth="1"/>
-    <col min="27" max="27" width="18.08203125" customWidth="1"/>
-    <col min="40" max="40" width="17.58203125" customWidth="1"/>
+    <col min="26" max="26" width="15.125" customWidth="1"/>
+    <col min="27" max="27" width="18.125" customWidth="1"/>
+    <col min="40" max="40" width="17.625" customWidth="1"/>
     <col min="41" max="41" width="20" customWidth="1"/>
-    <col min="43" max="43" width="12.58203125" customWidth="1"/>
+    <col min="43" max="43" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:44" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -2877,21 +2877,21 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="27.58203125" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
     <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="18.58203125" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
     <col min="9" max="9" width="19.75" customWidth="1"/>
     <col min="10" max="10" width="22.25" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="20.08203125" customWidth="1"/>
+    <col min="12" max="12" width="20.125" customWidth="1"/>
     <col min="13" max="13" width="17.75" customWidth="1"/>
     <col min="14" max="14" width="18.25" customWidth="1"/>
-    <col min="15" max="15" width="23.58203125" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="F14" s="12">
         <f>SUM(F2:F13)</f>
@@ -3507,7 +3507,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3520,7 +3520,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3533,7 +3533,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -3546,7 +3546,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -3559,7 +3559,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -3572,7 +3572,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -3585,7 +3585,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -3598,7 +3598,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -3606,7 +3606,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -3614,7 +3614,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -3622,7 +3622,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -3630,7 +3630,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -3638,7 +3638,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.45">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -3646,7 +3646,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F34" s="2">
         <v>0.39600000000000002</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F35" s="2">
         <v>0.20400000000000001</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F37" s="2">
         <v>0</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F38">
         <v>0.23099999999999998</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F39">
         <v>0.11899999999999999</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.45">
+    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F40">
         <v>0</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.45">
+    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F41">
         <v>0</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F42" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F43" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F44" s="2">
         <v>0</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -4045,9 +4045,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="34" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
@@ -4573,13 +4573,13 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="8" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>6000</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>8.2556905295435787E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3000</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>9.4350748909069471E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>450</v>
       </c>
@@ -4669,13 +4669,13 @@
         <v>2.3587687227267368E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E8">
         <f>SUM(B4:E6)</f>
         <v>42395</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G10" s="15">
         <f>$H$4/G4</f>
         <v>3.3333333333333335</v>
@@ -4693,7 +4693,7 @@
         <v>571.42857142857144</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G11" s="15">
         <f t="shared" ref="G11:J11" si="6">$H$4/G5</f>
         <v>6.666666666666667</v>
@@ -4711,7 +4711,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G12" s="15">
         <f t="shared" ref="G12:J12" si="7">$H$4/G6</f>
         <v>44.444444444444443</v>
@@ -4729,7 +4729,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>3.3</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>6.6</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>44.4</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.45">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>3</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.45">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>7</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.45">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>45</v>
       </c>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5808122-5952-466D-A53C-C3B97B3FC6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67956434-9B87-4142-A62B-DF3B65A2E407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1755" yWindow="4455" windowWidth="34110" windowHeight="14040" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67956434-9B87-4142-A62B-DF3B65A2E407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E323754-4163-4211-987A-21EF1BE6755D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E323754-4163-4211-987A-21EF1BE6755D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50C85D-7C55-4FE6-894F-C7FF4038F113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E50C85D-7C55-4FE6-894F-C7FF4038F113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B2F335-5B01-427B-9F14-0EE92A2EC3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B2F335-5B01-427B-9F14-0EE92A2EC3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA4BA23-924A-43B2-8727-5D9E080561BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6705" yWindow="3675" windowWidth="27540" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA4BA23-924A-43B2-8727-5D9E080561BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A555BA3E-AB1C-4FBB-92A2-FD0E6105D6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6705" yWindow="3675" windowWidth="27540" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1087,40 +1087,40 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="2" max="2" width="32.69921875" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="38.25" customWidth="1"/>
-    <col min="5" max="5" width="12.125" customWidth="1"/>
-    <col min="6" max="6" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="38.19921875" customWidth="1"/>
+    <col min="5" max="5" width="12.09765625" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.625" customWidth="1"/>
-    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.59765625" customWidth="1"/>
+    <col min="9" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.125" customWidth="1"/>
-    <col min="15" max="15" width="17.125" customWidth="1"/>
-    <col min="17" max="17" width="19.75" customWidth="1"/>
+    <col min="11" max="11" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.09765625" customWidth="1"/>
+    <col min="15" max="15" width="17.09765625" customWidth="1"/>
+    <col min="17" max="17" width="19.69921875" customWidth="1"/>
     <col min="18" max="18" width="19.5" customWidth="1"/>
     <col min="19" max="19" width="28" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="13.75" customWidth="1"/>
+    <col min="22" max="22" width="13.69921875" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.75" customWidth="1"/>
-    <col min="26" max="26" width="15.125" customWidth="1"/>
-    <col min="27" max="27" width="18.125" customWidth="1"/>
-    <col min="40" max="40" width="17.625" customWidth="1"/>
+    <col min="25" max="25" width="14.69921875" customWidth="1"/>
+    <col min="26" max="26" width="15.09765625" customWidth="1"/>
+    <col min="27" max="27" width="18.09765625" customWidth="1"/>
+    <col min="40" max="40" width="17.59765625" customWidth="1"/>
     <col min="41" max="41" width="20" customWidth="1"/>
-    <col min="43" max="43" width="12.625" customWidth="1"/>
+    <col min="43" max="43" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -2877,21 +2877,21 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="6" max="6" width="27.625" customWidth="1"/>
-    <col min="7" max="7" width="16.75" customWidth="1"/>
-    <col min="8" max="8" width="18.625" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="22.25" customWidth="1"/>
+    <col min="6" max="6" width="27.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.69921875" customWidth="1"/>
+    <col min="8" max="8" width="18.59765625" customWidth="1"/>
+    <col min="9" max="9" width="19.69921875" customWidth="1"/>
+    <col min="10" max="10" width="22.19921875" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="20.125" customWidth="1"/>
-    <col min="13" max="13" width="17.75" customWidth="1"/>
-    <col min="14" max="14" width="18.25" customWidth="1"/>
-    <col min="15" max="15" width="23.625" customWidth="1"/>
+    <col min="12" max="12" width="20.09765625" customWidth="1"/>
+    <col min="13" max="13" width="17.69921875" customWidth="1"/>
+    <col min="14" max="14" width="18.19921875" customWidth="1"/>
+    <col min="15" max="15" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E14" s="2"/>
       <c r="F14" s="12">
         <f>SUM(F2:F13)</f>
@@ -3507,7 +3507,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3520,7 +3520,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3533,7 +3533,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -3546,7 +3546,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -3559,7 +3559,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -3572,7 +3572,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -3585,7 +3585,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -3598,7 +3598,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -3606,7 +3606,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -3614,7 +3614,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -3622,7 +3622,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -3630,7 +3630,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -3638,7 +3638,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.4">
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -3646,7 +3646,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F34" s="2">
         <v>0.39600000000000002</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F35" s="2">
         <v>0.20400000000000001</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F37" s="2">
         <v>0</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:15" x14ac:dyDescent="0.4">
       <c r="F38">
         <v>0.23099999999999998</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:15" x14ac:dyDescent="0.4">
       <c r="F39">
         <v>0.11899999999999999</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:15" x14ac:dyDescent="0.4">
       <c r="F40">
         <v>0</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:15" x14ac:dyDescent="0.4">
       <c r="F41">
         <v>0</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F42" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F43" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F44" s="2">
         <v>0</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -4045,9 +4045,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
@@ -4573,13 +4573,13 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="8" width="25.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>6000</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>8.2556905295435787E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>3000</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>9.4350748909069471E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B6">
         <v>450</v>
       </c>
@@ -4669,13 +4669,13 @@
         <v>2.3587687227267368E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
       <c r="E8">
         <f>SUM(B4:E6)</f>
         <v>42395</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G10" s="15">
         <f>$H$4/G4</f>
         <v>3.3333333333333335</v>
@@ -4693,7 +4693,7 @@
         <v>571.42857142857144</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G11" s="15">
         <f t="shared" ref="G11:J11" si="6">$H$4/G5</f>
         <v>6.666666666666667</v>
@@ -4711,7 +4711,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G12" s="15">
         <f t="shared" ref="G12:J12" si="7">$H$4/G6</f>
         <v>44.444444444444443</v>
@@ -4729,7 +4729,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G15">
         <v>3.3</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
       <c r="G16">
         <v>6.6</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.4">
       <c r="G17">
         <v>44.4</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.4">
       <c r="G19">
         <v>3</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.4">
       <c r="G20">
         <v>7</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.4">
       <c r="G21">
         <v>45</v>
       </c>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A555BA3E-AB1C-4FBB-92A2-FD0E6105D6E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAB3360-216F-42B8-9BDD-B329EB822600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1087,40 +1087,40 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.69921875" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="38.19921875" customWidth="1"/>
-    <col min="5" max="5" width="12.09765625" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" customWidth="1"/>
+    <col min="4" max="4" width="38.25" customWidth="1"/>
+    <col min="5" max="5" width="12.125" customWidth="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="13.59765625" customWidth="1"/>
-    <col min="9" max="9" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.09765625" customWidth="1"/>
-    <col min="15" max="15" width="17.09765625" customWidth="1"/>
-    <col min="17" max="17" width="19.69921875" customWidth="1"/>
+    <col min="11" max="11" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.125" customWidth="1"/>
+    <col min="15" max="15" width="17.125" customWidth="1"/>
+    <col min="17" max="17" width="19.75" customWidth="1"/>
     <col min="18" max="18" width="19.5" customWidth="1"/>
     <col min="19" max="19" width="28" customWidth="1"/>
     <col min="20" max="20" width="18.5" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="13.69921875" customWidth="1"/>
+    <col min="22" max="22" width="13.75" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.69921875" customWidth="1"/>
-    <col min="26" max="26" width="15.09765625" customWidth="1"/>
-    <col min="27" max="27" width="18.09765625" customWidth="1"/>
-    <col min="40" max="40" width="17.59765625" customWidth="1"/>
+    <col min="25" max="25" width="14.75" customWidth="1"/>
+    <col min="26" max="26" width="15.125" customWidth="1"/>
+    <col min="27" max="27" width="18.125" customWidth="1"/>
+    <col min="40" max="40" width="17.625" customWidth="1"/>
     <col min="41" max="41" width="20" customWidth="1"/>
-    <col min="43" max="43" width="12.59765625" customWidth="1"/>
+    <col min="43" max="43" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="8" customFormat="1" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:44" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1790,7 +1790,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1924,7 +1924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2192,7 +2192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>
@@ -2877,21 +2877,21 @@
       <selection activeCell="F2" sqref="F2:O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="27.59765625" customWidth="1"/>
-    <col min="7" max="7" width="16.69921875" customWidth="1"/>
-    <col min="8" max="8" width="18.59765625" customWidth="1"/>
-    <col min="9" max="9" width="19.69921875" customWidth="1"/>
-    <col min="10" max="10" width="22.19921875" customWidth="1"/>
+    <col min="6" max="6" width="27.625" customWidth="1"/>
+    <col min="7" max="7" width="16.75" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="22.25" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
-    <col min="12" max="12" width="20.09765625" customWidth="1"/>
-    <col min="13" max="13" width="17.69921875" customWidth="1"/>
-    <col min="14" max="14" width="18.19921875" customWidth="1"/>
-    <col min="15" max="15" width="23.59765625" customWidth="1"/>
+    <col min="12" max="12" width="20.125" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="14" max="14" width="18.25" customWidth="1"/>
+    <col min="15" max="15" width="23.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3068,7 +3068,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>12</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>13</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>14</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E14" s="2"/>
       <c r="F14" s="12">
         <f>SUM(F2:F13)</f>
@@ -3507,7 +3507,7 @@
         <v>0.99999999999999978</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E15" s="2"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -3520,7 +3520,7 @@
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E16" s="2"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -3533,7 +3533,7 @@
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E17" s="2"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -3546,7 +3546,7 @@
       <c r="N17" s="12"/>
       <c r="O17" s="12"/>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E18" s="2"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -3559,7 +3559,7 @@
       <c r="N18" s="12"/>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E19" s="2"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -3572,7 +3572,7 @@
       <c r="N19" s="12"/>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E20" s="2"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
@@ -3585,7 +3585,7 @@
       <c r="N20" s="12"/>
       <c r="O20" s="12"/>
     </row>
-    <row r="21" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E21" s="2"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
@@ -3598,7 +3598,7 @@
       <c r="N21" s="12"/>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E22" s="2"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
@@ -3606,7 +3606,7 @@
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E23" s="6"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -3614,7 +3614,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E24" s="2"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
@@ -3622,7 +3622,7 @@
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
     </row>
-    <row r="25" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E25" s="2"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
@@ -3630,7 +3630,7 @@
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
     </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E26" s="2"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
@@ -3638,7 +3638,7 @@
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
-    <row r="27" spans="5:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="5:15" x14ac:dyDescent="0.3">
       <c r="E27" s="2"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -3646,7 +3646,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F34" s="2">
         <v>0.39600000000000002</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F35" s="2">
         <v>0.20400000000000001</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>0.59160000000000001</v>
       </c>
     </row>
-    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F36" s="2">
         <v>0</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>5.3999999999999994E-3</v>
       </c>
     </row>
-    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F37" s="2">
         <v>0</v>
       </c>
@@ -3774,7 +3774,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="6:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F38">
         <v>0.23099999999999998</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F39">
         <v>0.11899999999999999</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>0.34509999999999996</v>
       </c>
     </row>
-    <row r="40" spans="6:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F40">
         <v>0</v>
       </c>
@@ -3870,7 +3870,7 @@
         <v>3.1499999999999996E-3</v>
       </c>
     </row>
-    <row r="41" spans="6:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="6:15" x14ac:dyDescent="0.3">
       <c r="F41">
         <v>0</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>1.7499999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F42" s="2">
         <v>3.3000000000000002E-2</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F43" s="2">
         <v>1.7000000000000001E-2</v>
       </c>
@@ -3966,7 +3966,7 @@
         <v>4.9300000000000004E-2</v>
       </c>
     </row>
-    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F44" s="2">
         <v>0</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>4.4999999999999999E-4</v>
       </c>
     </row>
-    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="6:15" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="F45" s="2">
         <v>0</v>
       </c>
@@ -4045,9 +4045,9 @@
       <selection activeCell="O1" sqref="O1:O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="33" x14ac:dyDescent="0.3">
       <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4122,7 +4122,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>52</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>47</v>
       </c>
@@ -4322,7 +4322,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>48</v>
       </c>
@@ -4362,7 +4362,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>49</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>50</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>51</v>
       </c>
@@ -4522,7 +4522,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>54</v>
       </c>
@@ -4573,13 +4573,13 @@
       <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="8" width="25.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="27.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>6000</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>8.2556905295435787E-4</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>3000</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>9.4350748909069471E-4</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>450</v>
       </c>
@@ -4669,13 +4669,13 @@
         <v>2.3587687227267368E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E8">
         <f>SUM(B4:E6)</f>
         <v>42395</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G10" s="15">
         <f>$H$4/G4</f>
         <v>3.3333333333333335</v>
@@ -4693,7 +4693,7 @@
         <v>571.42857142857144</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G11" s="15">
         <f t="shared" ref="G11:J11" si="6">$H$4/G5</f>
         <v>6.666666666666667</v>
@@ -4711,7 +4711,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G12" s="15">
         <f t="shared" ref="G12:J12" si="7">$H$4/G6</f>
         <v>44.444444444444443</v>
@@ -4729,7 +4729,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G15">
         <v>3.3</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="G16">
         <v>6.6</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G17">
         <v>44.4</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G19">
         <v>3</v>
       </c>
@@ -4785,7 +4785,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G20">
         <v>7</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
       <c r="G21">
         <v>45</v>
       </c>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BAB3360-216F-42B8-9BDD-B329EB822600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774204ED-4BAC-44C9-88C8-F32AB6FDCEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3270" yWindow="3120" windowWidth="31725" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774204ED-4BAC-44C9-88C8-F32AB6FDCEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5554B450-4BD7-47CA-B7C7-899B56BA1A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="3120" windowWidth="31725" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6255" yWindow="4710" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:AR13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2209,7 +2209,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2343,7 +2343,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2477,7 +2477,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5554B450-4BD7-47CA-B7C7-899B56BA1A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51785BBB-5E77-4338-ABB5-D90A48E5CE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="4710" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="144">
   <si>
     <t>id</t>
   </si>
@@ -549,6 +549,30 @@
   </si>
   <si>
     <t>MakeRequireValue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSonSkill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SonUnlockLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SonSkill0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SonSkill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1084,14 +1108,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AR13"/>
+  <dimension ref="A1:AT15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="32.75" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="38.25" customWidth="1"/>
@@ -1120,7 +1145,7 @@
     <col min="43" max="43" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1253,8 +1278,14 @@
       <c r="AR1" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AS1" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT1" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1387,8 +1418,14 @@
       <c r="AR2" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AS2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1521,8 +1558,14 @@
       <c r="AR3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AS3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1655,8 +1698,14 @@
       <c r="AR4" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AS4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1789,8 +1838,14 @@
       <c r="AR5" s="2">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AS5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1923,8 +1978,14 @@
       <c r="AR6" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AS6" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2057,8 +2118,14 @@
       <c r="AR7" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AS7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2191,8 +2258,14 @@
       <c r="AR8" s="2">
         <v>200</v>
       </c>
-    </row>
-    <row r="9" spans="1:44" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AS8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2325,8 +2398,14 @@
       <c r="AR9" s="2">
         <v>500</v>
       </c>
-    </row>
-    <row r="10" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2459,8 +2538,14 @@
       <c r="AR10" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2593,8 +2678,14 @@
       <c r="AR11" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2727,8 +2818,14 @@
       <c r="AR12" s="2">
         <v>2000</v>
       </c>
-    </row>
-    <row r="13" spans="1:44" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AS12" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2860,6 +2957,292 @@
       </c>
       <c r="AR13" s="2">
         <v>2500</v>
+      </c>
+      <c r="AS13" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3">
+        <v>60</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>50</v>
+      </c>
+      <c r="M14" s="3">
+        <v>5</v>
+      </c>
+      <c r="N14" s="3">
+        <v>2</v>
+      </c>
+      <c r="O14" s="4">
+        <v>25</v>
+      </c>
+      <c r="P14" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>4</v>
+      </c>
+      <c r="R14" s="2">
+        <v>10</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T14" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="U14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AA14">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="AB14">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="AC14">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="AD14">
+        <v>1E-4</v>
+      </c>
+      <c r="AE14">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="AF14">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AG14">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="AH14">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>2</v>
+      </c>
+      <c r="AP14">
+        <v>0.05</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AS14" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="3">
+        <v>3</v>
+      </c>
+      <c r="F15" s="3">
+        <v>60</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2</v>
+      </c>
+      <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="3">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
+        <v>9</v>
+      </c>
+      <c r="N15" s="3">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>10</v>
+      </c>
+      <c r="P15" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>4</v>
+      </c>
+      <c r="R15" s="2">
+        <v>10</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="U15" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>1.8000000000000001E-4</v>
+      </c>
+      <c r="AA15">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="AB15">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="AC15">
+        <v>3.6000000000000002E-4</v>
+      </c>
+      <c r="AD15">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="AE15">
+        <v>1E-3</v>
+      </c>
+      <c r="AF15">
+        <v>1.5E-3</v>
+      </c>
+      <c r="AG15">
+        <v>2E-3</v>
+      </c>
+      <c r="AH15">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
+        <v>2</v>
+      </c>
+      <c r="AP15">
+        <v>0.05</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT15" s="2">
+        <v>6000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51785BBB-5E77-4338-ABB5-D90A48E5CE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D27FF9-E7A8-4803-864B-0DC8CD84B7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="145">
   <si>
     <t>id</t>
   </si>
@@ -573,6 +573,10 @@
   </si>
   <si>
     <t>4-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>targetCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,7 +1115,7 @@
   <dimension ref="A1:AT15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1180,7 +1184,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>9</v>
+        <v>144</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>10</v>
@@ -2979,7 +2983,7 @@
         <v>132</v>
       </c>
       <c r="E14" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" s="3">
         <v>60</v>
@@ -2988,16 +2992,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K14" s="3">
-        <v>5.0000000000000001E-3</v>
+        <v>0.08</v>
       </c>
       <c r="L14" s="3">
         <v>50</v>
@@ -3119,7 +3123,7 @@
         <v>131</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="F15" s="3">
         <v>60</v>
@@ -3134,16 +3138,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>4.5</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L15" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M15" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N15" s="3">
         <v>2</v>
@@ -3242,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="AT15" s="2">
-        <v>6000</v>
+        <v>9000</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2D27FF9-E7A8-4803-864B-0DC8CD84B7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685058CC-1B48-4926-B7D5-57799195189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1115,7 +1115,7 @@
   <dimension ref="A1:AT15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3046,31 +3046,31 @@
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>2.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>3.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>4.0000000000000003E-5</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>5.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="AD14">
-        <v>1E-4</v>
+        <v>0</v>
       </c>
       <c r="AE14">
-        <v>2.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="AG14">
-        <v>4.0000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="AH14">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="2">
         <v>4</v>
@@ -3186,31 +3186,31 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>1.8000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="AA15">
-        <v>2.4000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="AB15">
-        <v>2.9999999999999997E-4</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>3.6000000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="AD15">
-        <v>5.0000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="AE15">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>1.5E-3</v>
+        <v>0</v>
       </c>
       <c r="AG15">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="AH15">
-        <v>2.5000000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="AI15" s="2">
         <v>4</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685058CC-1B48-4926-B7D5-57799195189B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D90EE74-363C-49CD-881C-E6BCF27D8ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3120" yWindow="5400" windowWidth="30225" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="147">
   <si>
     <t>id</t>
   </si>
@@ -577,6 +577,14 @@
   </si>
   <si>
     <t>targetCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SonSkill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1112,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AT15"/>
+  <dimension ref="A1:AT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AT17" sqref="AT17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3249,6 +3257,146 @@
         <v>9000</v>
       </c>
     </row>
+    <row r="16" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="3">
+        <v>13</v>
+      </c>
+      <c r="F16" s="3">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3">
+        <v>300</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="L16" s="3">
+        <v>10</v>
+      </c>
+      <c r="M16" s="3">
+        <v>10</v>
+      </c>
+      <c r="N16" s="3">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>10</v>
+      </c>
+      <c r="P16" s="5">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>4</v>
+      </c>
+      <c r="R16" s="2">
+        <v>10</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T16" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="U16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="V16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
+        <v>2</v>
+      </c>
+      <c r="AP16">
+        <v>0.05</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D90EE74-363C-49CD-881C-E6BCF27D8ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCCC924-25AB-47BC-A45E-6FE6727E5A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="5400" windowWidth="30225" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-780" yWindow="3495" windowWidth="35730" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1122,8 +1122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AT16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AT17" sqref="AT17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3128,7 +3128,7 @@
         <v>133</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E15" s="3">
         <v>13</v>
@@ -3268,10 +3268,10 @@
         <v>133</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E16" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F16" s="3">
         <v>60</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCCC924-25AB-47BC-A45E-6FE6727E5A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5388F41C-4974-4835-ADBE-7C0DCFA762B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="3495" windowWidth="35730" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:AT16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5388F41C-4974-4835-ADBE-7C0DCFA762B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A4FCBA-EF7D-4A1B-AC4B-1EC925B70D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:AT16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G2" s="3">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G3" s="3">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G6" s="3">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="F7" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G7" s="3">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>7</v>
       </c>
       <c r="F9" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>8</v>
       </c>
       <c r="F10" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>9</v>
       </c>
       <c r="F11" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G11" s="3">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>11</v>
       </c>
       <c r="F13" s="3">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G13" s="3">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A4FCBA-EF7D-4A1B-AC4B-1EC925B70D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA4E92F-CDC0-4888-9671-BDAAE6A4F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="148">
   <si>
     <t>id</t>
   </si>
@@ -585,6 +585,10 @@
   </si>
   <si>
     <t>4-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,7 +1127,7 @@
   <dimension ref="A1:AT16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3042,7 +3046,7 @@
         <v>65</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>42</v>
+        <v>147</v>
       </c>
       <c r="W14" s="2">
         <v>0</v>
@@ -3182,7 +3186,7 @@
         <v>65</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="W15" s="2">
         <v>0</v>
@@ -3322,7 +3326,7 @@
         <v>65</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>40</v>
+        <v>147</v>
       </c>
       <c r="W16" s="2">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA4E92F-CDC0-4888-9671-BDAAE6A4F1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AA72D9-7440-48C6-BD7E-5D3112B06A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1127,7 +1127,7 @@
   <dimension ref="A1:AT16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1324,16 +1324,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="I2" s="3">
         <v>0</v>
       </c>
       <c r="J2" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K2" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L2" s="3">
         <v>3</v>
@@ -1464,16 +1464,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="K3" s="3">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L3" s="3">
         <v>3</v>
@@ -1604,16 +1604,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
         <v>0</v>
       </c>
       <c r="J4" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K4" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L4" s="3">
         <v>3</v>
@@ -1744,16 +1744,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
         <v>0</v>
       </c>
       <c r="J5" s="3">
-        <v>4.5</v>
+        <v>9</v>
       </c>
       <c r="K5" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L5" s="3">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I6" s="3">
         <v>0</v>
       </c>
       <c r="J6" s="3">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L6" s="3">
         <v>30</v>
@@ -2024,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="H7" s="3">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
       </c>
       <c r="J7" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="K7" s="3">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="L7" s="3">
         <v>30</v>
@@ -2164,16 +2164,16 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
       <c r="J8" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L8" s="3">
         <v>30</v>
@@ -2304,16 +2304,16 @@
         <v>0</v>
       </c>
       <c r="H9" s="3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3">
         <v>30</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
       </c>
       <c r="J10" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="K10" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L10" s="3">
         <v>50</v>
@@ -2584,16 +2584,16 @@
         <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K11" s="3">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="L11" s="3">
         <v>50</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="K12" s="3">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="L12" s="3">
         <v>50</v>
@@ -2864,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="K13" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3">
         <v>50</v>
@@ -3004,16 +3004,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="L14" s="3">
         <v>50</v>
@@ -3144,16 +3144,16 @@
         <v>0</v>
       </c>
       <c r="H15" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L15" s="3">
         <v>10</v>
@@ -3284,16 +3284,16 @@
         <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="K16" s="3">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="L16" s="3">
         <v>10</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38AA72D9-7440-48C6-BD7E-5D3112B06A87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DACC5E-6556-4E67-9577-D39428DECCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-780" yWindow="2370" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="158">
   <si>
     <t>id</t>
   </si>
@@ -589,6 +589,44 @@
   </si>
   <si>
     <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinSkill0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinSkill1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주작베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>청룡베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red_Slash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RedHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue_Slash</t>
+  </si>
+  <si>
+    <t>BlueHit</t>
+  </si>
+  <si>
+    <t>주변의 적들을 강하게 벤다</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1124,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AT16"/>
+  <dimension ref="A1:AT18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1152,6 +1190,7 @@
     <col min="20" max="20" width="18.5" customWidth="1"/>
     <col min="21" max="21" width="13" customWidth="1"/>
     <col min="22" max="22" width="13.75" customWidth="1"/>
+    <col min="23" max="23" width="22.625" customWidth="1"/>
     <col min="24" max="24" width="10" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="14.75" customWidth="1"/>
     <col min="26" max="26" width="15.125" customWidth="1"/>
@@ -3399,6 +3438,286 @@
       </c>
       <c r="AT16" s="2">
         <v>15000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E17" s="3">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
+        <v>4</v>
+      </c>
+      <c r="L17" s="3">
+        <v>50</v>
+      </c>
+      <c r="M17" s="3">
+        <v>9</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2</v>
+      </c>
+      <c r="O17" s="4">
+        <v>25</v>
+      </c>
+      <c r="P17" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>4</v>
+      </c>
+      <c r="R17" s="2">
+        <v>10</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="V17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>2</v>
+      </c>
+      <c r="AP17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
+        <v>800</v>
+      </c>
+      <c r="K18" s="3">
+        <v>5</v>
+      </c>
+      <c r="L18" s="3">
+        <v>50</v>
+      </c>
+      <c r="M18" s="3">
+        <v>9</v>
+      </c>
+      <c r="N18" s="3">
+        <v>2</v>
+      </c>
+      <c r="O18" s="4">
+        <v>25</v>
+      </c>
+      <c r="P18" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>4</v>
+      </c>
+      <c r="R18" s="2">
+        <v>10</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="U18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="V18" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>2</v>
+      </c>
+      <c r="AP18">
+        <v>0.05</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44DACC5E-6556-4E67-9577-D39428DECCA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CC362F-C336-4779-992A-D67CE4AC33CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="2370" windowWidth="37680" windowHeight="16185" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="161">
   <si>
     <t>id</t>
   </si>
@@ -627,6 +627,18 @@
   </si>
   <si>
     <t>주변의 적들을 강하게 벤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SinSkill2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>흑룡베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black_Slash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AT18"/>
+  <dimension ref="A1:AT19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3720,6 +3732,146 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E19" s="3">
+        <v>17</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3">
+        <v>900</v>
+      </c>
+      <c r="K19" s="3">
+        <v>6</v>
+      </c>
+      <c r="L19" s="3">
+        <v>50</v>
+      </c>
+      <c r="M19" s="3">
+        <v>9</v>
+      </c>
+      <c r="N19" s="3">
+        <v>2</v>
+      </c>
+      <c r="O19" s="4">
+        <v>25</v>
+      </c>
+      <c r="P19" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>4</v>
+      </c>
+      <c r="R19" s="2">
+        <v>10</v>
+      </c>
+      <c r="S19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T19" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="U19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>2</v>
+      </c>
+      <c r="AP19">
+        <v>0.05</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CC362F-C336-4779-992A-D67CE4AC33CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C71F364-44B0-4B21-86CE-9D7A111C67B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="166">
   <si>
     <t>id</t>
   </si>
@@ -639,6 +639,26 @@
   </si>
   <si>
     <t>Black_Slash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indra0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인드라0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndraGoodsName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AT19"/>
+  <dimension ref="A1:AU20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1210,9 +1230,10 @@
     <col min="40" max="40" width="17.625" customWidth="1"/>
     <col min="41" max="41" width="20" customWidth="1"/>
     <col min="43" max="43" width="12.625" customWidth="1"/>
+    <col min="46" max="46" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="8" customFormat="1" ht="33" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1351,8 +1372,11 @@
       <c r="AT1" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="2" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AU1" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1492,7 +1516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1632,7 +1656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1772,7 +1796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1912,7 +1936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2052,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2192,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2332,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2472,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2612,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2752,7 +2776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2892,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -3032,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -3172,7 +3196,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -3312,7 +3336,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:47" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -3452,7 +3476,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="17" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -3592,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:46" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -3732,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -3870,6 +3894,149 @@
       </c>
       <c r="AT19" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E20" s="3">
+        <v>17</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>900</v>
+      </c>
+      <c r="K20" s="3">
+        <v>6</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1</v>
+      </c>
+      <c r="M20" s="3">
+        <v>9</v>
+      </c>
+      <c r="N20" s="3">
+        <v>2</v>
+      </c>
+      <c r="O20" s="4">
+        <v>40</v>
+      </c>
+      <c r="P20" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>4</v>
+      </c>
+      <c r="R20" s="2">
+        <v>10</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="U20" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="V20" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
+        <v>2</v>
+      </c>
+      <c r="AP20">
+        <v>0.05</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C71F364-44B0-4B21-86CE-9D7A111C67B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A0DCD1-F8B2-4B8C-A43F-1E5395649410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1196,8 +1196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AU20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AP21" sqref="AP21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1229,7 +1229,9 @@
     <col min="27" max="27" width="18.125" customWidth="1"/>
     <col min="40" max="40" width="17.625" customWidth="1"/>
     <col min="41" max="41" width="20" customWidth="1"/>
+    <col min="42" max="42" width="27.5" customWidth="1"/>
     <col min="43" max="43" width="12.625" customWidth="1"/>
+    <col min="44" max="44" width="22.375" customWidth="1"/>
     <col min="46" max="46" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4021,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="AP20">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="2">
         <v>600</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A0DCD1-F8B2-4B8C-A43F-1E5395649410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4019DBE-17FD-4BD1-B95B-6DB91E44838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="167">
   <si>
     <t>id</t>
   </si>
@@ -650,15 +650,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IndraGoodsName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>i0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndraSlash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IndraHit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1196,8 +1200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AU20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AP21" sqref="AP21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1375,7 +1379,7 @@
         <v>139</v>
       </c>
       <c r="AU1" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -3921,25 +3925,25 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>900</v>
+        <v>10000</v>
       </c>
       <c r="K20" s="3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="L20" s="3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="M20" s="3">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="N20" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="4">
         <v>40</v>
@@ -3957,13 +3961,13 @@
         <v>31</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
@@ -4038,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="AU20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4019DBE-17FD-4BD1-B95B-6DB91E44838D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61575FE-4096-4CDF-BEC2-B4D46522FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -663,6 +663,10 @@
   </si>
   <si>
     <t>IndraHit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Indra1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1198,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AU20"/>
+  <dimension ref="A1:AU21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3931,22 +3935,22 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
       <c r="O20" s="4">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P20" s="5">
         <v>6</v>
@@ -4042,6 +4046,149 @@
         <v>0</v>
       </c>
       <c r="AU20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E21" s="3">
+        <v>17</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>5</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>10000</v>
+      </c>
+      <c r="K21" s="3">
+        <v>30</v>
+      </c>
+      <c r="L21" s="3">
+        <v>50</v>
+      </c>
+      <c r="M21" s="3">
+        <v>50</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <v>40</v>
+      </c>
+      <c r="P21" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>4</v>
+      </c>
+      <c r="R21" s="2">
+        <v>10</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="U21" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="V21" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL21" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM21" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>2</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR21" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="s">
         <v>164</v>
       </c>
     </row>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61575FE-4096-4CDF-BEC2-B4D46522FC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A57AFF-3F5A-41F4-AF10-CAB3C444378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="172">
   <si>
     <t>id</t>
   </si>
@@ -667,6 +667,22 @@
   </si>
   <si>
     <t>Indra1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nata0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나타베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Na_Slash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1202,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AU21"/>
+  <dimension ref="A1:AU22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4192,6 +4208,149 @@
         <v>164</v>
       </c>
     </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="3">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>900</v>
+      </c>
+      <c r="K22" s="3">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
+        <v>50</v>
+      </c>
+      <c r="M22" s="3">
+        <v>9</v>
+      </c>
+      <c r="N22" s="3">
+        <v>2</v>
+      </c>
+      <c r="O22" s="4">
+        <v>25</v>
+      </c>
+      <c r="P22" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>4</v>
+      </c>
+      <c r="R22" s="2">
+        <v>10</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="U22" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="V22" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ22" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL22" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>2</v>
+      </c>
+      <c r="AP22">
+        <v>0.05</v>
+      </c>
+      <c r="AQ22" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS22" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A57AFF-3F5A-41F4-AF10-CAB3C444378E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4F588D-18C4-4DE5-813D-C17CE9AB75EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="175">
   <si>
     <t>id</t>
   </si>
@@ -683,6 +683,18 @@
   </si>
   <si>
     <t>Na_Slash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orochi0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오로치베기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oh_Slash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1218,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AU22"/>
+  <dimension ref="A1:AU23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4351,6 +4363,149 @@
         <v>164</v>
       </c>
     </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="3">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K23" s="3">
+        <v>9</v>
+      </c>
+      <c r="L23" s="3">
+        <v>50</v>
+      </c>
+      <c r="M23" s="3">
+        <v>9</v>
+      </c>
+      <c r="N23" s="3">
+        <v>2</v>
+      </c>
+      <c r="O23" s="4">
+        <v>25</v>
+      </c>
+      <c r="P23" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>4</v>
+      </c>
+      <c r="R23" s="2">
+        <v>10</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ23" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK23" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL23" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>2</v>
+      </c>
+      <c r="AP23">
+        <v>0.05</v>
+      </c>
+      <c r="AQ23" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR23" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS23" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4F588D-18C4-4DE5-813D-C17CE9AB75EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AB3DE8-BFF1-46A0-B5BF-9F3812FF5E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -1233,7 +1233,7 @@
   <dimension ref="A1:AU23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AB3DE8-BFF1-46A0-B5BF-9F3812FF5E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A24CCD6-7CD3-4505-8386-8389E0F5146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="34695" windowHeight="12750" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="188">
   <si>
     <t>id</t>
   </si>
@@ -695,6 +695,52 @@
   </si>
   <si>
     <t>Oh_Slash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun2</t>
+  </si>
+  <si>
+    <t>Sun3</t>
+  </si>
+  <si>
+    <t>Sun4</t>
+  </si>
+  <si>
+    <t>선술1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선술2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선술3</t>
+  </si>
+  <si>
+    <t>선술4</t>
+  </si>
+  <si>
+    <t>선술0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방의 적 1명을 강하게 벤다</t>
+  </si>
+  <si>
+    <t>전방의 적 1명을 강하게 벤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -772,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -849,6 +895,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -864,7 +921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,6 +969,9 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1230,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AU23"/>
+  <dimension ref="A1:AU28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4506,6 +4566,721 @@
         <v>164</v>
       </c>
     </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" s="16">
+        <v>21</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K24" s="3">
+        <v>9</v>
+      </c>
+      <c r="L24" s="3">
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>2</v>
+      </c>
+      <c r="O24" s="4">
+        <v>25</v>
+      </c>
+      <c r="P24" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>4</v>
+      </c>
+      <c r="R24" s="2">
+        <v>10</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U24" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="V24" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>2</v>
+      </c>
+      <c r="AP24">
+        <v>0.05</v>
+      </c>
+      <c r="AQ24" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="16">
+        <v>22</v>
+      </c>
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="3">
+        <v>9</v>
+      </c>
+      <c r="L25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
+        <v>1</v>
+      </c>
+      <c r="N25" s="3">
+        <v>2</v>
+      </c>
+      <c r="O25" s="4">
+        <v>25</v>
+      </c>
+      <c r="P25" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>4</v>
+      </c>
+      <c r="R25" s="2">
+        <v>10</v>
+      </c>
+      <c r="S25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U25" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="V25" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+      <c r="X25" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ25" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL25" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM25" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>2</v>
+      </c>
+      <c r="AP25">
+        <v>0.05</v>
+      </c>
+      <c r="AQ25" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR25" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E26" s="16">
+        <v>23</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="3">
+        <v>9</v>
+      </c>
+      <c r="L26" s="3">
+        <v>1</v>
+      </c>
+      <c r="M26" s="3">
+        <v>1</v>
+      </c>
+      <c r="N26" s="3">
+        <v>2</v>
+      </c>
+      <c r="O26" s="4">
+        <v>25</v>
+      </c>
+      <c r="P26" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>4</v>
+      </c>
+      <c r="R26" s="2">
+        <v>10</v>
+      </c>
+      <c r="S26" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T26" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U26" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="V26" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+      <c r="X26" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ26" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL26" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM26" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>2</v>
+      </c>
+      <c r="AP26">
+        <v>0.05</v>
+      </c>
+      <c r="AQ26" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR26" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27" s="16">
+        <v>24</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>9</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1</v>
+      </c>
+      <c r="M27" s="3">
+        <v>1</v>
+      </c>
+      <c r="N27" s="3">
+        <v>2</v>
+      </c>
+      <c r="O27" s="4">
+        <v>25</v>
+      </c>
+      <c r="P27" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>4</v>
+      </c>
+      <c r="R27" s="2">
+        <v>10</v>
+      </c>
+      <c r="S27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T27" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="V27" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+      <c r="X27" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ27" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL27" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM27" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>2</v>
+      </c>
+      <c r="AP27">
+        <v>0.05</v>
+      </c>
+      <c r="AQ27" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR27" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E28" s="16">
+        <v>25</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K28" s="3">
+        <v>9</v>
+      </c>
+      <c r="L28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
+        <v>1</v>
+      </c>
+      <c r="N28" s="3">
+        <v>2</v>
+      </c>
+      <c r="O28" s="4">
+        <v>25</v>
+      </c>
+      <c r="P28" s="5">
+        <v>8</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>4</v>
+      </c>
+      <c r="R28" s="2">
+        <v>10</v>
+      </c>
+      <c r="S28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="T28" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="U28" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="V28" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>0</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>4</v>
+      </c>
+      <c r="AJ28" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>11</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>600</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>2</v>
+      </c>
+      <c r="AP28">
+        <v>0.05</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>600</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>600</v>
+      </c>
+      <c r="AS28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A24CCD6-7CD3-4505-8386-8389E0F5146D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A35148D-38C4-4ED5-9308-90C2E1F84DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="34695" windowHeight="12750" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="186">
   <si>
     <t>id</t>
   </si>
@@ -709,38 +709,34 @@
     <t>Sun2</t>
   </si>
   <si>
+    <t>선술1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선술2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선술0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방의 적 1명을 강하게 벤다</t>
+  </si>
+  <si>
+    <t>전방의 적 1명을 강하게 벤다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Sun3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Sun4</t>
-  </si>
-  <si>
-    <t>선술1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선술2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선술3</t>
-  </si>
-  <si>
-    <t>선술4</t>
-  </si>
-  <si>
-    <t>선술0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방의 적 1명을 강하게 벤다</t>
-  </si>
-  <si>
-    <t>전방의 적 1명을 강하게 벤다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +750,7 @@
     <numFmt numFmtId="178" formatCode="0.000%"/>
     <numFmt numFmtId="179" formatCode="0.00000000000000000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -794,8 +790,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -815,6 +819,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -907,7 +916,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,8 +929,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,14 +982,33 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="4" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="보통" xfId="2" builtinId="28"/>
     <cellStyle name="입력" xfId="3" builtinId="20"/>
+    <cellStyle name="좋음" xfId="4" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1292,8 +1323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AU28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4566,718 +4597,718 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="18">
+        <v>21</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19">
+        <v>0</v>
+      </c>
+      <c r="H24" s="19">
+        <v>1</v>
+      </c>
+      <c r="I24" s="19">
+        <v>0</v>
+      </c>
+      <c r="J24" s="19">
+        <v>1000</v>
+      </c>
+      <c r="K24" s="19">
+        <v>9</v>
+      </c>
+      <c r="L24" s="19">
+        <v>100</v>
+      </c>
+      <c r="M24" s="19">
+        <v>1</v>
+      </c>
+      <c r="N24" s="19">
+        <v>2</v>
+      </c>
+      <c r="O24" s="20">
+        <v>25</v>
+      </c>
+      <c r="P24" s="21">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>4</v>
+      </c>
+      <c r="R24" s="17">
+        <v>10</v>
+      </c>
+      <c r="S24" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T24" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="U24" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="V24" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="W24" s="17">
+        <v>0</v>
+      </c>
+      <c r="X24" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y24" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL24" s="17">
+        <v>11</v>
+      </c>
+      <c r="AM24" s="17">
+        <v>600</v>
+      </c>
+      <c r="AN24" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP24" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ24" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR24" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS24" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>23</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E25" s="18">
+        <v>22</v>
+      </c>
+      <c r="F25" s="19">
+        <v>1</v>
+      </c>
+      <c r="G25" s="19">
+        <v>0</v>
+      </c>
+      <c r="H25" s="19">
+        <v>1</v>
+      </c>
+      <c r="I25" s="19">
+        <v>0</v>
+      </c>
+      <c r="J25" s="19">
+        <v>1000</v>
+      </c>
+      <c r="K25" s="19">
+        <v>9</v>
+      </c>
+      <c r="L25" s="19">
+        <v>100</v>
+      </c>
+      <c r="M25" s="19">
+        <v>1</v>
+      </c>
+      <c r="N25" s="19">
+        <v>2</v>
+      </c>
+      <c r="O25" s="20">
+        <v>25</v>
+      </c>
+      <c r="P25" s="21">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>4</v>
+      </c>
+      <c r="R25" s="17">
+        <v>10</v>
+      </c>
+      <c r="S25" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="V25" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="W25" s="17">
+        <v>0</v>
+      </c>
+      <c r="X25" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y25" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ25" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL25" s="17">
+        <v>11</v>
+      </c>
+      <c r="AM25" s="17">
+        <v>600</v>
+      </c>
+      <c r="AN25" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP25" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ25" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR25" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS25" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU25" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>24</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E26" s="18">
+        <v>23</v>
+      </c>
+      <c r="F26" s="19">
+        <v>1</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <v>1</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19">
+        <v>1000</v>
+      </c>
+      <c r="K26" s="19">
+        <v>9</v>
+      </c>
+      <c r="L26" s="19">
+        <v>100</v>
+      </c>
+      <c r="M26" s="19">
+        <v>1</v>
+      </c>
+      <c r="N26" s="19">
+        <v>2</v>
+      </c>
+      <c r="O26" s="20">
+        <v>25</v>
+      </c>
+      <c r="P26" s="21">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="17">
+        <v>4</v>
+      </c>
+      <c r="R26" s="17">
+        <v>10</v>
+      </c>
+      <c r="S26" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="T26" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="U26" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="V26" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="W26" s="17">
+        <v>0</v>
+      </c>
+      <c r="X26" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y26" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ26" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL26" s="17">
+        <v>11</v>
+      </c>
+      <c r="AM26" s="17">
+        <v>600</v>
+      </c>
+      <c r="AN26" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO26" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP26" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ26" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR26" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS26" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU26" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="27" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>25</v>
+      </c>
+      <c r="B27" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E24" s="16">
-        <v>21</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
+      <c r="C27" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" s="18">
+        <v>23</v>
+      </c>
+      <c r="F27" s="19">
+        <v>1</v>
+      </c>
+      <c r="G27" s="19">
+        <v>0</v>
+      </c>
+      <c r="H27" s="19">
+        <v>1</v>
+      </c>
+      <c r="I27" s="19">
+        <v>0</v>
+      </c>
+      <c r="J27" s="19">
         <v>1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K27" s="19">
         <v>9</v>
       </c>
-      <c r="L24" s="3">
-        <v>1</v>
-      </c>
-      <c r="M24" s="3">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="L27" s="19">
+        <v>100</v>
+      </c>
+      <c r="M27" s="19">
+        <v>1</v>
+      </c>
+      <c r="N27" s="19">
         <v>2</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O27" s="20">
         <v>25</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P27" s="21">
         <v>8</v>
       </c>
-      <c r="Q24" s="2">
+      <c r="Q27" s="17">
         <v>4</v>
       </c>
-      <c r="R24" s="2">
+      <c r="R27" s="17">
         <v>10</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="S27" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="T24" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="U24" s="9" t="s">
+      <c r="T27" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="U27" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="V24" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="9" t="s">
+      <c r="V27" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="W27" s="17">
+        <v>0</v>
+      </c>
+      <c r="X27" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="2">
+      <c r="Y27" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="17">
         <v>4</v>
       </c>
-      <c r="AJ24" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK24" s="2" t="s">
+      <c r="AJ27" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AL24" s="2">
+      <c r="AL27" s="17">
         <v>11</v>
       </c>
-      <c r="AM24" s="2">
+      <c r="AM27" s="17">
         <v>600</v>
       </c>
-      <c r="AN24">
-        <v>1</v>
-      </c>
-      <c r="AO24">
+      <c r="AN27" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO27" s="17">
         <v>2</v>
       </c>
-      <c r="AP24">
+      <c r="AP27" s="17">
         <v>0.05</v>
       </c>
-      <c r="AQ24" s="2">
+      <c r="AQ27" s="17">
         <v>600</v>
       </c>
-      <c r="AR24" s="2">
+      <c r="AR27" s="17">
         <v>600</v>
       </c>
-      <c r="AS24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT24" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU24" t="s">
+      <c r="AS27" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="17" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="28" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>26</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="E28" s="18">
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" s="16">
-        <v>22</v>
-      </c>
-      <c r="F25" s="3">
-        <v>1</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>1</v>
-      </c>
-      <c r="I25" s="3">
-        <v>0</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="F28" s="19">
+        <v>1</v>
+      </c>
+      <c r="G28" s="19">
+        <v>0</v>
+      </c>
+      <c r="H28" s="19">
+        <v>1</v>
+      </c>
+      <c r="I28" s="19">
+        <v>0</v>
+      </c>
+      <c r="J28" s="19">
         <v>1000</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K28" s="19">
         <v>9</v>
       </c>
-      <c r="L25" s="3">
-        <v>1</v>
-      </c>
-      <c r="M25" s="3">
-        <v>1</v>
-      </c>
-      <c r="N25" s="3">
+      <c r="L28" s="19">
+        <v>100</v>
+      </c>
+      <c r="M28" s="19">
+        <v>1</v>
+      </c>
+      <c r="N28" s="19">
         <v>2</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O28" s="20">
         <v>25</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P28" s="21">
         <v>8</v>
       </c>
-      <c r="Q25" s="2">
+      <c r="Q28" s="17">
         <v>4</v>
       </c>
-      <c r="R25" s="2">
+      <c r="R28" s="17">
         <v>10</v>
       </c>
-      <c r="S25" s="9" t="s">
+      <c r="S28" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="T25" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="U25" s="9" t="s">
+      <c r="T28" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="U28" s="22" t="s">
         <v>154</v>
       </c>
-      <c r="V25" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="W25" s="2">
-        <v>0</v>
-      </c>
-      <c r="X25" s="9" t="s">
+      <c r="V28" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="W28" s="17">
+        <v>0</v>
+      </c>
+      <c r="X28" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="2">
+      <c r="Y28" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="17">
         <v>4</v>
       </c>
-      <c r="AJ25" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK25" s="2" t="s">
+      <c r="AJ28" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="AL25" s="2">
+      <c r="AL28" s="17">
         <v>11</v>
       </c>
-      <c r="AM25" s="2">
+      <c r="AM28" s="17">
         <v>600</v>
       </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
+      <c r="AN28" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="17">
         <v>2</v>
       </c>
-      <c r="AP25">
+      <c r="AP28" s="17">
         <v>0.05</v>
       </c>
-      <c r="AQ25" s="2">
+      <c r="AQ28" s="17">
         <v>600</v>
       </c>
-      <c r="AR25" s="2">
+      <c r="AR28" s="17">
         <v>600</v>
       </c>
-      <c r="AS25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT25" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU25" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E26" s="16">
-        <v>23</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>1</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K26" s="3">
-        <v>9</v>
-      </c>
-      <c r="L26" s="3">
-        <v>1</v>
-      </c>
-      <c r="M26" s="3">
-        <v>1</v>
-      </c>
-      <c r="N26" s="3">
-        <v>2</v>
-      </c>
-      <c r="O26" s="4">
-        <v>25</v>
-      </c>
-      <c r="P26" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>4</v>
-      </c>
-      <c r="R26" s="2">
-        <v>10</v>
-      </c>
-      <c r="S26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="W26" s="2">
-        <v>0</v>
-      </c>
-      <c r="X26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="2">
-        <v>4</v>
-      </c>
-      <c r="AJ26" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL26" s="2">
-        <v>11</v>
-      </c>
-      <c r="AM26" s="2">
-        <v>600</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>2</v>
-      </c>
-      <c r="AP26">
-        <v>0.05</v>
-      </c>
-      <c r="AQ26" s="2">
-        <v>600</v>
-      </c>
-      <c r="AR26" s="2">
-        <v>600</v>
-      </c>
-      <c r="AS26" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT26" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU26" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E27" s="16">
-        <v>24</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>1</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K27" s="3">
-        <v>9</v>
-      </c>
-      <c r="L27" s="3">
-        <v>1</v>
-      </c>
-      <c r="M27" s="3">
-        <v>1</v>
-      </c>
-      <c r="N27" s="3">
-        <v>2</v>
-      </c>
-      <c r="O27" s="4">
-        <v>25</v>
-      </c>
-      <c r="P27" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>4</v>
-      </c>
-      <c r="R27" s="2">
-        <v>10</v>
-      </c>
-      <c r="S27" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T27" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="U27" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="V27" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="W27" s="2">
-        <v>0</v>
-      </c>
-      <c r="X27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="2">
-        <v>4</v>
-      </c>
-      <c r="AJ27" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL27" s="2">
-        <v>11</v>
-      </c>
-      <c r="AM27" s="2">
-        <v>600</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>2</v>
-      </c>
-      <c r="AP27">
-        <v>0.05</v>
-      </c>
-      <c r="AQ27" s="2">
-        <v>600</v>
-      </c>
-      <c r="AR27" s="2">
-        <v>600</v>
-      </c>
-      <c r="AS27" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E28" s="16">
-        <v>25</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>1</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1000</v>
-      </c>
-      <c r="K28" s="3">
-        <v>9</v>
-      </c>
-      <c r="L28" s="3">
-        <v>1</v>
-      </c>
-      <c r="M28" s="3">
-        <v>1</v>
-      </c>
-      <c r="N28" s="3">
-        <v>2</v>
-      </c>
-      <c r="O28" s="4">
-        <v>25</v>
-      </c>
-      <c r="P28" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>4</v>
-      </c>
-      <c r="R28" s="2">
-        <v>10</v>
-      </c>
-      <c r="S28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T28" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="V28" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="W28" s="2">
-        <v>0</v>
-      </c>
-      <c r="X28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="2">
-        <v>4</v>
-      </c>
-      <c r="AJ28" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL28" s="2">
-        <v>11</v>
-      </c>
-      <c r="AM28" s="2">
-        <v>600</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>2</v>
-      </c>
-      <c r="AP28">
-        <v>0.05</v>
-      </c>
-      <c r="AQ28" s="2">
-        <v>600</v>
-      </c>
-      <c r="AR28" s="2">
-        <v>600</v>
-      </c>
-      <c r="AS28" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU28" t="s">
+      <c r="AS28" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="17" t="s">
         <v>164</v>
       </c>
     </row>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A35148D-38C4-4ED5-9308-90C2E1F84DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8171BDE1-202B-4E03-AC50-3BE1DA9B9E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -709,25 +709,6 @@
     <t>Sun2</t>
   </si>
   <si>
-    <t>선술1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선술2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선술0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전방의 적 1명을 강하게 벤다</t>
-  </si>
-  <si>
-    <t>전방의 적 1명을 강하게 벤다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -737,6 +718,26 @@
   </si>
   <si>
     <t>Sun4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선검 1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선검 2형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선검 3형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선검 4형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신선검 5형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -933,7 +934,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,12 +990,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
@@ -1324,7 +1319,7 @@
   <dimension ref="A1:AU28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4605,46 +4600,46 @@
         <v>175</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>182</v>
+        <v>181</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E24" s="18">
         <v>21</v>
       </c>
-      <c r="F24" s="19">
-        <v>1</v>
-      </c>
-      <c r="G24" s="19">
-        <v>0</v>
-      </c>
-      <c r="H24" s="19">
-        <v>1</v>
-      </c>
-      <c r="I24" s="19">
-        <v>0</v>
-      </c>
-      <c r="J24" s="19">
-        <v>1000</v>
-      </c>
-      <c r="K24" s="19">
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K24" s="3">
+        <v>10</v>
+      </c>
+      <c r="L24" s="3">
+        <v>100</v>
+      </c>
+      <c r="M24" s="3">
         <v>9</v>
       </c>
-      <c r="L24" s="19">
-        <v>100</v>
-      </c>
-      <c r="M24" s="19">
-        <v>1</v>
-      </c>
-      <c r="N24" s="19">
+      <c r="N24" s="3">
         <v>2</v>
       </c>
-      <c r="O24" s="20">
+      <c r="O24" s="4">
         <v>25</v>
       </c>
-      <c r="P24" s="21">
-        <v>8</v>
+      <c r="P24" s="19">
+        <v>9</v>
       </c>
       <c r="Q24" s="17">
         <v>4</v>
@@ -4652,22 +4647,22 @@
       <c r="R24" s="17">
         <v>10</v>
       </c>
-      <c r="S24" s="22" t="s">
+      <c r="S24" s="20" t="s">
         <v>31</v>
       </c>
       <c r="T24" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="U24" s="22" t="s">
+      <c r="U24" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="V24" s="22" t="s">
-        <v>183</v>
+      <c r="V24" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="W24" s="17">
         <v>0</v>
       </c>
-      <c r="X24" s="22" t="s">
+      <c r="X24" s="20" t="s">
         <v>55</v>
       </c>
       <c r="Y24" s="17">
@@ -4748,46 +4743,46 @@
         <v>176</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="D25" s="19" t="s">
         <v>182</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E25" s="18">
         <v>22</v>
       </c>
-      <c r="F25" s="19">
-        <v>1</v>
-      </c>
-      <c r="G25" s="19">
-        <v>0</v>
-      </c>
-      <c r="H25" s="19">
-        <v>1</v>
-      </c>
-      <c r="I25" s="19">
-        <v>0</v>
-      </c>
-      <c r="J25" s="19">
-        <v>1000</v>
-      </c>
-      <c r="K25" s="19">
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K25" s="3">
+        <v>11</v>
+      </c>
+      <c r="L25" s="3">
+        <v>100</v>
+      </c>
+      <c r="M25" s="3">
         <v>9</v>
       </c>
-      <c r="L25" s="19">
-        <v>100</v>
-      </c>
-      <c r="M25" s="19">
-        <v>1</v>
-      </c>
-      <c r="N25" s="19">
+      <c r="N25" s="3">
         <v>2</v>
       </c>
-      <c r="O25" s="20">
+      <c r="O25" s="4">
         <v>25</v>
       </c>
-      <c r="P25" s="21">
-        <v>8</v>
+      <c r="P25" s="19">
+        <v>9</v>
       </c>
       <c r="Q25" s="17">
         <v>4</v>
@@ -4795,22 +4790,22 @@
       <c r="R25" s="17">
         <v>10</v>
       </c>
-      <c r="S25" s="22" t="s">
+      <c r="S25" s="20" t="s">
         <v>31</v>
       </c>
       <c r="T25" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="U25" s="22" t="s">
+      <c r="U25" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="V25" s="22" t="s">
-        <v>183</v>
+      <c r="V25" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="W25" s="17">
         <v>0</v>
       </c>
-      <c r="X25" s="22" t="s">
+      <c r="X25" s="20" t="s">
         <v>55</v>
       </c>
       <c r="Y25" s="17">
@@ -4891,46 +4886,46 @@
         <v>177</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E26" s="18">
         <v>23</v>
       </c>
-      <c r="F26" s="19">
-        <v>1</v>
-      </c>
-      <c r="G26" s="19">
-        <v>0</v>
-      </c>
-      <c r="H26" s="19">
-        <v>1</v>
-      </c>
-      <c r="I26" s="19">
-        <v>0</v>
-      </c>
-      <c r="J26" s="19">
-        <v>1000</v>
-      </c>
-      <c r="K26" s="19">
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1</v>
+      </c>
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>12</v>
+      </c>
+      <c r="L26" s="3">
+        <v>100</v>
+      </c>
+      <c r="M26" s="3">
         <v>9</v>
       </c>
-      <c r="L26" s="19">
-        <v>100</v>
-      </c>
-      <c r="M26" s="19">
-        <v>1</v>
-      </c>
-      <c r="N26" s="19">
+      <c r="N26" s="3">
         <v>2</v>
       </c>
-      <c r="O26" s="20">
+      <c r="O26" s="4">
         <v>25</v>
       </c>
-      <c r="P26" s="21">
-        <v>8</v>
+      <c r="P26" s="19">
+        <v>9</v>
       </c>
       <c r="Q26" s="17">
         <v>4</v>
@@ -4938,22 +4933,22 @@
       <c r="R26" s="17">
         <v>10</v>
       </c>
-      <c r="S26" s="22" t="s">
+      <c r="S26" s="20" t="s">
         <v>31</v>
       </c>
       <c r="T26" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="U26" s="22" t="s">
+      <c r="U26" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="V26" s="22" t="s">
-        <v>183</v>
+      <c r="V26" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="W26" s="17">
         <v>0</v>
       </c>
-      <c r="X26" s="22" t="s">
+      <c r="X26" s="20" t="s">
         <v>55</v>
       </c>
       <c r="Y26" s="17">
@@ -5031,49 +5026,49 @@
         <v>25</v>
       </c>
       <c r="B27" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="C27" s="18" t="s">
         <v>184</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>181</v>
+      <c r="D27" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E27" s="18">
-        <v>23</v>
-      </c>
-      <c r="F27" s="19">
-        <v>1</v>
-      </c>
-      <c r="G27" s="19">
-        <v>0</v>
-      </c>
-      <c r="H27" s="19">
-        <v>1</v>
-      </c>
-      <c r="I27" s="19">
-        <v>0</v>
-      </c>
-      <c r="J27" s="19">
-        <v>1000</v>
-      </c>
-      <c r="K27" s="19">
+        <v>24</v>
+      </c>
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K27" s="3">
+        <v>13</v>
+      </c>
+      <c r="L27" s="3">
+        <v>100</v>
+      </c>
+      <c r="M27" s="3">
         <v>9</v>
       </c>
-      <c r="L27" s="19">
-        <v>100</v>
-      </c>
-      <c r="M27" s="19">
-        <v>1</v>
-      </c>
-      <c r="N27" s="19">
+      <c r="N27" s="3">
         <v>2</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="4">
         <v>25</v>
       </c>
-      <c r="P27" s="21">
-        <v>8</v>
+      <c r="P27" s="19">
+        <v>9</v>
       </c>
       <c r="Q27" s="17">
         <v>4</v>
@@ -5081,22 +5076,22 @@
       <c r="R27" s="17">
         <v>10</v>
       </c>
-      <c r="S27" s="22" t="s">
+      <c r="S27" s="20" t="s">
         <v>31</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="U27" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="U27" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="V27" s="22" t="s">
-        <v>183</v>
+      <c r="V27" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="W27" s="17">
         <v>0</v>
       </c>
-      <c r="X27" s="22" t="s">
+      <c r="X27" s="20" t="s">
         <v>55</v>
       </c>
       <c r="Y27" s="17">
@@ -5174,49 +5169,49 @@
         <v>26</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>181</v>
+      <c r="D28" s="3" t="s">
+        <v>157</v>
       </c>
       <c r="E28" s="18">
-        <v>23</v>
-      </c>
-      <c r="F28" s="19">
-        <v>1</v>
-      </c>
-      <c r="G28" s="19">
-        <v>0</v>
-      </c>
-      <c r="H28" s="19">
-        <v>1</v>
-      </c>
-      <c r="I28" s="19">
-        <v>0</v>
-      </c>
-      <c r="J28" s="19">
-        <v>1000</v>
-      </c>
-      <c r="K28" s="19">
+        <v>25</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K28" s="3">
+        <v>14</v>
+      </c>
+      <c r="L28" s="3">
+        <v>100</v>
+      </c>
+      <c r="M28" s="3">
         <v>9</v>
       </c>
-      <c r="L28" s="19">
-        <v>100</v>
-      </c>
-      <c r="M28" s="19">
-        <v>1</v>
-      </c>
-      <c r="N28" s="19">
+      <c r="N28" s="3">
         <v>2</v>
       </c>
-      <c r="O28" s="20">
+      <c r="O28" s="4">
         <v>25</v>
       </c>
-      <c r="P28" s="21">
-        <v>8</v>
+      <c r="P28" s="19">
+        <v>9</v>
       </c>
       <c r="Q28" s="17">
         <v>4</v>
@@ -5224,22 +5219,22 @@
       <c r="R28" s="17">
         <v>10</v>
       </c>
-      <c r="S28" s="22" t="s">
+      <c r="S28" s="20" t="s">
         <v>31</v>
       </c>
       <c r="T28" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="U28" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="U28" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="V28" s="22" t="s">
-        <v>183</v>
+      <c r="V28" s="20" t="s">
+        <v>178</v>
       </c>
       <c r="W28" s="17">
         <v>0</v>
       </c>
-      <c r="X28" s="22" t="s">
+      <c r="X28" s="20" t="s">
         <v>55</v>
       </c>
       <c r="Y28" s="17">

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8171BDE1-202B-4E03-AC50-3BE1DA9B9E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94CE219-AE12-42B3-9588-771122ECD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="196">
   <si>
     <t>id</t>
   </si>
@@ -739,6 +739,38 @@
   <si>
     <t>신선검 5형</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chun0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chun1</t>
+  </si>
+  <si>
+    <t>Chun2</t>
+  </si>
+  <si>
+    <t>Chun3</t>
+  </si>
+  <si>
+    <t>Chun4</t>
+  </si>
+  <si>
+    <t>천계검 1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>천계검 2형</t>
+  </si>
+  <si>
+    <t>천계검 3형</t>
+  </si>
+  <si>
+    <t>천계검 4형</t>
+  </si>
+  <si>
+    <t>천계검 5형</t>
   </si>
 </sst>
 </file>
@@ -1316,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AU28"/>
+  <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="Y9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29:T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5307,6 +5339,721 @@
         <v>164</v>
       </c>
     </row>
+    <row r="29" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>27</v>
+      </c>
+      <c r="B29" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E29" s="18">
+        <v>26</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K29" s="3">
+        <v>15</v>
+      </c>
+      <c r="L29" s="3">
+        <v>100</v>
+      </c>
+      <c r="M29" s="3">
+        <v>9</v>
+      </c>
+      <c r="N29" s="3">
+        <v>2</v>
+      </c>
+      <c r="O29" s="4">
+        <v>25</v>
+      </c>
+      <c r="P29" s="19">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="17">
+        <v>4</v>
+      </c>
+      <c r="R29" s="17">
+        <v>10</v>
+      </c>
+      <c r="S29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T29" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="U29" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="V29" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="W29" s="17">
+        <v>0</v>
+      </c>
+      <c r="X29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y29" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ29" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL29" s="17">
+        <v>11</v>
+      </c>
+      <c r="AM29" s="17">
+        <v>600</v>
+      </c>
+      <c r="AN29" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP29" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ29" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR29" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS29" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>28</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E30" s="18">
+        <v>27</v>
+      </c>
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K30" s="3">
+        <v>16</v>
+      </c>
+      <c r="L30" s="3">
+        <v>100</v>
+      </c>
+      <c r="M30" s="3">
+        <v>9</v>
+      </c>
+      <c r="N30" s="3">
+        <v>2</v>
+      </c>
+      <c r="O30" s="4">
+        <v>25</v>
+      </c>
+      <c r="P30" s="19">
+        <v>9</v>
+      </c>
+      <c r="Q30" s="17">
+        <v>4</v>
+      </c>
+      <c r="R30" s="17">
+        <v>10</v>
+      </c>
+      <c r="S30" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T30" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="U30" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="V30" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="W30" s="17">
+        <v>0</v>
+      </c>
+      <c r="X30" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y30" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ30" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL30" s="17">
+        <v>11</v>
+      </c>
+      <c r="AM30" s="17">
+        <v>600</v>
+      </c>
+      <c r="AN30" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO30" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP30" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ30" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR30" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS30" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>29</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="18">
+        <v>28</v>
+      </c>
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K31" s="3">
+        <v>17</v>
+      </c>
+      <c r="L31" s="3">
+        <v>100</v>
+      </c>
+      <c r="M31" s="3">
+        <v>9</v>
+      </c>
+      <c r="N31" s="3">
+        <v>2</v>
+      </c>
+      <c r="O31" s="4">
+        <v>25</v>
+      </c>
+      <c r="P31" s="19">
+        <v>9</v>
+      </c>
+      <c r="Q31" s="17">
+        <v>4</v>
+      </c>
+      <c r="R31" s="17">
+        <v>10</v>
+      </c>
+      <c r="S31" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T31" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="U31" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="V31" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="W31" s="17">
+        <v>0</v>
+      </c>
+      <c r="X31" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y31" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ31" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL31" s="17">
+        <v>11</v>
+      </c>
+      <c r="AM31" s="17">
+        <v>600</v>
+      </c>
+      <c r="AN31" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO31" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP31" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ31" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR31" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS31" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>30</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E32" s="18">
+        <v>29</v>
+      </c>
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K32" s="3">
+        <v>18</v>
+      </c>
+      <c r="L32" s="3">
+        <v>100</v>
+      </c>
+      <c r="M32" s="3">
+        <v>9</v>
+      </c>
+      <c r="N32" s="3">
+        <v>2</v>
+      </c>
+      <c r="O32" s="4">
+        <v>25</v>
+      </c>
+      <c r="P32" s="19">
+        <v>9</v>
+      </c>
+      <c r="Q32" s="17">
+        <v>4</v>
+      </c>
+      <c r="R32" s="17">
+        <v>10</v>
+      </c>
+      <c r="S32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T32" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="U32" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="V32" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="W32" s="17">
+        <v>0</v>
+      </c>
+      <c r="X32" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y32" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ32" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL32" s="17">
+        <v>11</v>
+      </c>
+      <c r="AM32" s="17">
+        <v>600</v>
+      </c>
+      <c r="AN32" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO32" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP32" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ32" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR32" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS32" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>31</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E33" s="18">
+        <v>30</v>
+      </c>
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K33" s="3">
+        <v>19</v>
+      </c>
+      <c r="L33" s="3">
+        <v>100</v>
+      </c>
+      <c r="M33" s="3">
+        <v>9</v>
+      </c>
+      <c r="N33" s="3">
+        <v>2</v>
+      </c>
+      <c r="O33" s="4">
+        <v>25</v>
+      </c>
+      <c r="P33" s="19">
+        <v>9</v>
+      </c>
+      <c r="Q33" s="17">
+        <v>4</v>
+      </c>
+      <c r="R33" s="17">
+        <v>10</v>
+      </c>
+      <c r="S33" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T33" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="U33" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="V33" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="W33" s="17">
+        <v>0</v>
+      </c>
+      <c r="X33" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y33" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ33" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL33" s="17">
+        <v>11</v>
+      </c>
+      <c r="AM33" s="17">
+        <v>600</v>
+      </c>
+      <c r="AN33" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO33" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP33" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ33" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR33" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS33" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94CE219-AE12-42B3-9588-771122ECD085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5255D146-0411-4268-B839-B19EC47710F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="197">
   <si>
     <t>id</t>
   </si>
@@ -771,6 +771,10 @@
   </si>
   <si>
     <t>천계검 5형</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1350,8 +1354,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29:T33"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="Y1" sqref="Y1"/>
+      <selection pane="bottomLeft" activeCell="V32" sqref="V32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5386,7 +5392,7 @@
         <v>25</v>
       </c>
       <c r="P29" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="17">
         <v>4</v>
@@ -5404,7 +5410,7 @@
         <v>154</v>
       </c>
       <c r="V29" s="20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="W29" s="17">
         <v>0</v>
@@ -5529,7 +5535,7 @@
         <v>25</v>
       </c>
       <c r="P30" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q30" s="17">
         <v>4</v>
@@ -5547,7 +5553,7 @@
         <v>154</v>
       </c>
       <c r="V30" s="20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="W30" s="17">
         <v>0</v>
@@ -5672,7 +5678,7 @@
         <v>25</v>
       </c>
       <c r="P31" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q31" s="17">
         <v>4</v>
@@ -5690,7 +5696,7 @@
         <v>154</v>
       </c>
       <c r="V31" s="20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="W31" s="17">
         <v>0</v>
@@ -5815,7 +5821,7 @@
         <v>25</v>
       </c>
       <c r="P32" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q32" s="17">
         <v>4</v>
@@ -5833,7 +5839,7 @@
         <v>154</v>
       </c>
       <c r="V32" s="20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="W32" s="17">
         <v>0</v>
@@ -5958,7 +5964,7 @@
         <v>25</v>
       </c>
       <c r="P33" s="19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q33" s="17">
         <v>4</v>
@@ -5976,7 +5982,7 @@
         <v>154</v>
       </c>
       <c r="V33" s="20" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="W33" s="17">
         <v>0</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5255D146-0411-4268-B839-B19EC47710F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFBC3C-1554-4DFB-B122-B44CDB711F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1354,10 +1354,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="V32" sqref="V32"/>
+      <selection pane="bottomLeft" activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1387,6 +1387,7 @@
     <col min="25" max="25" width="14.75" customWidth="1"/>
     <col min="26" max="26" width="15.125" customWidth="1"/>
     <col min="27" max="27" width="18.125" customWidth="1"/>
+    <col min="38" max="38" width="13.75" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17.625" customWidth="1"/>
     <col min="41" max="41" width="20" customWidth="1"/>
     <col min="42" max="42" width="27.5" customWidth="1"/>
@@ -5458,10 +5459,10 @@
         <v>76</v>
       </c>
       <c r="AL29" s="17">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AM29" s="17">
-        <v>600</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AN29" s="17">
         <v>1</v>
@@ -5601,10 +5602,10 @@
         <v>76</v>
       </c>
       <c r="AL30" s="17">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AM30" s="17">
-        <v>600</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AN30" s="17">
         <v>1</v>
@@ -5744,10 +5745,10 @@
         <v>76</v>
       </c>
       <c r="AL31" s="17">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AM31" s="17">
-        <v>600</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AN31" s="17">
         <v>1</v>
@@ -5887,10 +5888,10 @@
         <v>76</v>
       </c>
       <c r="AL32" s="17">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AM32" s="17">
-        <v>600</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AN32" s="17">
         <v>1</v>
@@ -6030,10 +6031,10 @@
         <v>76</v>
       </c>
       <c r="AL33" s="17">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AM33" s="17">
-        <v>600</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AN33" s="17">
         <v>1</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFBC3C-1554-4DFB-B122-B44CDB711F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C82F5F-855B-495B-97D4-4381DE44EEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1354,10 +1354,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AM29" sqref="AM29"/>
+      <selection pane="bottomLeft" activeCell="AK29" sqref="AK29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5453,7 +5453,7 @@
         <v>4</v>
       </c>
       <c r="AJ29" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK29" s="17" t="s">
         <v>76</v>
@@ -5596,7 +5596,7 @@
         <v>4</v>
       </c>
       <c r="AJ30" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="17" t="s">
         <v>76</v>
@@ -5739,7 +5739,7 @@
         <v>4</v>
       </c>
       <c r="AJ31" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="17" t="s">
         <v>76</v>
@@ -5882,7 +5882,7 @@
         <v>4</v>
       </c>
       <c r="AJ32" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK32" s="17" t="s">
         <v>76</v>
@@ -6025,7 +6025,7 @@
         <v>4</v>
       </c>
       <c r="AJ33" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK33" s="17" t="s">
         <v>76</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9C82F5F-855B-495B-97D4-4381DE44EEE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A9F0D7-CB0B-4838-B1D5-7EF0EB30FE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1354,10 +1354,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AK29" sqref="AK29"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A9F0D7-CB0B-4838-B1D5-7EF0EB30FE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A735161-D86E-4BBB-9043-DD2290366F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5070" yWindow="1200" windowWidth="27660" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1354,10 +1354,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomLeft" activeCell="AM30" sqref="AM30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1388,6 +1388,7 @@
     <col min="26" max="26" width="15.125" customWidth="1"/>
     <col min="27" max="27" width="18.125" customWidth="1"/>
     <col min="38" max="38" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17.625" customWidth="1"/>
     <col min="41" max="41" width="20" customWidth="1"/>
     <col min="42" max="42" width="27.5" customWidth="1"/>
@@ -5462,7 +5463,7 @@
         <v>38</v>
       </c>
       <c r="AM29" s="17">
-        <v>1.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="AN29" s="17">
         <v>1</v>
@@ -5605,7 +5606,7 @@
         <v>38</v>
       </c>
       <c r="AM30" s="17">
-        <v>1.0000000000000001E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="AN30" s="17">
         <v>1</v>
@@ -5748,7 +5749,7 @@
         <v>38</v>
       </c>
       <c r="AM31" s="17">
-        <v>1.0000000000000001E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="AN31" s="17">
         <v>1</v>
@@ -5891,7 +5892,7 @@
         <v>38</v>
       </c>
       <c r="AM32" s="17">
-        <v>1.0000000000000001E-5</v>
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="AN32" s="17">
         <v>1</v>
@@ -6034,7 +6035,7 @@
         <v>38</v>
       </c>
       <c r="AM33" s="17">
-        <v>1.0000000000000001E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="AN33" s="17">
         <v>1</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A735161-D86E-4BBB-9043-DD2290366F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C702EFAE-FA26-479F-9A53-BE4AA15F7B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1200" windowWidth="27660" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="795" yWindow="1800" windowWidth="37605" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1354,10 +1354,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:AU33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AM30" sqref="AM30"/>
+      <selection pane="bottomLeft" activeCell="AM29" sqref="AM29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5463,7 +5463,7 @@
         <v>38</v>
       </c>
       <c r="AM29" s="17">
-        <v>2.0000000000000002E-5</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AN29" s="17">
         <v>1</v>
@@ -5606,7 +5606,7 @@
         <v>38</v>
       </c>
       <c r="AM30" s="17">
-        <v>2.5000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="AN30" s="17">
         <v>1</v>
@@ -5892,7 +5892,7 @@
         <v>38</v>
       </c>
       <c r="AM32" s="17">
-        <v>3.4999999999999997E-5</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="AN32" s="17">
         <v>1</v>
@@ -6035,7 +6035,7 @@
         <v>38</v>
       </c>
       <c r="AM33" s="17">
-        <v>4.0000000000000003E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="AN33" s="17">
         <v>1</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C702EFAE-FA26-479F-9A53-BE4AA15F7B5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862AEF3E-3BD0-4E7B-893D-2DB0493AA6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1800" windowWidth="37605" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="208">
   <si>
     <t>id</t>
   </si>
@@ -774,6 +774,42 @@
   </si>
   <si>
     <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DokebiSkill0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DokebiSkill1</t>
+  </si>
+  <si>
+    <t>DokebiSkill2</t>
+  </si>
+  <si>
+    <t>DokebiSkill3</t>
+  </si>
+  <si>
+    <t>DokebiSkill4</t>
+  </si>
+  <si>
+    <t>도깨비검 1형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도깨비검 2형</t>
+  </si>
+  <si>
+    <t>도깨비검 3형</t>
+  </si>
+  <si>
+    <t>도깨비검 4형</t>
+  </si>
+  <si>
+    <t>도깨비검 5형</t>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1352,12 +1388,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AU33"/>
+  <dimension ref="A1:AU38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AM29" sqref="AM29"/>
+      <selection pane="bottomLeft" activeCell="AL31" sqref="AL31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6062,6 +6098,721 @@
         <v>164</v>
       </c>
     </row>
+    <row r="34" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>32</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E34" s="18">
+        <v>31</v>
+      </c>
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+      <c r="H34" s="3">
+        <v>1</v>
+      </c>
+      <c r="I34" s="3">
+        <v>0</v>
+      </c>
+      <c r="J34" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K34" s="3">
+        <v>20</v>
+      </c>
+      <c r="L34" s="3">
+        <v>100</v>
+      </c>
+      <c r="M34" s="3">
+        <v>9</v>
+      </c>
+      <c r="N34" s="3">
+        <v>2</v>
+      </c>
+      <c r="O34" s="4">
+        <v>25</v>
+      </c>
+      <c r="P34" s="19">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="17">
+        <v>4</v>
+      </c>
+      <c r="R34" s="17">
+        <v>10</v>
+      </c>
+      <c r="S34" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T34" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="U34" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="V34" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="W34" s="17">
+        <v>0</v>
+      </c>
+      <c r="X34" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y34" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ34" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL34" s="17">
+        <v>40</v>
+      </c>
+      <c r="AM34" s="17">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="AN34" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP34" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ34" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR34" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS34" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>33</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="18">
+        <v>32</v>
+      </c>
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>1</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K35" s="3">
+        <v>21</v>
+      </c>
+      <c r="L35" s="3">
+        <v>100</v>
+      </c>
+      <c r="M35" s="3">
+        <v>9</v>
+      </c>
+      <c r="N35" s="3">
+        <v>2</v>
+      </c>
+      <c r="O35" s="4">
+        <v>25</v>
+      </c>
+      <c r="P35" s="19">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="17">
+        <v>4</v>
+      </c>
+      <c r="R35" s="17">
+        <v>10</v>
+      </c>
+      <c r="S35" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T35" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="U35" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="V35" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="W35" s="17">
+        <v>0</v>
+      </c>
+      <c r="X35" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y35" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ35" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL35" s="17">
+        <v>40</v>
+      </c>
+      <c r="AM35" s="17">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="AN35" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO35" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP35" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ35" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR35" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS35" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>34</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="18">
+        <v>33</v>
+      </c>
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>1</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K36" s="3">
+        <v>22</v>
+      </c>
+      <c r="L36" s="3">
+        <v>100</v>
+      </c>
+      <c r="M36" s="3">
+        <v>9</v>
+      </c>
+      <c r="N36" s="3">
+        <v>2</v>
+      </c>
+      <c r="O36" s="4">
+        <v>25</v>
+      </c>
+      <c r="P36" s="19">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="17">
+        <v>4</v>
+      </c>
+      <c r="R36" s="17">
+        <v>10</v>
+      </c>
+      <c r="S36" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T36" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="U36" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="V36" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="W36" s="17">
+        <v>0</v>
+      </c>
+      <c r="X36" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y36" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ36" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL36" s="17">
+        <v>40</v>
+      </c>
+      <c r="AM36" s="17">
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="AN36" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP36" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ36" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR36" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>35</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="18">
+        <v>34</v>
+      </c>
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K37" s="3">
+        <v>23</v>
+      </c>
+      <c r="L37" s="3">
+        <v>100</v>
+      </c>
+      <c r="M37" s="3">
+        <v>9</v>
+      </c>
+      <c r="N37" s="3">
+        <v>2</v>
+      </c>
+      <c r="O37" s="4">
+        <v>25</v>
+      </c>
+      <c r="P37" s="19">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="17">
+        <v>4</v>
+      </c>
+      <c r="R37" s="17">
+        <v>10</v>
+      </c>
+      <c r="S37" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T37" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="U37" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="V37" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="W37" s="17">
+        <v>0</v>
+      </c>
+      <c r="X37" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y37" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ37" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL37" s="17">
+        <v>40</v>
+      </c>
+      <c r="AM37" s="17">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="AN37" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP37" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ37" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR37" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS37" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <v>36</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E38" s="18">
+        <v>35</v>
+      </c>
+      <c r="F38" s="3">
+        <v>1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K38" s="3">
+        <v>24</v>
+      </c>
+      <c r="L38" s="3">
+        <v>100</v>
+      </c>
+      <c r="M38" s="3">
+        <v>9</v>
+      </c>
+      <c r="N38" s="3">
+        <v>2</v>
+      </c>
+      <c r="O38" s="4">
+        <v>25</v>
+      </c>
+      <c r="P38" s="19">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="17">
+        <v>4</v>
+      </c>
+      <c r="R38" s="17">
+        <v>10</v>
+      </c>
+      <c r="S38" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="U38" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="V38" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="W38" s="17">
+        <v>0</v>
+      </c>
+      <c r="X38" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y38" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ38" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK38" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL38" s="17">
+        <v>40</v>
+      </c>
+      <c r="AM38" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="AN38" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP38" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ38" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR38" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="17">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862AEF3E-3BD0-4E7B-893D-2DB0493AA6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9488C858-9255-459B-AA78-76E7CB9E226C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1393,7 +1393,7 @@
     <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AL31" sqref="AL31"/>
+      <selection pane="bottomLeft" activeCell="AM34" sqref="AM34:AM38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1424,7 +1424,7 @@
     <col min="26" max="26" width="15.125" customWidth="1"/>
     <col min="27" max="27" width="18.125" customWidth="1"/>
     <col min="38" max="38" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="24.25" customWidth="1"/>
     <col min="40" max="40" width="17.625" customWidth="1"/>
     <col min="41" max="41" width="20" customWidth="1"/>
     <col min="42" max="42" width="27.5" customWidth="1"/>
@@ -6357,7 +6357,7 @@
         <v>40</v>
       </c>
       <c r="AM35" s="17">
-        <v>2.0000000000000002E-5</v>
+        <v>1.5E-5</v>
       </c>
       <c r="AN35" s="17">
         <v>1</v>
@@ -6500,7 +6500,7 @@
         <v>40</v>
       </c>
       <c r="AM36" s="17">
-        <v>3.0000000000000001E-5</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="AN36" s="17">
         <v>1</v>
@@ -6643,7 +6643,7 @@
         <v>40</v>
       </c>
       <c r="AM37" s="17">
-        <v>4.0000000000000003E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="AN37" s="17">
         <v>1</v>
@@ -6786,7 +6786,7 @@
         <v>40</v>
       </c>
       <c r="AM38" s="17">
-        <v>5.0000000000000002E-5</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="AN38" s="17">
         <v>1</v>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9488C858-9255-459B-AA78-76E7CB9E226C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568AE04A-BE79-419F-AEFD-AFE4F47721EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="224">
   <si>
     <t>id</t>
   </si>
@@ -552,10 +552,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IsSonSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SonUnlockLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -810,6 +806,63 @@
   </si>
   <si>
     <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FourSkill0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FourSkill1</t>
+  </si>
+  <si>
+    <t>FourSkill2</t>
+  </si>
+  <si>
+    <t>FourSkill3</t>
+  </si>
+  <si>
+    <t>사천왕 스킬0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사천왕 스킬1</t>
+  </si>
+  <si>
+    <t>사천왕 스킬2</t>
+  </si>
+  <si>
+    <t>사천왕 스킬3</t>
+  </si>
+  <si>
+    <t>circle1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>i0</t>
+  </si>
+  <si>
+    <t>SkillCastType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+  </si>
+  <si>
+    <t>Son</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Four</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1380,7 +1433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1388,12 +1441,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:AU38"/>
+  <dimension ref="A1:AU42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="AM34" sqref="AM34:AM38"/>
+      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1468,7 +1521,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>10</v>
@@ -1567,13 +1620,13 @@
         <v>137</v>
       </c>
       <c r="AS1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT1" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="AT1" s="8" t="s">
-        <v>139</v>
-      </c>
       <c r="AU1" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:47" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1709,8 +1762,8 @@
       <c r="AR2" s="2">
         <v>3</v>
       </c>
-      <c r="AS2" s="2" t="b">
-        <v>0</v>
+      <c r="AS2" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AT2" s="2">
         <v>0</v>
@@ -1849,8 +1902,8 @@
       <c r="AR3" s="2">
         <v>1</v>
       </c>
-      <c r="AS3" s="2" t="b">
-        <v>0</v>
+      <c r="AS3" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AT3" s="2">
         <v>0</v>
@@ -1989,8 +2042,8 @@
       <c r="AR4" s="2">
         <v>150</v>
       </c>
-      <c r="AS4" s="2" t="b">
-        <v>0</v>
+      <c r="AS4" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AT4" s="2">
         <v>0</v>
@@ -2129,8 +2182,8 @@
       <c r="AR5" s="2">
         <v>600</v>
       </c>
-      <c r="AS5" s="2" t="b">
-        <v>0</v>
+      <c r="AS5" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AT5" s="2">
         <v>0</v>
@@ -2269,8 +2322,8 @@
       <c r="AR6" s="2">
         <v>7</v>
       </c>
-      <c r="AS6" s="2" t="b">
-        <v>0</v>
+      <c r="AS6" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AT6" s="2">
         <v>0</v>
@@ -2409,8 +2462,8 @@
       <c r="AR7" s="2">
         <v>2</v>
       </c>
-      <c r="AS7" s="2" t="b">
-        <v>0</v>
+      <c r="AS7" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AT7" s="2">
         <v>0</v>
@@ -2549,8 +2602,8 @@
       <c r="AR8" s="2">
         <v>200</v>
       </c>
-      <c r="AS8" s="2" t="b">
-        <v>0</v>
+      <c r="AS8" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AT8" s="2">
         <v>0</v>
@@ -2689,8 +2742,8 @@
       <c r="AR9" s="2">
         <v>500</v>
       </c>
-      <c r="AS9" s="2" t="b">
-        <v>0</v>
+      <c r="AS9" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AT9" s="2">
         <v>0</v>
@@ -2829,8 +2882,8 @@
       <c r="AR10" s="2">
         <v>45</v>
       </c>
-      <c r="AS10" s="2" t="b">
-        <v>0</v>
+      <c r="AS10" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AT10" s="2">
         <v>0</v>
@@ -2969,8 +3022,8 @@
       <c r="AR11" s="2">
         <v>15</v>
       </c>
-      <c r="AS11" s="2" t="b">
-        <v>0</v>
+      <c r="AS11" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AT11" s="2">
         <v>0</v>
@@ -3109,8 +3162,8 @@
       <c r="AR12" s="2">
         <v>2000</v>
       </c>
-      <c r="AS12" s="2" t="b">
-        <v>0</v>
+      <c r="AS12" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AT12" s="2">
         <v>0</v>
@@ -3249,8 +3302,8 @@
       <c r="AR13" s="2">
         <v>2500</v>
       </c>
-      <c r="AS13" s="2" t="b">
-        <v>0</v>
+      <c r="AS13" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="AT13" s="2">
         <v>0</v>
@@ -3261,7 +3314,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>135</v>
@@ -3315,13 +3368,13 @@
         <v>31</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U14" s="9" t="s">
         <v>65</v>
       </c>
       <c r="V14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W14" s="2">
         <v>0</v>
@@ -3389,8 +3442,8 @@
       <c r="AR14" s="2">
         <v>2500</v>
       </c>
-      <c r="AS14" s="2" t="b">
-        <v>1</v>
+      <c r="AS14" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="AT14" s="2">
         <v>3000</v>
@@ -3401,7 +3454,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>133</v>
@@ -3455,13 +3508,13 @@
         <v>31</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="U15" s="9" t="s">
         <v>65</v>
       </c>
       <c r="V15" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W15" s="2">
         <v>0</v>
@@ -3529,8 +3582,8 @@
       <c r="AR15" s="2">
         <v>600</v>
       </c>
-      <c r="AS15" s="2" t="b">
-        <v>1</v>
+      <c r="AS15" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="AT15" s="2">
         <v>9000</v>
@@ -3541,7 +3594,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>133</v>
@@ -3595,13 +3648,13 @@
         <v>31</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U16" s="9" t="s">
         <v>65</v>
       </c>
       <c r="V16" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="W16" s="2">
         <v>0</v>
@@ -3669,8 +3722,8 @@
       <c r="AR16" s="2">
         <v>600</v>
       </c>
-      <c r="AS16" s="2" t="b">
-        <v>1</v>
+      <c r="AS16" s="2" t="s">
+        <v>221</v>
       </c>
       <c r="AT16" s="2">
         <v>15000</v>
@@ -3681,13 +3734,13 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E17" s="3">
         <v>15</v>
@@ -3735,13 +3788,13 @@
         <v>31</v>
       </c>
       <c r="T17" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="U17" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="U17" s="9" t="s">
-        <v>154</v>
-      </c>
       <c r="V17" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W17" s="2">
         <v>0</v>
@@ -3809,8 +3862,8 @@
       <c r="AR17" s="2">
         <v>600</v>
       </c>
-      <c r="AS17" s="2" t="b">
-        <v>0</v>
+      <c r="AS17" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT17" s="2">
         <v>0</v>
@@ -3821,13 +3874,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E18" s="3">
         <v>16</v>
@@ -3875,13 +3928,13 @@
         <v>31</v>
       </c>
       <c r="T18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="U18" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="U18" s="9" t="s">
-        <v>156</v>
-      </c>
       <c r="V18" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W18" s="2">
         <v>0</v>
@@ -3949,8 +4002,8 @@
       <c r="AR18" s="2">
         <v>600</v>
       </c>
-      <c r="AS18" s="2" t="b">
-        <v>0</v>
+      <c r="AS18" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT18" s="2">
         <v>0</v>
@@ -3961,13 +4014,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E19" s="3">
         <v>17</v>
@@ -4015,13 +4068,13 @@
         <v>31</v>
       </c>
       <c r="T19" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V19" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W19" s="2">
         <v>0</v>
@@ -4089,8 +4142,8 @@
       <c r="AR19" s="2">
         <v>600</v>
       </c>
-      <c r="AS19" s="2" t="b">
-        <v>0</v>
+      <c r="AS19" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT19" s="2">
         <v>0</v>
@@ -4101,13 +4154,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>162</v>
-      </c>
       <c r="D20" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E20" s="3">
         <v>17</v>
@@ -4155,13 +4208,13 @@
         <v>31</v>
       </c>
       <c r="T20" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="U20" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="U20" s="9" t="s">
-        <v>166</v>
-      </c>
       <c r="V20" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
@@ -4229,14 +4282,14 @@
       <c r="AR20" s="2">
         <v>600</v>
       </c>
-      <c r="AS20" s="2" t="b">
-        <v>0</v>
+      <c r="AS20" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT20" s="2">
         <v>0</v>
       </c>
       <c r="AU20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:47" x14ac:dyDescent="0.3">
@@ -4244,13 +4297,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E21" s="3">
         <v>17</v>
@@ -4298,13 +4351,13 @@
         <v>31</v>
       </c>
       <c r="T21" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="U21" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="U21" s="9" t="s">
-        <v>166</v>
-      </c>
       <c r="V21" s="9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="W21" s="2">
         <v>0</v>
@@ -4372,14 +4425,14 @@
       <c r="AR21" s="2">
         <v>600</v>
       </c>
-      <c r="AS21" s="2" t="b">
-        <v>0</v>
+      <c r="AS21" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT21" s="2">
         <v>0</v>
       </c>
       <c r="AU21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="22" spans="1:47" x14ac:dyDescent="0.3">
@@ -4387,13 +4440,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E22" s="3">
         <v>19</v>
@@ -4441,13 +4494,13 @@
         <v>31</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W22" s="2">
         <v>0</v>
@@ -4515,14 +4568,14 @@
       <c r="AR22" s="2">
         <v>600</v>
       </c>
-      <c r="AS22" s="2" t="b">
-        <v>0</v>
+      <c r="AS22" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT22" s="2">
         <v>0</v>
       </c>
       <c r="AU22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:47" x14ac:dyDescent="0.3">
@@ -4530,13 +4583,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="D23" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E23" s="3">
         <v>20</v>
@@ -4584,13 +4637,13 @@
         <v>31</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V23" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="W23" s="2">
         <v>0</v>
@@ -4658,14 +4711,14 @@
       <c r="AR23" s="2">
         <v>600</v>
       </c>
-      <c r="AS23" s="2" t="b">
-        <v>0</v>
+      <c r="AS23" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT23" s="2">
         <v>0</v>
       </c>
       <c r="AU23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -4673,13 +4726,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E24" s="18">
         <v>21</v>
@@ -4727,13 +4780,13 @@
         <v>31</v>
       </c>
       <c r="T24" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="U24" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V24" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W24" s="17">
         <v>0</v>
@@ -4801,14 +4854,14 @@
       <c r="AR24" s="17">
         <v>600</v>
       </c>
-      <c r="AS24" s="17" t="b">
-        <v>0</v>
+      <c r="AS24" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT24" s="17">
         <v>0</v>
       </c>
       <c r="AU24" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="25" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -4816,13 +4869,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E25" s="18">
         <v>22</v>
@@ -4870,13 +4923,13 @@
         <v>31</v>
       </c>
       <c r="T25" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="U25" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V25" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W25" s="17">
         <v>0</v>
@@ -4944,14 +4997,14 @@
       <c r="AR25" s="17">
         <v>600</v>
       </c>
-      <c r="AS25" s="17" t="b">
-        <v>0</v>
+      <c r="AS25" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT25" s="17">
         <v>0</v>
       </c>
       <c r="AU25" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -4959,13 +5012,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" s="18">
         <v>23</v>
@@ -5013,13 +5066,13 @@
         <v>31</v>
       </c>
       <c r="T26" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="U26" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V26" s="20" t="s">
         <v>177</v>
-      </c>
-      <c r="U26" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="V26" s="20" t="s">
-        <v>178</v>
       </c>
       <c r="W26" s="17">
         <v>0</v>
@@ -5087,14 +5140,14 @@
       <c r="AR26" s="17">
         <v>600</v>
       </c>
-      <c r="AS26" s="17" t="b">
-        <v>0</v>
+      <c r="AS26" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT26" s="17">
         <v>0</v>
       </c>
       <c r="AU26" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5102,13 +5155,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E27" s="18">
         <v>24</v>
@@ -5156,13 +5209,13 @@
         <v>31</v>
       </c>
       <c r="T27" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="U27" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V27" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W27" s="17">
         <v>0</v>
@@ -5230,14 +5283,14 @@
       <c r="AR27" s="17">
         <v>600</v>
       </c>
-      <c r="AS27" s="17" t="b">
-        <v>0</v>
+      <c r="AS27" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT27" s="17">
         <v>0</v>
       </c>
       <c r="AU27" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5245,13 +5298,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E28" s="18">
         <v>25</v>
@@ -5299,13 +5352,13 @@
         <v>31</v>
       </c>
       <c r="T28" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U28" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V28" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="W28" s="17">
         <v>0</v>
@@ -5373,14 +5426,14 @@
       <c r="AR28" s="17">
         <v>600</v>
       </c>
-      <c r="AS28" s="17" t="b">
-        <v>0</v>
+      <c r="AS28" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT28" s="17">
         <v>0</v>
       </c>
       <c r="AU28" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5388,13 +5441,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E29" s="18">
         <v>26</v>
@@ -5442,13 +5495,13 @@
         <v>31</v>
       </c>
       <c r="T29" s="17" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="U29" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V29" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W29" s="17">
         <v>0</v>
@@ -5516,14 +5569,14 @@
       <c r="AR29" s="17">
         <v>600</v>
       </c>
-      <c r="AS29" s="17" t="b">
-        <v>0</v>
+      <c r="AS29" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT29" s="17">
         <v>0</v>
       </c>
       <c r="AU29" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5531,13 +5584,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E30" s="18">
         <v>27</v>
@@ -5585,13 +5638,13 @@
         <v>31</v>
       </c>
       <c r="T30" s="17" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U30" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V30" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W30" s="17">
         <v>0</v>
@@ -5659,14 +5712,14 @@
       <c r="AR30" s="17">
         <v>600</v>
       </c>
-      <c r="AS30" s="17" t="b">
-        <v>0</v>
+      <c r="AS30" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT30" s="17">
         <v>0</v>
       </c>
       <c r="AU30" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5674,13 +5727,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E31" s="18">
         <v>28</v>
@@ -5728,13 +5781,13 @@
         <v>31</v>
       </c>
       <c r="T31" s="17" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U31" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V31" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W31" s="17">
         <v>0</v>
@@ -5802,14 +5855,14 @@
       <c r="AR31" s="17">
         <v>600</v>
       </c>
-      <c r="AS31" s="17" t="b">
-        <v>0</v>
+      <c r="AS31" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT31" s="17">
         <v>0</v>
       </c>
       <c r="AU31" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5817,13 +5870,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E32" s="18">
         <v>29</v>
@@ -5871,13 +5924,13 @@
         <v>31</v>
       </c>
       <c r="T32" s="17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="U32" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V32" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W32" s="17">
         <v>0</v>
@@ -5945,14 +5998,14 @@
       <c r="AR32" s="17">
         <v>600</v>
       </c>
-      <c r="AS32" s="17" t="b">
-        <v>0</v>
+      <c r="AS32" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT32" s="17">
         <v>0</v>
       </c>
       <c r="AU32" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -5960,13 +6013,13 @@
         <v>31</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E33" s="18">
         <v>30</v>
@@ -6014,13 +6067,13 @@
         <v>31</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U33" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V33" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="W33" s="17">
         <v>0</v>
@@ -6088,14 +6141,14 @@
       <c r="AR33" s="17">
         <v>600</v>
       </c>
-      <c r="AS33" s="17" t="b">
-        <v>0</v>
+      <c r="AS33" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT33" s="17">
         <v>0</v>
       </c>
       <c r="AU33" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -6103,13 +6156,13 @@
         <v>32</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E34" s="18">
         <v>31</v>
@@ -6157,13 +6210,13 @@
         <v>31</v>
       </c>
       <c r="T34" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="U34" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V34" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W34" s="17">
         <v>0</v>
@@ -6231,14 +6284,14 @@
       <c r="AR34" s="17">
         <v>600</v>
       </c>
-      <c r="AS34" s="17" t="b">
-        <v>0</v>
+      <c r="AS34" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT34" s="17">
         <v>0</v>
       </c>
       <c r="AU34" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -6246,13 +6299,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E35" s="18">
         <v>32</v>
@@ -6300,13 +6353,13 @@
         <v>31</v>
       </c>
       <c r="T35" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="U35" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V35" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W35" s="17">
         <v>0</v>
@@ -6374,14 +6427,14 @@
       <c r="AR35" s="17">
         <v>600</v>
       </c>
-      <c r="AS35" s="17" t="b">
-        <v>0</v>
+      <c r="AS35" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT35" s="17">
         <v>0</v>
       </c>
       <c r="AU35" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -6389,13 +6442,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E36" s="18">
         <v>33</v>
@@ -6443,13 +6496,13 @@
         <v>31</v>
       </c>
       <c r="T36" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U36" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V36" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W36" s="17">
         <v>0</v>
@@ -6517,14 +6570,14 @@
       <c r="AR36" s="17">
         <v>600</v>
       </c>
-      <c r="AS36" s="17" t="b">
-        <v>0</v>
+      <c r="AS36" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT36" s="17">
         <v>0</v>
       </c>
       <c r="AU36" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -6532,13 +6585,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E37" s="18">
         <v>34</v>
@@ -6586,13 +6639,13 @@
         <v>31</v>
       </c>
       <c r="T37" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="U37" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V37" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W37" s="17">
         <v>0</v>
@@ -6660,14 +6713,14 @@
       <c r="AR37" s="17">
         <v>600</v>
       </c>
-      <c r="AS37" s="17" t="b">
-        <v>0</v>
+      <c r="AS37" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT37" s="17">
         <v>0</v>
       </c>
       <c r="AU37" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:47" s="17" customFormat="1" x14ac:dyDescent="0.3">
@@ -6675,13 +6728,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E38" s="18">
         <v>35</v>
@@ -6729,13 +6782,13 @@
         <v>31</v>
       </c>
       <c r="T38" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U38" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V38" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="W38" s="17">
         <v>0</v>
@@ -6803,14 +6856,586 @@
       <c r="AR38" s="17">
         <v>600</v>
       </c>
-      <c r="AS38" s="17" t="b">
-        <v>0</v>
+      <c r="AS38" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="AT38" s="17">
         <v>0</v>
       </c>
       <c r="AU38" s="17" t="s">
-        <v>164</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
+        <v>37</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E39" s="18">
+        <v>36</v>
+      </c>
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>1</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>10000000</v>
+      </c>
+      <c r="K39" s="3">
+        <v>25</v>
+      </c>
+      <c r="L39" s="3">
+        <v>100</v>
+      </c>
+      <c r="M39" s="3">
+        <v>9</v>
+      </c>
+      <c r="N39" s="3">
+        <v>2</v>
+      </c>
+      <c r="O39" s="4">
+        <v>25</v>
+      </c>
+      <c r="P39" s="19">
+        <v>11</v>
+      </c>
+      <c r="Q39" s="17">
+        <v>4</v>
+      </c>
+      <c r="R39" s="17">
+        <v>10</v>
+      </c>
+      <c r="S39" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T39" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="U39" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V39" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="W39" s="17">
+        <v>0</v>
+      </c>
+      <c r="X39" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y39" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ39" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK39" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL39" s="17">
+        <v>40</v>
+      </c>
+      <c r="AM39" s="17">
+        <v>3.4999999999999997E-5</v>
+      </c>
+      <c r="AN39" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP39" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ39" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR39" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS39" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT39" s="17">
+        <v>1</v>
+      </c>
+      <c r="AU39" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <v>38</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="18">
+        <v>37</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>1</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>20000000</v>
+      </c>
+      <c r="K40" s="3">
+        <v>26</v>
+      </c>
+      <c r="L40" s="3">
+        <v>100</v>
+      </c>
+      <c r="M40" s="3">
+        <v>9</v>
+      </c>
+      <c r="N40" s="3">
+        <v>2</v>
+      </c>
+      <c r="O40" s="4">
+        <v>25</v>
+      </c>
+      <c r="P40" s="19">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="17">
+        <v>4</v>
+      </c>
+      <c r="R40" s="17">
+        <v>10</v>
+      </c>
+      <c r="S40" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T40" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="U40" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V40" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="W40" s="17">
+        <v>0</v>
+      </c>
+      <c r="X40" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y40" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ40" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL40" s="17">
+        <v>40</v>
+      </c>
+      <c r="AM40" s="17">
+        <v>4.0000000000000003E-5</v>
+      </c>
+      <c r="AN40" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO40" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP40" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ40" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR40" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS40" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT40" s="17">
+        <v>2</v>
+      </c>
+      <c r="AU40" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <v>39</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="18">
+        <v>38</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>30000000</v>
+      </c>
+      <c r="K41" s="3">
+        <v>27</v>
+      </c>
+      <c r="L41" s="3">
+        <v>100</v>
+      </c>
+      <c r="M41" s="3">
+        <v>9</v>
+      </c>
+      <c r="N41" s="3">
+        <v>2</v>
+      </c>
+      <c r="O41" s="4">
+        <v>25</v>
+      </c>
+      <c r="P41" s="19">
+        <v>11</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>4</v>
+      </c>
+      <c r="R41" s="17">
+        <v>10</v>
+      </c>
+      <c r="S41" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T41" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="U41" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V41" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="W41" s="17">
+        <v>0</v>
+      </c>
+      <c r="X41" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y41" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ41" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL41" s="17">
+        <v>40</v>
+      </c>
+      <c r="AM41" s="17">
+        <v>4.5000000000000003E-5</v>
+      </c>
+      <c r="AN41" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO41" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP41" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ41" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR41" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS41" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT41" s="17">
+        <v>3</v>
+      </c>
+      <c r="AU41" s="17" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
+        <v>40</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="18">
+        <v>39</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>60000000</v>
+      </c>
+      <c r="K42" s="3">
+        <v>28</v>
+      </c>
+      <c r="L42" s="3">
+        <v>100</v>
+      </c>
+      <c r="M42" s="3">
+        <v>9</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2</v>
+      </c>
+      <c r="O42" s="4">
+        <v>25</v>
+      </c>
+      <c r="P42" s="19">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="17">
+        <v>4</v>
+      </c>
+      <c r="R42" s="17">
+        <v>10</v>
+      </c>
+      <c r="S42" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="T42" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="U42" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V42" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="W42" s="17">
+        <v>0</v>
+      </c>
+      <c r="X42" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y42" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="17">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="17">
+        <v>4</v>
+      </c>
+      <c r="AJ42" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL42" s="17">
+        <v>40</v>
+      </c>
+      <c r="AM42" s="17">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="AN42" s="17">
+        <v>1</v>
+      </c>
+      <c r="AO42" s="17">
+        <v>2</v>
+      </c>
+      <c r="AP42" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="AQ42" s="17">
+        <v>600</v>
+      </c>
+      <c r="AR42" s="17">
+        <v>600</v>
+      </c>
+      <c r="AS42" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="AT42" s="17">
+        <v>4</v>
+      </c>
+      <c r="AU42" s="17" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/SkillTable.xlsx
+++ b/Assets/06.Table/SkillTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568AE04A-BE79-419F-AEFD-AFE4F47721EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4998475-2E72-48DA-93C1-EDE3DFB5512A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillTable" sheetId="1" r:id="rId1"/>
@@ -1433,7 +1433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1444,9 +1444,9 @@
   <dimension ref="A1:AU42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="Y1" sqref="Y1"/>
-      <selection pane="bottomLeft" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomLeft" activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6889,16 +6889,16 @@
         <v>0</v>
       </c>
       <c r="H39" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
       </c>
       <c r="J39" s="3">
-        <v>10000000</v>
+        <v>20000</v>
       </c>
       <c r="K39" s="3">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="L39" s="3">
         <v>100</v>
@@ -7032,16 +7032,16 @@
         <v>0</v>
       </c>
       <c r="H40" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <v>20000000</v>
+        <v>40000</v>
       </c>
       <c r="K40" s="3">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="L40" s="3">
         <v>100</v>
@@ -7175,16 +7175,16 @@
         <v>0</v>
       </c>
       <c r="H41" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
-        <v>30000000</v>
+        <v>80000</v>
       </c>
       <c r="K41" s="3">
-        <v>27</v>
+        <v>400</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -7318,16 +7318,16 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>60000000</v>
+        <v>160000</v>
       </c>
       <c r="K42" s="3">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="L42" s="3">
         <v>100</v>
